--- a/examples/99_tower_gbf/15mw/30m/outputs_mono/monotow_output.xlsx
+++ b/examples/99_tower_gbf/15mw/30m/outputs_mono/monotow_output.xlsx
@@ -914,7 +914,8 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
+          <t>[[0.12997233 0.13       0.13       0.12995885 0.12995998 0.1299748
+  0.12997784]]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -937,8 +938,8 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253]</t>
+          <t>[11.         11.         11.         10.95121027 10.9512112  10.82254631
+ 10.82255446]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1635,7 +1636,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[11.02193253]</t>
+          <t>[10.]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1658,7 +1659,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[11.02193253]</t>
+          <t>[10.82255446]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2942,7 +2943,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[2.82995258]</t>
+          <t>[2.97518627]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -3519,7 +3520,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[[0.05789818 0.03809647 0.01626663 0.00731973 0.01548895]]</t>
+          <t>[[0.04  0.04  0.04  0.015 0.015]]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3542,7 +3543,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253  9.95510427  5.999     ]</t>
+          <t>[10.         10.          9.99727031  6.57606399  6.57608231]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -4573,10 +4574,10 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          48129.07265843
-  48823.69299811  50930.68327043  54520.64739801  59715.6422191
-  66696.98950538  75719.0074046   87132.29856126 101422.72217212
- 119276.22248537      0.              0.              0.
+          <t>[     0.              0.              0.          47941.642397
+  48633.63313747  50732.65247576  54309.05199929  59313.30112057
+  66058.52896089  74781.18167334  86056.14118855 100172.95742156
+ 117808.55339718      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -4827,10 +4828,10 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253]</t>
+          <t>[11.         11.         11.         11.         11.         11.
+ 11.         10.98373676 10.96747352 10.95121027 10.95121058 10.95121089
+ 10.9512112  10.9083229  10.86543461 10.82254631 10.82254903 10.82255174
+ 10.82255446]</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -4971,10 +4972,10 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          48129.07265843
-  48823.69299811  50930.68327043  54520.64739801  59715.6422191
-  66696.98950538  75719.0074046   87132.29856126 101422.72217212
- 119276.22248537      0.              0.              0.
+          <t>[     0.              0.              0.          47941.642397
+  48633.63313747  50732.65247576  54309.05199929  59313.30112057
+  66058.52896089  74781.18167334  86056.14118855 100172.95742156
+ 117808.55339718      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5117,10 +5118,10 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -48129.07265843
-  -48823.69299811  -50930.68327043  -54520.64739801  -59715.6422191
-  -66696.98950538  -75719.0074046   -87132.29856126 -101422.72217212
- -119276.22248537       0.               0.               0.
+          <t>[      0.               0.               0.          -47941.642397
+  -48633.63313747  -50732.65247576  -54309.05199929  -59313.30112057
+  -66058.52896089  -74781.18167334  -86056.14118855 -100172.95742156
+ -117808.55339718       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -5171,8 +5172,8 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253]</t>
+          <t>[11.         11.         11.         10.95121027 10.9512112  10.82254631
+ 10.82255446]</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -5195,7 +5196,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.12998616 0.13       0.12997942 0.12995941 0.12996739 0.12997632]</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -5261,8 +5262,8 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253]</t>
+          <t>[11.         11.         11.         10.95121027 10.9512112  10.82254631
+ 10.82255446]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -5285,7 +5286,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.12998616 0.13       0.12997942 0.12995941 0.12996739 0.12997632]</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -5548,8 +5549,9 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077
- 0.077 0.077 0.077 0.077 0.077 0.077]</t>
+          <t>[0.12998616 0.12998616 0.12998616 0.13       0.13       0.13
+ 0.12997942 0.12997942 0.12997942 0.12995941 0.12995941 0.12995941
+ 0.12996739 0.12996739 0.12996739 0.12997632 0.12997632 0.12997632]</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5713,7 +5715,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[1657270.23422367]</t>
+          <t>[2769046.08902908]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5736,7 +5738,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[4044675.00943214]</t>
+          <t>[6483060.08044048]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5759,7 +5761,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[37.5]</t>
+          <t>[37.40765676]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5782,7 +5784,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[3.13219879e+09 3.13219879e+09 4.96341982e+07 0.00000000e+00
+          <t>[5.21032784e+09 5.21032784e+09 8.12629080e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -5806,7 +5808,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[1075078.18929379]</t>
+          <t>[1178239.84885882]</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5829,7 +5831,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[3034829.18824379]</t>
+          <t>[3177543.13779193]</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5876,26 +5878,26 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[[2.25728098e+10 5.88832555e+12 2.25728098e+10 5.88832555e+12
-  1.52235685e+10 1.24971223e+11]
- [2.04978625e+10 4.24270853e+12 2.04978625e+10 4.24270853e+12
-  1.41035685e+10 1.24971223e+11]
- [1.84229151e+10 2.95106681e+12 1.84229151e+10 2.95106681e+12
-  1.29835685e+10 1.24971223e+11]
- [1.63479677e+10 1.96915349e+12 1.63479677e+10 1.96915349e+12
-  1.18635685e+10 1.24971223e+11]
- [1.42730203e+10 1.25272165e+12 1.42730203e+10 1.25272165e+12
-  1.07435685e+10 1.24971223e+11]
- [1.21980730e+10 7.57524372e+11 1.21980730e+10 7.57524372e+11
-  9.62356851e+09 1.24971223e+11]
- [1.01231256e+10 4.39314753e+11 1.01231256e+10 4.39314753e+11
-  8.50356851e+09 1.24971223e+11]
- [8.04817824e+09 2.53845875e+11 8.04817824e+09 2.53845875e+11
-  7.38356851e+09 1.24971223e+11]
- [5.97323087e+09 1.56870824e+11 5.97323087e+09 1.56870824e+11
-  6.26356851e+09 1.24971223e+11]
- [3.89828350e+09 1.04142686e+11 3.89828350e+09 1.04142686e+11
-  5.14356851e+09 1.24971223e+11]]</t>
+          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
+  1.52133333e+10 1.24226667e+11]
+ [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
+  1.40933333e+10 1.24226667e+11]
+ [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
+  1.29733333e+10 1.24226667e+11]
+ [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
+  1.18533333e+10 1.24226667e+11]
+ [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
+  1.07333333e+10 1.24226667e+11]
+ [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
+  9.61333333e+09 1.24226667e+11]
+ [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
+  8.49333333e+09 1.24226667e+11]
+ [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
+  7.37333333e+09 1.24226667e+11]
+ [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
+  6.25333333e+09 1.24226667e+11]
+ [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
+  5.13333333e+09 1.24226667e+11]]</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -5918,9 +5920,9 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057]</t>
+          <t>[4.74964202 4.74964202 4.74964202 4.7501415  4.7501415  4.7501415
+ 4.74584571 4.73873987 4.73163403 4.72736208 4.72736222 4.72736235
+ 4.71828053 4.69954323 4.68080594 4.67175484 4.67175603 4.67175721]</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5943,9 +5945,9 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114]</t>
+          <t>[2.70998501 2.70998501 2.70998501 2.71027165 2.71027165 2.71027165
+ 2.70782961 2.70379816 2.69976671 2.69733834 2.69733842 2.6973385
+ 2.69218787 2.68155743 2.67092701 2.66579406 2.66579473 2.66579541]</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5968,9 +5970,9 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114]</t>
+          <t>[2.70998501 2.70998501 2.70998501 2.71027165 2.71027165 2.71027165
+ 2.70782961 2.70379816 2.69976671 2.69733834 2.69733842 2.6973385
+ 2.69218787 2.68155743 2.67092701 2.66579406 2.66579473 2.66579541]</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5993,9 +5995,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162]</t>
+          <t>[70.16058217 70.16058217 70.16058217 70.16778394 70.16778394 70.16778394
+ 69.99975672 69.68583041 69.37284413 69.20643168 69.20643759 69.20644349
+ 68.79994024 67.98361213 67.17376731 66.7757137  66.77576459 66.77581548]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6018,9 +6020,9 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162]</t>
+          <t>[70.16058217 70.16058217 70.16058217 70.16778394 70.16778394 70.16778394
+ 69.99975672 69.68583041 69.37284413 69.20643168 69.20643759 69.20644349
+ 68.79994024 67.98361213 67.17376731 66.7757137  66.77576459 66.77581548]</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -6043,9 +6045,10 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323]</t>
+          <t>[140.32116434 140.32116434 140.32116434 140.33556788 140.33556788
+ 140.33556788 139.99951344 139.37166083 138.74568827 138.41286337
+ 138.41287518 138.41288699 137.59988047 135.96722427 134.34753462
+ 133.55142741 133.55152919 133.55163096]</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -6240,8 +6243,8 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[1.77056998 1.77056998 1.77056998 1.00460023 1.00460023 1.00460023
- 0.42942434 0.41532698 0.40122961 0.35592244 0.30536904 0.25481564]</t>
+          <t>[1.33922325 1.33922325 1.33922325 1.33916208 1.33903973 1.33891739
+ 0.868909   0.76348868 0.65806835 0.33082581 0.33082612 0.33082643]</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -6264,8 +6267,8 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
+ 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -6288,8 +6291,8 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
+ 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6312,8 +6315,8 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
+  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -6336,8 +6339,8 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
+  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6360,8 +6363,8 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[53.30723966 53.30723966 53.30723966 30.36034687 30.36034687 30.36034687
- 12.59712135 11.39677056 10.27520193  7.67006363  4.84404422  2.81456778]</t>
+          <t>[33.21380796 33.21380796 33.21380796 33.20925684 33.20015585 33.19105652
+ 19.19260506 13.02026832  8.33732654  3.56033296  3.5603429   3.56035284]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -6455,9 +6458,9 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 10.66632311 10.31071369  9.95510427  8.63640285  7.31770142
-  5.999     ]</t>
+          <t>[10.         10.         10.         10.          9.9990901   9.99818021
+  9.99727031  8.8568682   7.7164661   6.57606399  6.5760701   6.5760762
+  6.57608231]</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -6480,8 +6483,8 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[0.04799733 0.04799733 0.04799733 0.02718155 0.02718155 0.02718155
- 0.01179318 0.01179318 0.01179318 0.01140434 0.01140434 0.01140434]</t>
+          <t>[0.04   0.04   0.04   0.04   0.04   0.04   0.0275 0.0275 0.0275 0.015
+ 0.015  0.015 ]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6586,9 +6589,9 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[[  2427925.55809664]
- [    29094.73368413]
- [-17691583.00028507]]</t>
+          <t>[[  2427925.55809654]
+ [    29094.73368412]
+ [-18693228.13433488]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6611,8 +6614,8 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[-4.68128734e+06]
- [ 3.53408469e+08]
+          <t>[[-4.71225004e+06]
+ [ 3.55640347e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -6636,7 +6639,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>[1518537.45761618 1518537.45761618 3037074.91523236       0.
+          <t>[1464096.06274318 1464096.06274318 2928192.12548636       0.
        0.               0.        ]</t>
         </is>
       </c>
@@ -6729,7 +6732,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[2042153.07941735]</t>
+          <t>[2145314.73898238]</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6752,7 +6755,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[-3.13247093e+00 -4.62753410e-02  1.05628879e+02]</t>
+          <t>[-2.98183994e+00 -4.40501006e-02  1.07808252e+02]</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -6775,7 +6778,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[3.02734470e+10 3.01359600e+10 2.88588440e+08 7.86163621e+02
+          <t>[3.17668343e+10 3.16293473e+10 2.84222173e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -6884,16 +6887,16 @@
           <t>[[      0.        ]
  [      0.        ]
  [      0.        ]
- [ -48129.07265843]
- [ -48823.69299811]
- [ -50930.68327043]
- [ -54520.64739801]
- [ -59715.6422191 ]
- [ -66696.98950538]
- [ -75719.0074046 ]
- [ -87132.29856126]
- [-101422.72217212]
- [-119276.22248537]
+ [ -47941.642397  ]
+ [ -48633.63313747]
+ [ -50732.65247576]
+ [ -54309.05199929]
+ [ -59313.30112057]
+ [ -66058.52896089]
+ [ -74781.18167334]
+ [ -86056.14118855]
+ [-100172.95742156]
+ [-117808.55339718]
  [      0.        ]
  [      0.        ]
  [      0.        ]
@@ -6992,19 +6995,19 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[[-371.4793265 ]
- [-427.39276174]
- [-466.29138454]
- [-496.79280604]
- [-531.93235094]
- [-560.82588545]
- [-585.57146893]
- [-580.31611632]
- [-573.36902904]
- [-564.9196529 ]
- [-500.38743524]
- [-430.35572601]
- [-352.18249915]]</t>
+          <t>[[-336.9560439 ]
+ [-388.43785582]
+ [-424.16473764]
+ [-452.12457083]
+ [-484.23177151]
+ [-510.56968119]
+ [-533.07977868]
+ [-484.77613683]
+ [-431.3139066 ]
+ [-371.41485665]
+ [-377.98294805]
+ [-384.21329897]
+ [-390.14302107]]</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -7027,24 +7030,24 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[[-35263334.54994567]
- [-33096436.19061824]
- [-30691298.92308791]
- [-29809027.40900908]
- [-28922133.2395282 ]
- [-28025839.09752702]
- [-27115049.77018829]
- [-26184169.47595264]
- [-25226883.62623878]
- [-24235879.51138749]
- [-23202464.28699249]
- [-22116011.59227018]
- [-21196906.38106724]
- [-20474606.92795827]
- [-19752307.47484902]
- [-19391157.74829444]
- [-19030008.02173989]
- [-18668858.2951853 ]]</t>
+          <t>[[-45679159.64797284]
+ [-42046188.37178015]
+ [-38175905.98363774]
+ [-36805438.92815914]
+ [-35430366.70985661]
+ [-34045930.04559491]
+ [-32648430.60714221]
+ [-31233356.27759575]
+ [-29794571.67384157]
+ [-28323880.20744623]
+ [-26811292.3025943 ]
+ [-25246312.90240559]
+ [-23848934.48159451]
+ [-22650717.56678559]
+ [-21457277.79018086]
+ [-20861711.80554731]
+ [-20266145.69322705]
+ [-19670579.38937784]]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7067,24 +7070,24 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[-3778130.93853854]
- [-9497146.75393792]
- [-9729902.86428811]
- [ 2428235.63469534]
- [ 2428312.97453413]
- [ 2428392.04043604]
- [ 2428474.17105419]
- [ 2428560.87679678]
- [ 2428653.93133404]
- [ 2428755.49385769]
- [ 2428868.28738497]
- [ 2428995.87629441]
- [ 2428974.06835787]
- [ 2428744.96384273]
- [ 2428795.12220169]
- [ 2428378.78241598]
- [ 2428390.88233579]
- [ 2428402.83567486]]</t>
+          <t>[[ -5170171.61667736]
+ [-10201189.58746336]
+ [ -8271105.79490609]
+ [  2428262.21986983]
+ [  2428334.4054398 ]
+ [  2428407.31406319]
+ [  2428481.34010618]
+ [  2428557.44095096]
+ [  2428637.11119452]
+ [  2428722.1147329 ]
+ [  2428814.49606357]
+ [  2428915.64217862]
+ [  2428920.47634721]
+ [  2428793.06194539]
+ [  2428841.731838  ]
+ [  2428402.04150196]
+ [  2428414.74028648]
+ [  2428427.28653411]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7107,24 +7110,24 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[ -49086.02420458]
- [-123628.7614075 ]
- [-127631.09754114]
- [  29098.74853778]
- [  29099.75506056]
- [  29100.78540689]
- [  29101.85706074]
- [  29102.98979195]
- [  29104.20685768]
- [  29105.53661024]
- [  29107.01484339]
- [  29108.68844467]
- [  29108.41545022]
- [  29105.43487906]
- [  29106.0995673 ]
- [  29100.66147567]
- [  29100.82236916]
- [  29100.98150279]]</t>
+          <t>[[ -67201.37761762]
+ [-132920.24359543]
+ [-108862.22353195]
+ [  29099.09323218]
+ [  29100.0329401 ]
+ [  29100.98335858]
+ [  29101.94967236]
+ [  29102.94441344]
+ [  29103.98713832]
+ [  29105.10096007]
+ [  29106.31271119]
+ [  29107.64073994]
+ [  29107.71445399]
+ [  29106.06156553]
+ [  29106.7073665 ]
+ [  29100.96501744]
+ [  29101.13392277]
+ [  29101.3009978 ]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7147,24 +7150,24 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[ -555394.14286993]
- [-2532410.52279644]
- [-4963966.03944673]
- [-5671282.33224627]
- [-5573175.37378599]
- [-5474890.74509241]
- [-5376445.49740699]
- [-5277856.84535976]
- [-5179142.33237533]
- [-5080320.02245757]
- [-4981408.73094247]
- [-4882428.31259283]
- [-4783399.99368004]
- [-4684323.86318261]
- [-4585193.53326977]
- [-4535621.45758781]
- [-4486040.50506337]
- [-4436451.8974777 ]]</t>
+          <t>[[ -916281.80474398]
+ [-3140431.52593904]
+ [-5200238.64655151]
+ [-5675765.98273834]
+ [-5577838.26966975]
+ [-5479789.38318111]
+ [-5381634.24886006]
+ [-5283387.45683596]
+ [-5185063.5814827 ]
+ [-5086677.61492459]
+ [-4988245.26641873]
+ [-4889782.98416667]
+ [-4791307.64423736]
+ [-4692822.04350183]
+ [-4594324.57735257]
+ [-4545084.83769162]
+ [-4495846.31482789]
+ [-4446610.17535903]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7187,24 +7190,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[4.28975076e+07]
- [1.95278195e+08]
- [3.81817870e+08]
- [4.35733648e+08]
- [4.27553803e+08]
- [4.19360342e+08]
- [4.11154598e+08]
- [4.02937913e+08]
- [3.94711652e+08]
- [3.86477219e+08]
- [3.78236072e+08]
- [3.69989744e+08]
- [3.61739872e+08]
- [3.53486470e+08]
- [3.45229058e+08]
- [3.41099876e+08]
- [3.36970051e+08]
- [3.32839678e+08]]</t>
+          <t>[[7.07863281e+07]
+ [2.42157799e+08]
+ [3.99909785e+08]
+ [4.35964789e+08]
+ [4.27798775e+08]
+ [4.19623483e+08]
+ [4.11440076e+08]
+ [4.03249689e+08]
+ [3.95053453e+08]
+ [3.86852530e+08]
+ [3.78648134e+08]
+ [3.70441533e+08]
+ [3.62234024e+08]
+ [3.54025825e+08]
+ [3.45816817e+08]
+ [3.41713039e+08]
+ [3.37609378e+08]
+ [3.33505926e+08]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7227,24 +7230,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[ 214072.72737014]
- [ 467910.00804974]
- [ 808666.05405471]
- [1299638.62650943]
- [1299633.52179037]
- [1299628.39036558]
- [1299623.20459526]
- [1299617.93500122]
- [1299612.54921015]
- [1299607.01069109]
- [1299601.27713974]
- [1299595.29826866]
- [1299589.01260618]
- [1299583.69517856]
- [1299579.5163893 ]
- [1299575.3376269 ]
- [1299573.24825578]
- [1299571.15889139]]</t>
+          <t>[[ 250279.35745713]
+ [ 528498.37433239]
+ [ 865719.98261656]
+ [1299592.78326119]
+ [1299588.05459612]
+ [1299583.31007597]
+ [1299578.63961138]
+ [1299573.98249186]
+ [1299569.25053078]
+ [1299564.36016284]
+ [1299559.26145684]
+ [1299554.01754261]
+ [1299548.76051029]
+ [1299544.23703964]
+ [1299540.37468969]
+ [1299536.34173302]
+ [1299534.2524729 ]
+ [1299532.16321261]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7296,12 +7299,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 10.66632311 10.31071369  9.95510427  8.63640285  7.31770142
-  5.999     ]</t>
+          <t>[11.         11.         11.         11.         11.         11.
+ 11.         10.98373676 10.96747352 10.95121027 10.95121058 10.95121089
+ 10.9512112  10.9083229  10.86543461 10.82254631 10.82254903 10.82255174
+ 10.         10.         10.         10.          9.9990901   9.99818021
+  9.99727031  8.8568682   7.7164661   6.57606399  6.5760701   6.5760762
+  6.57608231]</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -7324,11 +7327,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>[0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.04799733 0.04799733 0.04799733 0.02718155 0.02718155 0.02718155
- 0.01179318 0.01179318 0.01179318 0.01140434 0.01140434 0.01140434]</t>
+          <t>[0.12998616 0.12998616 0.12998616 0.13       0.13       0.13
+ 0.12997942 0.12997942 0.12997942 0.12995941 0.12995941 0.12995941
+ 0.12996739 0.12996739 0.12996739 0.12997632 0.12997632 0.12997632
+ 0.04       0.04       0.04       0.04       0.04       0.04
+ 0.0275     0.0275     0.0275     0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -7476,11 +7479,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>[2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 1.77056998 1.77056998 1.77056998 1.00460023 1.00460023 1.00460023
- 0.42942434 0.41532698 0.40122961 0.35592244 0.30536904 0.25481564]</t>
+          <t>[4.74964202 4.74964202 4.74964202 4.7501415  4.7501415  4.7501415
+ 4.74584571 4.73873987 4.73163403 4.72736208 4.72736222 4.72736235
+ 4.71828053 4.69954323 4.68080594 4.67175484 4.67175603 4.67175721
+ 1.33922325 1.33922325 1.33922325 1.33916208 1.33903973 1.33891739
+ 0.868909   0.76348868 0.65806835 0.33082581 0.33082612 0.33082643]</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -7503,11 +7506,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>[1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[2.70998501 2.70998501 2.70998501 2.71027165 2.71027165 2.71027165
+ 2.70782961 2.70379816 2.69976671 2.69733834 2.69733842 2.6973385
+ 2.69218787 2.68155743 2.67092701 2.66579406 2.66579473 2.66579541
+ 0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
+ 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -7530,11 +7533,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[2.70998501 2.70998501 2.70998501 2.71027165 2.71027165 2.71027165
+ 2.70782961 2.70379816 2.69976671 2.69733834 2.69733842 2.6973385
+ 2.69218787 2.68155743 2.67092701 2.66579406 2.66579473 2.66579541
+ 0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
+ 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -7557,11 +7560,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[70.16058217 70.16058217 70.16058217 70.16778394 70.16778394 70.16778394
+ 69.99975672 69.68583041 69.37284413 69.20643168 69.20643759 69.20644349
+ 68.79994024 67.98361213 67.17376731 66.7757137  66.77576459 66.77581548
+ 16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
+  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -7584,11 +7587,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[70.16058217 70.16058217 70.16058217 70.16778394 70.16778394 70.16778394
+ 69.99975672 69.68583041 69.37284413 69.20643168 69.20643759 69.20644349
+ 68.79994024 67.98361213 67.17376731 66.7757137  66.77576459 66.77581548
+ 16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
+  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -7611,11 +7614,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>[84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 53.30723966 53.30723966 53.30723966 30.36034687 30.36034687 30.36034687
- 12.59712135 11.39677056 10.27520193  7.67006363  4.84404422  2.81456778]</t>
+          <t>[140.32116434 140.32116434 140.32116434 140.33556788 140.33556788
+ 140.33556788 139.99951344 139.37166083 138.74568827 138.41286337
+ 138.41287518 138.41288699 137.59988047 135.96722427 134.34753462
+ 133.55142741 133.55152919 133.55163096  33.21380796  33.21380796
+  33.21380796  33.20925684  33.20015585  33.19105652  19.19260506
+  13.02026832   8.33732654   3.56033296   3.5603429    3.56035284]</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -7638,36 +7642,36 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>[[-3.52633345e+07]
- [-3.30964362e+07]
- [-3.06912989e+07]
- [-2.98090274e+07]
- [-2.89221332e+07]
- [-2.80258391e+07]
- [-2.71150498e+07]
- [-2.61841695e+07]
- [-2.52268836e+07]
- [-2.42358795e+07]
- [-2.32024643e+07]
- [-2.21160116e+07]
- [-2.11969064e+07]
- [-2.04746069e+07]
- [-1.97523075e+07]
- [-1.93911577e+07]
- [-1.90300080e+07]
- [-1.86688583e+07]
- [-1.60511882e+07]
- [-1.44115973e+07]
- [-1.27714399e+07]
- [-1.14381105e+07]
- [-1.01042209e+07]
- [-8.76978460e+06]
- [-8.42405623e+06]
- [-8.08938504e+06]
- [-7.76593335e+06]
- [-7.49758542e+06]
- [-7.26692826e+06]
- [-9.89530236e-10]]</t>
+          <t>[[-4.56791596e+07]
+ [-4.20461884e+07]
+ [-3.81759060e+07]
+ [-3.68054389e+07]
+ [-3.54303667e+07]
+ [-3.40459300e+07]
+ [-3.26484306e+07]
+ [-3.12333563e+07]
+ [-2.97945717e+07]
+ [-2.83238802e+07]
+ [-2.68112923e+07]
+ [-2.52463129e+07]
+ [-2.38489345e+07]
+ [-2.26507176e+07]
+ [-2.14572778e+07]
+ [-2.08617118e+07]
+ [-2.02661457e+07]
+ [-1.96705794e+07]
+ [-1.74513902e+07]
+ [-1.62105129e+07]
+ [-1.49691146e+07]
+ [-1.31952253e+07]
+ [-1.14209848e+07]
+ [-9.64640679e+06]
+ [-8.95338584e+06]
+ [-8.34392923e+06]
+ [-7.81842602e+06]
+ [-7.57022009e+06]
+ [-7.32226889e+06]
+ [ 2.98314262e-09]]</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -7690,36 +7694,36 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>[[-3.77813094e+06]
- [-9.49714675e+06]
- [-9.72990286e+06]
- [ 2.42823563e+06]
- [ 2.42831297e+06]
- [ 2.42839204e+06]
- [ 2.42847417e+06]
- [ 2.42856088e+06]
- [ 2.42865393e+06]
- [ 2.42875549e+06]
- [ 2.42886829e+06]
- [ 2.42899588e+06]
- [ 2.42897407e+06]
- [ 2.42874496e+06]
- [ 2.42879512e+06]
- [ 2.42837878e+06]
- [ 2.42839088e+06]
- [ 2.42840284e+06]
- [ 2.43042372e+06]
- [ 2.43099091e+06]
- [ 2.43149877e+06]
- [ 2.43147031e+06]
- [ 2.43222854e+06]
- [ 2.43282392e+06]
- [ 2.42934456e+06]
- [ 2.42942629e+06]
- [ 2.42947163e+06]
- [ 2.42926407e+06]
- [ 2.42909790e+06]
- [ 9.57378303e+02]]</t>
+          <t>[[-5.17017162e+06]
+ [-1.02011896e+07]
+ [-8.27110579e+06]
+ [ 2.42826222e+06]
+ [ 2.42833441e+06]
+ [ 2.42840731e+06]
+ [ 2.42848134e+06]
+ [ 2.42855744e+06]
+ [ 2.42863711e+06]
+ [ 2.42872211e+06]
+ [ 2.42881450e+06]
+ [ 2.42891564e+06]
+ [ 2.42892048e+06]
+ [ 2.42879306e+06]
+ [ 2.42884173e+06]
+ [ 2.42840204e+06]
+ [ 2.42841474e+06]
+ [ 2.42842729e+06]
+ [ 2.42936365e+06]
+ [ 2.43005190e+06]
+ [ 2.43067026e+06]
+ [ 2.43278469e+06]
+ [ 2.43370804e+06]
+ [ 2.43443218e+06]
+ [ 2.43068725e+06]
+ [ 2.43053222e+06]
+ [ 2.43033644e+06]
+ [ 2.42915605e+06]
+ [ 2.42919322e+06]
+ [ 1.23919658e+03]]</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -7742,36 +7746,36 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[[-4.90860242e+04]
- [-1.23628761e+05]
- [-1.27631098e+05]
- [ 2.90987485e+04]
- [ 2.90997551e+04]
- [ 2.91007854e+04]
- [ 2.91018571e+04]
- [ 2.91029898e+04]
- [ 2.91042069e+04]
- [ 2.91055366e+04]
- [ 2.91070148e+04]
- [ 2.91086884e+04]
- [ 2.91084155e+04]
- [ 2.91054349e+04]
- [ 2.91060996e+04]
- [ 2.91006615e+04]
- [ 2.91008224e+04]
- [ 2.91009815e+04]
- [ 2.91275153e+04]
- [ 2.91351480e+04]
- [ 2.91420640e+04]
- [ 2.91420584e+04]
- [ 2.91528279e+04]
- [ 2.91616399e+04]
- [ 2.91143934e+04]
- [ 2.91159227e+04]
- [ 2.91170350e+04]
- [ 2.91145662e+04]
- [ 2.91128556e+04]
- [ 1.52879523e+01]]</t>
+          <t>[[-6.72013776e+04]
+ [-1.32920244e+05]
+ [-1.08862224e+05]
+ [ 2.90990932e+04]
+ [ 2.91000329e+04]
+ [ 2.91009834e+04]
+ [ 2.91019497e+04]
+ [ 2.91029444e+04]
+ [ 2.91039871e+04]
+ [ 2.91051010e+04]
+ [ 2.91063127e+04]
+ [ 2.91076407e+04]
+ [ 2.91077145e+04]
+ [ 2.91060616e+04]
+ [ 2.91067074e+04]
+ [ 2.91009650e+04]
+ [ 2.91011339e+04]
+ [ 2.91013010e+04]
+ [ 2.91136441e+04]
+ [ 2.91229093e+04]
+ [ 2.91313326e+04]
+ [ 2.91600123e+04]
+ [ 2.91731304e+04]
+ [ 2.91838521e+04]
+ [ 2.91329902e+04]
+ [ 2.91314033e+04]
+ [ 2.91294792e+04]
+ [ 2.91133147e+04]
+ [ 2.91152117e+04]
+ [ 2.08609162e+01]]</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -7794,36 +7798,36 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>[[-5.55394143e+05]
- [-2.53241052e+06]
- [-4.96396604e+06]
- [-5.67128233e+06]
- [-5.57317537e+06]
- [-5.47489075e+06]
- [-5.37644550e+06]
- [-5.27785685e+06]
- [-5.17914233e+06]
- [-5.08032002e+06]
- [-4.98140873e+06]
- [-4.88242831e+06]
- [-4.78339999e+06]
- [-4.68432386e+06]
- [-4.58519353e+06]
- [-4.53562146e+06]
- [-4.48604051e+06]
- [-4.43645190e+06]
- [-4.07669297e+06]
- [-3.71592832e+06]
- [-3.35467539e+06]
- [-2.83732260e+06]
- [-2.31840948e+06]
- [-1.79920493e+06]
- [-1.48783810e+06]
- [-1.17576467e+06]
- [-8.63186701e+05]
- [-5.71134704e+05]
- [-2.78796500e+05]
- [-3.73816029e-04]]</t>
+          <t>[[-9.16281805e+05]
+ [-3.14043153e+06]
+ [-5.20023865e+06]
+ [-5.67576598e+06]
+ [-5.57783827e+06]
+ [-5.47978938e+06]
+ [-5.38163425e+06]
+ [-5.28338746e+06]
+ [-5.18506358e+06]
+ [-5.08667761e+06]
+ [-4.98824527e+06]
+ [-4.88978298e+06]
+ [-4.79130764e+06]
+ [-4.69282204e+06]
+ [-4.59432458e+06]
+ [-4.54508484e+06]
+ [-4.49584631e+06]
+ [-4.44661018e+06]
+ [-4.08851565e+06]
+ [-3.72773650e+06]
+ [-3.36498593e+06]
+ [-2.84427150e+06]
+ [-2.32243062e+06]
+ [-1.80091682e+06]
+ [-1.48884812e+06]
+ [-1.17666468e+06]
+ [-8.64213656e+05]
+ [-5.71947032e+05]
+ [-2.78904686e+05]
+ [-5.18547805e-04]]</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -7846,36 +7850,36 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>[[ 4.28975076e+07]
- [ 1.95278195e+08]
- [ 3.81817870e+08]
- [ 4.35733648e+08]
- [ 4.27553803e+08]
- [ 4.19360342e+08]
- [ 4.11154598e+08]
- [ 4.02937913e+08]
- [ 3.94711652e+08]
- [ 3.86477219e+08]
- [ 3.78236072e+08]
- [ 3.69989744e+08]
- [ 3.61739872e+08]
- [ 3.53486470e+08]
- [ 3.45229058e+08]
- [ 3.41099876e+08]
- [ 3.36970051e+08]
- [ 3.32839678e+08]
- [ 3.02880061e+08]
- [ 2.72847226e+08]
- [ 2.42780901e+08]
- [ 1.99741826e+08]
- [ 1.56600220e+08]
- [ 1.13451995e+08]
- [ 8.75852132e+07]
- [ 6.16822948e+07]
- [ 3.57609458e+07]
- [ 1.15663625e+07]
- [-1.26157192e+07]
- [ 2.34095515e-02]]</t>
+          <t>[[ 7.07863281e+07]
+ [ 2.42157799e+08]
+ [ 3.99909785e+08]
+ [ 4.35964789e+08]
+ [ 4.27798775e+08]
+ [ 4.19623483e+08]
+ [ 4.11440076e+08]
+ [ 4.03249689e+08]
+ [ 3.95053453e+08]
+ [ 3.86852530e+08]
+ [ 3.78648134e+08]
+ [ 3.70441533e+08]
+ [ 3.62234024e+08]
+ [ 3.54025825e+08]
+ [ 3.45816817e+08]
+ [ 3.41713039e+08]
+ [ 3.37609378e+08]
+ [ 3.33505926e+08]
+ [ 3.03674240e+08]
+ [ 2.73643952e+08]
+ [ 2.43470348e+08]
+ [ 2.00188322e+08]
+ [ 1.56836091e+08]
+ [ 1.13522783e+08]
+ [ 8.76052354e+07]
+ [ 6.16916334e+07]
+ [ 3.57783882e+07]
+ [ 1.15836713e+07]
+ [-1.26102650e+07]
+ [ 3.08025736e-02]]</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -7898,35 +7902,35 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>[[ 214072.72737014]
- [ 467910.00804974]
- [ 808666.05405471]
- [1299638.62650943]
- [1299633.52179037]
- [1299628.39036558]
- [1299623.20459526]
- [1299617.93500122]
- [1299612.54921015]
- [1299607.01069109]
- [1299601.27713974]
- [1299595.29826866]
- [1299589.01260618]
- [1299583.69517856]
- [1299579.5163893 ]
- [1299575.3376269 ]
- [1299573.24825578]
- [1299571.15889139]
- [1299624.79919968]
- [1299609.64475989]
- [1299594.46703318]
- [1299669.42998524]
- [1299647.67462564]
- [1299625.91085229]
- [1299795.81119799]
- [1299793.52838312]
- [1299791.53698028]
- [1299818.71529919]
- [1299863.53220933]
+          <t>[[ 250279.35745713]
+ [ 528498.37433239]
+ [ 865719.98261656]
+ [1299592.78326119]
+ [1299588.05459612]
+ [1299583.31007597]
+ [1299578.63961138]
+ [1299573.98249186]
+ [1299569.25053078]
+ [1299564.36016284]
+ [1299559.26145684]
+ [1299554.01754261]
+ [1299548.76051029]
+ [1299544.23703964]
+ [1299540.37468969]
+ [1299536.34173302]
+ [1299534.2524729 ]
+ [1299532.16321261]
+ [1299689.80301832]
+ [1299674.64296865]
+ [1299659.45486393]
+ [1299644.26910866]
+ [1299622.57193141]
+ [1299600.86719768]
+ [1299643.01967844]
+ [1299653.26747841]
+ [1299668.88033212]
+ [1299848.45584724]
+ [1299836.15405083]
  [      0.        ]]</t>
         </is>
       </c>
@@ -8072,7 +8076,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>[11.02193253]</t>
+          <t>[11.]</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -8624,7 +8628,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>[3034829.18824379]</t>
+          <t>[3177543.13779193]</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -8647,7 +8651,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>[1075078.18929379]</t>
+          <t>[1178239.84885882]</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -8670,7 +8674,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>[3979829.18824379]</t>
+          <t>[4122543.13779193]</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -8693,7 +8697,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>[265.32194588]</t>
+          <t>[274.83620919]</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -8716,7 +8720,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>[1075078.18929379]</t>
+          <t>[1178239.84885882]</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -8785,7 +8789,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[3034829.18824379]</t>
+          <t>[3177543.13779193]</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
@@ -8808,7 +8812,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[3034829.18824379]</t>
+          <t>[3177543.13779193]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8831,9 +8835,9 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>[371.4793265  427.39276174 466.29138454 496.79280604 531.93235094
- 560.82588545 585.57146893 580.31611632 573.36902904 564.9196529
- 500.38743524 430.35572601 352.18249915]</t>
+          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.23177151
+ 510.56968119 533.07977868 484.77613683 431.3139066  371.41485665
+ 377.98294805 384.21329897 390.14302107]</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -9048,9 +9052,9 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 10.66632311 10.31071369  9.95510427  8.63640285  7.31770142
-  5.999     ]</t>
+          <t>[10.         10.         10.         10.          9.9990901   9.99818021
+  9.99727031  8.8568682   7.7164661   6.57606399  6.5760701   6.5760762
+  6.57608231]</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -9144,9 +9148,9 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>[371.4793265  427.39276174 466.29138454 496.79280604 531.93235094
- 560.82588545 585.57146893 580.31611632 573.36902904 564.9196529
- 500.38743524 430.35572601 352.18249915]</t>
+          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.23177151
+ 510.56968119 533.07977868 484.77613683 431.3139066  371.41485665
+ 377.98294805 384.21329897 390.14302107]</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -9286,9 +9290,9 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[-371.4793265  -427.39276174 -466.29138454 -496.79280604 -531.93235094
- -560.82588545 -585.57146893 -580.31611632 -573.36902904 -564.9196529
- -500.38743524 -430.35572601 -352.18249915]</t>
+          <t>[-336.9560439  -388.43785582 -424.16473764 -452.12457083 -484.23177151
+ -510.56968119 -533.07977868 -484.77613683 -431.3139066  -371.41485665
+ -377.98294805 -384.21329897 -390.14302107]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9336,7 +9340,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253  9.95510427  5.999     ]</t>
+          <t>[10.         10.          9.99727031  6.57606399  6.57608231]</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -9359,7 +9363,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[0.04799733 0.02718155 0.01179318 0.01140434]</t>
+          <t>[0.04   0.04   0.0275 0.015 ]</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -9424,7 +9428,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253  9.95510427  5.999     ]</t>
+          <t>[10.         10.          9.99727031  6.57606399  6.57608231]</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -9447,7 +9451,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[0.04799733 0.02718155 0.01179318 0.01140434]</t>
+          <t>[0.04   0.04   0.0275 0.015 ]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9683,8 +9687,8 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[0.04799733 0.04799733 0.04799733 0.02718155 0.02718155 0.02718155
- 0.01179318 0.01179318 0.01179318 0.01140434 0.01140434 0.01140434]</t>
+          <t>[0.04   0.04   0.04   0.04   0.04   0.04   0.0275 0.0275 0.0275 0.015
+ 0.015  0.015 ]</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -9867,8 +9871,8 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>[1.77056998 1.77056998 1.77056998 1.00460023 1.00460023 1.00460023
- 0.42942434 0.41532698 0.40122961 0.35592244 0.30536904 0.25481564]</t>
+          <t>[1.33922325 1.33922325 1.33922325 1.33916208 1.33903973 1.33891739
+ 0.868909   0.76348868 0.65806835 0.33082581 0.33082612 0.33082643]</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -9891,8 +9895,8 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
+ 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -9915,8 +9919,8 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
+ 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -9939,8 +9943,8 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
+  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -9963,8 +9967,8 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
+  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -9987,8 +9991,8 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[53.30723966 53.30723966 53.30723966 30.36034687 30.36034687 30.36034687
- 12.59712135 11.39677056 10.27520193  7.67006363  4.84404422  2.81456778]</t>
+          <t>[33.21380796 33.21380796 33.21380796 33.20925684 33.20015585 33.19105652
+ 19.19260506 13.02026832  8.33732654  3.56033296  3.5603429   3.56035284]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10082,18 +10086,18 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>[[-16051992.10278329]
- [-14411834.67399543]
- [-12771262.55835896]
- [-11437372.89073127]
- [-10102936.62687584]
- [ -8768042.49194199]
- [ -8422214.30181514]
- [ -8087605.60901488]
- [ -7764232.7714458 ]
- [ -7496233.7148301 ]
- [ -7266219.80616691]
- [ -7074256.2758736 ]]</t>
+          <t>[[-17452350.88530215]
+ [-16210952.53759762]
+ [-14969173.64224009]
+ [-13194771.64061391]
+ [-11420032.25349326]
+ [ -9645037.23863564]
+ [ -8952148.39516638]
+ [ -8343212.99962719]
+ [ -7818290.39053385]
+ [ -7570339.39719079]
+ [ -7322327.01625802]
+ [ -7074256.27587359]]</t>
         </is>
       </c>
       <c r="E392" t="inlineStr"/>
@@ -10116,18 +10120,18 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[[2428269.64664408]
- [2428871.56652992]
- [2429418.887901  ]
- [2429838.49098211]
- [2430682.12161118]
- [2431364.34462649]
- [2428994.62155263]
- [2429121.0429694 ]
- [2429213.38266195]
- [2429085.32447461]
- [2428987.3378164 ]
- [2428839.83861402]]</t>
+          <t>[[2428340.74750155]
+ [2429076.91360711]
+ [2429746.44799186]
+ [2431555.51099555]
+ [2432587.18214335]
+ [2433420.67818559]
+ [2430335.63502881]
+ [2430269.99481195]
+ [2430174.29540535]
+ [2429138.32853434]
+ [2429259.18994879]
+ [2429298.52809833]]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10150,18 +10154,18 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[[29099.27130827]
- [29107.31314518]
- [29114.70053407]
- [29120.52166618]
- [29132.31718621]
- [29142.17434406]
- [29109.6906588 ]
- [29111.77340594]
- [29113.46876225]
- [29112.03416735]
- [29111.19309759]
- [29109.93654496]]</t>
+          <t>[[29100.21705562]
+ [29110.0550604 ]
+ [29119.09398618]
+ [29143.61990486]
+ [29158.04605685]
+ [29170.08947809]
+ [29128.13980439]
+ [29127.7029852 ]
+ [29127.06123843]
+ [29112.88377914]
+ [29115.80230547]
+ [29117.73444325]]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10184,18 +10188,18 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[[-4328901.96460794]
- [-3974717.285662  ]
- [-3619270.2239009 ]
- [-3109036.95722209]
- [-2596195.33319479]
- [-2082080.16619002]
- [-1773185.56184445]
- [-1463273.34419512]
- [-1152540.49776426]
- [ -861895.99039055]
- [ -570574.06230101]
- [ -278501.79439328]]</t>
+          <t>[[-4359054.71294704]
+ [-4002642.28320746]
+ [-3643752.41815183]
+ [-3127814.08022803]
+ [-2609847.7224417 ]
+ [-2091394.27557316]
+ [-1780722.3941837 ]
+ [-1469656.64177822]
+ [-1157989.38193093]
+ [ -865968.83657879]
+ [ -572581.17978985]
+ [ -278501.81963877]]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10218,17 +10222,17 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>[[ 3.24011210e+08]
- [ 2.94479374e+08]
- [ 2.64854349e+08]
- [ 2.22354714e+08]
- [ 1.79670862e+08]
- [ 1.36904235e+08]
- [ 1.11221393e+08]
- [ 8.54774663e+07]
- [ 5.96897316e+07]
- [ 3.55945376e+07]
- [ 1.14800993e+07]
+          <t>[[ 3.26181894e+08]
+ [ 2.96482817e+08]
+ [ 2.66600629e+08]
+ [ 2.23676745e+08]
+ [ 1.80612409e+08]
+ [ 1.37524021e+08]
+ [ 1.11707717e+08]
+ [ 8.58733186e+07]
+ [ 6.00126083e+07]
+ [ 3.58275982e+07]
+ [ 1.15949475e+07]
  [-1.26341965e+07]]</t>
         </is>
       </c>
@@ -10252,18 +10256,18 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>[[1299624.83028311]
- [1299609.65220171]
- [1299594.4692305 ]
- [1299669.42709201]
- [1299647.66259013]
- [1299625.88989905]
- [1299795.74468577]
- [1299793.45567302]
- [1299791.46426948]
- [1299818.63696173]
- [1299863.4596295 ]
- [1299928.51689908]]</t>
+          <t>[[1299689.84318767]
+ [1299674.65472769]
+ [1299659.46024462]
+ [1299644.26983159]
+ [1299622.56637809]
+ [1299600.85553687]
+ [1299642.99384307]
+ [1299653.24091151]
+ [1299668.86249151]
+ [1299848.44912528]
+ [1299836.15996386]
+ [1299823.86796219]]</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -10437,19 +10441,19 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>[[-371.4793265 ]
- [-427.39276174]
- [-466.29138454]
- [-496.79280604]
- [-531.93235094]
- [-560.82588545]
- [-585.57146893]
- [-580.31611632]
- [-573.36902904]
- [-564.9196529 ]
- [-500.38743524]
- [-430.35572601]
- [-352.18249915]]</t>
+          <t>[[-336.9560439 ]
+ [-388.43785582]
+ [-424.16473764]
+ [-452.12457083]
+ [-484.23177151]
+ [-510.56968119]
+ [-533.07977868]
+ [-484.77613683]
+ [-431.3139066 ]
+ [-371.41485665]
+ [-377.98294805]
+ [-384.21329897]
+ [-390.14302107]]</t>
         </is>
       </c>
       <c r="E403" t="inlineStr"/>
@@ -10472,7 +10476,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>[1075078.18929379]</t>
+          <t>[1178239.84885882]</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
@@ -10495,7 +10499,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>[49.97623544]</t>
+          <t>[58.81710158]</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
@@ -10518,7 +10522,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>[4.17828472e+09 4.17828472e+09 3.12375069e+07 0.00000000e+00
+          <t>[5.67167205e+09 5.67167205e+09 2.68712398e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10573,10 +10577,10 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          48129.07265843
-  48823.69299811  50930.68327043  54520.64739801  59715.6422191
-  66696.98950538  75719.0074046   87132.29856126 101422.72217212
- 119276.22248537      0.              0.              0.
+          <t>[     0.              0.              0.          47941.642397
+  48633.63313747  50732.65247576  54309.05199929  59313.30112057
+  66058.52896089  74781.18167334  86056.14118855 100172.95742156
+ 117808.55339718      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -10827,10 +10831,10 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          48129.07265843
-  48823.69299811  50930.68327043  54520.64739801  59715.6422191
-  66696.98950538  75719.0074046   87132.29856126 101422.72217212
- 119276.22248537      0.              0.              0.
+          <t>[     0.              0.              0.          47941.642397
+  48633.63313747  50732.65247576  54309.05199929  59313.30112057
+  66058.52896089  74781.18167334  86056.14118855 100172.95742156
+ 117808.55339718      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11212,10 +11216,10 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -48129.07265843
-  -48823.69299811  -50930.68327043  -54520.64739801  -59715.6422191
-  -66696.98950538  -75719.0074046   -87132.29856126 -101422.72217212
- -119276.22248537       0.               0.               0.
+          <t>[      0.               0.               0.          -47941.642397
+  -48633.63313747  -50732.65247576  -54309.05199929  -59313.30112057
+  -66058.52896089  -74781.18167334  -86056.14118855 -100172.95742156
+ -117808.55339718       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -11262,8 +11266,7 @@
       <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
-          <t>[143.14198086 143.14198086 143.14198086 143.14198086 143.14198086
- 143.14198086]</t>
+          <t>[84.62439064 84.61538462 84.44109736 84.26639025 83.76623139 83.26555467]</t>
         </is>
       </c>
       <c r="E436" t="inlineStr"/>
@@ -11282,7 +11285,7 @@
       <c r="C437" t="inlineStr"/>
       <c r="D437" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1.]</t>
+          <t>[1.         1.         0.99556457 0.99999992 0.98825108 0.99999925]</t>
         </is>
       </c>
       <c r="E437" t="inlineStr"/>
@@ -11301,7 +11304,7 @@
       <c r="C438" t="inlineStr"/>
       <c r="D438" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1.]</t>
+          <t>[1.         1.         0.99556457 1.00000008 0.98825108 1.00000075]</t>
         </is>
       </c>
       <c r="E438" t="inlineStr"/>
@@ -11320,7 +11323,7 @@
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1.]</t>
+          <t>[1.00010643 0.99984172 0.99984606 1.0000614  1.00006868]</t>
         </is>
       </c>
       <c r="E439" t="inlineStr"/>
@@ -11364,10 +11367,10 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>[5.51096626 5.51096626 5.51096626 5.51096626 5.51096626 5.51096626
- 5.51096626 5.51096626 5.51096626 5.51096626 5.51096626 5.51096626
- 5.51096626 5.51096626 5.51096626 5.51096626 5.51096626 5.51096626
- 5.51096626]</t>
+          <t>[5.5        5.5        5.5        5.5        5.5        5.5
+ 5.5        5.49186838 5.48373676 5.47560514 5.47560529 5.47560544
+ 5.4756056  5.45416145 5.4327173  5.41127315 5.41127451 5.41127587
+ 5.41127723]</t>
         </is>
       </c>
       <c r="E441" t="inlineStr"/>
@@ -11390,7 +11393,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>[  0.   0. -30.]</t>
+          <t>[  0.           0.         -30.04929018]</t>
         </is>
       </c>
       <c r="E442" t="inlineStr"/>
@@ -11413,7 +11416,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[5724.75134526]</t>
+          <t>[5689.37028436]</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -11436,7 +11439,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[57542270.88102747]</t>
+          <t>[57186638.56317871]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11478,7 +11481,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>[95.41252242]</t>
+          <t>[94.1920373]</t>
         </is>
       </c>
       <c r="E446" t="inlineStr"/>
@@ -11501,7 +11504,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>[724.43744611]</t>
+          <t>[706.02245973]</t>
         </is>
       </c>
       <c r="E447" t="inlineStr"/>
@@ -11524,7 +11527,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>[724.43744611]</t>
+          <t>[706.02245973]</t>
         </is>
       </c>
       <c r="E448" t="inlineStr"/>
@@ -11547,8 +11550,8 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>[5.86787013e+06 5.86787013e+06 2.28741971e+05 1.76044994e+09
- 1.76044994e+09 0.00000000e+00]</t>
+          <t>[5.83160454e+06 5.83160454e+06 2.27379167e+05 1.74675344e+09
+ 1.74675344e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E449" t="inlineStr"/>
@@ -11620,10 +11623,10 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253]</t>
+          <t>[11.         11.         11.         11.         11.         11.
+ 11.         10.98373676 10.96747352 10.95121027 10.95121058 10.95121089
+ 10.9512112  10.9083229  10.86543461 10.82254631 10.82254903 10.82255174
+ 10.82255446]</t>
         </is>
       </c>
       <c r="E452" t="inlineStr"/>
@@ -11877,8 +11880,8 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>[22096.93645632 22096.93645632 22096.93645632 22096.93645632
- 22096.93645632 22096.93645632]</t>
+          <t>[37047.20773817 37051.10369456 36962.17096453 36873.42529519
+ 36656.43723224 36439.69700378]</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -11905,8 +11908,8 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[330894.65461276 330894.65461276 330894.65461276 330894.65461276
- 330894.65461276 330894.65461276]</t>
+          <t>[547252.54092533 547308.71472256 543549.47723537 539810.21319106
+ 530272.17464784 520850.96382736]</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -11933,8 +11936,8 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[330894.65461276 330894.65461276 330894.65461276 330894.65461276
- 330894.65461276 330894.65461276]</t>
+          <t>[547252.54092533 547308.71472256 543549.47723537 539810.21319106
+ 530272.17464784 520850.96382736]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -11961,8 +11964,8 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>[7.92941899e+12 7.92941899e+12 7.92941899e+12 7.92941899e+12
- 7.92941899e+12 7.92941899e+12]</t>
+          <t>[1.31141275e+13 1.31154736e+13 1.30253889e+13 1.29357827e+13
+ 1.27072172e+13 1.24814513e+13]</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -11989,8 +11992,8 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>[7.92941899e+12 7.92941899e+12 7.92941899e+12 7.92941899e+12
- 7.92941899e+12 7.92941899e+12]</t>
+          <t>[1.31141275e+13 1.31154736e+13 1.30253889e+13 1.29357827e+13
+ 1.27072172e+13 1.24814513e+13]</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12017,8 +12020,8 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>[6.28802926e+12 6.28802926e+12 6.28802926e+12 6.28802926e+12
- 6.28802926e+12 6.28802926e+12]</t>
+          <t>[1.03995031e+13 1.04005706e+13 1.03291334e+13 1.02580757e+13
+ 1.00768233e+13 9.89779090e+12]</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -12045,8 +12048,8 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[5.29521602e+11 5.29521602e+11 5.29521602e+11 5.29521602e+11
- 5.29521602e+11 5.29521602e+11]</t>
+          <t>[8.87783555e+11 8.87876916e+11 8.85745770e+11 8.83619106e+11
+ 8.78419296e+11 8.73225425e+11]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -12154,12 +12157,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.37769942 0.13900051 0.13900051 0.        ]
- [0.         0.         0.37769942 0.13900051 0.13900051 0.        ]
- [0.         0.         0.37769942 0.13900051 0.13900051 0.        ]
- [0.         0.         0.37769942 0.13900051 0.13900051 0.        ]
- [0.         0.         0.37769942 0.13900051 0.13900051 0.        ]
- [0.         0.         0.37769942 0.13900051 0.13900051 0.        ]]</t>
+          <t>[[0.         0.         0.22528014 0.08387901 0.08387901 0.        ]
+ [0.         0.         0.22525645 0.0838704  0.0838704  0.        ]
+ [0.         0.         0.22579843 0.08426317 0.08426317 0.        ]
+ [0.         0.         0.22634187 0.08465828 0.08465828 0.        ]
+ [0.         0.         0.2276817  0.08567477 0.08567477 0.        ]
+ [0.         0.         0.22903593 0.08670907 0.08670907 0.        ]]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12182,12 +12185,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[[0.62008538 0.62008538 0.         0.         0.         0.06950025]
- [0.62008538 0.62008538 0.         0.         0.         0.06950025]
- [0.62008538 0.62008538 0.         0.         0.         0.06950025]
- [0.62008538 0.62008538 0.         0.         0.         0.06950025]
- [0.62008538 0.62008538 0.         0.         0.         0.06950025]
- [0.62008538 0.62008538 0.         0.         0.         0.06950025]]</t>
+          <t>[[0.36900573 0.36900573 0.         0.         0.         0.0419395 ]
+ [0.36896671 0.36896671 0.         0.         0.         0.0419352 ]
+ [0.36985009 0.36985009 0.         0.         0.         0.04213158]
+ [0.37073583 0.37073583 0.         0.         0.         0.04232914]
+ [0.37291761 0.37291761 0.         0.         0.         0.04283738]
+ [0.37512266 0.37512266 0.         0.         0.         0.04335454]]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12210,7 +12213,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>[1144.26784437]</t>
+          <t>[1370.90916785]</t>
         </is>
       </c>
       <c r="E475" t="inlineStr"/>
@@ -12233,7 +12236,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>[4044675.00943214]</t>
+          <t>[6483060.08044048]</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
@@ -12256,7 +12259,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>[1657270.23422367]</t>
+          <t>[2769046.08902908]</t>
         </is>
       </c>
       <c r="E477" t="inlineStr"/>
@@ -12279,7 +12282,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[37.5]</t>
+          <t>[37.40765676]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12302,7 +12305,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[3.13219879e+09 3.13219879e+09 4.96341982e+07 0.00000000e+00
+          <t>[5.21032784e+09 5.21032784e+09 8.12629080e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12326,9 +12329,9 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253]</t>
+          <t>[11.         11.         11.         11.         11.         11.
+ 10.99186838 10.97560514 10.95934189 10.95121043 10.95121074 10.95121104
+ 10.92976705 10.88687875 10.84399046 10.82254767 10.82255038 10.8225531 ]</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -12351,8 +12354,9 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239
- 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239]</t>
+          <t>[0.1390852  0.1390852  0.1390852  0.1391     0.1391     0.1391
+ 0.13907798 0.13907798 0.13907798 0.13905657 0.13905657 0.13905657
+ 0.13906511 0.13906511 0.13906511 0.13907466 0.13907466 0.13907466]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12400,7 +12404,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[1757270.23422367]</t>
+          <t>[2869046.08902908]</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -12423,7 +12427,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[4544675.00943214]</t>
+          <t>[6983060.08044048]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12446,7 +12450,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[39.63399165]</t>
+          <t>[38.71793001]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12469,7 +12473,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>[3.69621733e+09 3.69621733e+09 5.26712731e+07 0.00000000e+00
+          <t>[5.77429193e+09 5.77429193e+09 8.41911001e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12493,7 +12497,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>[2832348.42351746]</t>
+          <t>[4047285.9378879]</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
@@ -12516,7 +12520,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[7579504.19767593]</t>
+          <t>[10160603.21823241]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12566,7 +12570,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>[0.22]</t>
+          <t>[0.21997286]</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -12589,7 +12593,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[0.22137864]</t>
+          <t>[0.22150534]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -12612,7 +12616,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[0.22       0.22137864 0.91916086 0.99061634 1.10892577 1.912001  ]</t>
+          <t>[0.21997286 0.22150534 0.83220175 0.89330442 1.02403137 1.83570612]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -12635,7 +12639,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>[0.22137864 1.10892577 2.05285567]</t>
+          <t>[0.22150534 1.02403137 1.9222813 ]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -12658,7 +12662,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>[0.22       0.99061634 1.912001  ]</t>
+          <t>[0.21997286 0.89330442 1.83570612]</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
@@ -12681,7 +12685,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[4.1743735 0.        0.       ]</t>
+          <t>[4.50396476 0.         0.        ]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -12700,9 +12704,9 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[  0.83628597   0.6220101   -1.72800894   2.32031346  -1.05060059]
- [ -3.21390618   0.39600036   7.85075067  -7.41040737   3.37756252]
- [ -6.09214278   4.80652932  20.17182105 -14.72594888  -3.16025872]]</t>
+          <t>[[  0.40061497   0.37009084   3.0482131   -5.09851157   2.27959267]
+ [ -2.17427663  -0.85185779   7.42494137 -10.62384481   7.22503786]
+ [ -5.00753347   3.50729064   9.19244813   5.0542818  -11.74648709]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -12721,9 +12725,9 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[ 0.82896782  0.61929596 -1.70734852  2.28779433 -1.02870958]
- [-3.25120988  0.13046432  8.15687454 -8.8199523   4.78382332]
- [-5.30761325  3.68323725 15.8102048  -9.84169284 -3.34413596]]</t>
+          <t>[[  0.39528932   0.36436687   3.06901268  -5.14316081   2.31449194]
+ [ -2.20814498  -1.2376651    8.62288718 -14.10412933   9.92705223]
+ [ -4.43830339   2.75443828   7.38191195   5.44510031 -10.14314714]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -12742,7 +12746,7 @@
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[[ -0.09189983   3.32732805 -14.35282329  24.54669795 -12.42930288]
+          <t>[[ -0.33366462   6.70138625 -14.87983846  14.40596849  -4.89385166]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -12763,9 +12767,9 @@
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>[[ 0.76524735  1.50953632 -3.86843455  4.36425253 -1.77060165]
- [-0.58486278  3.69365741 -7.72254754  8.99929925 -3.38554634]
- [ 1.21794795 -0.28263157  5.42808066 -5.81653445  0.45313741]]</t>
+          <t>[[  1.13266684   1.76612958  -6.2030496    6.78469067  -2.48043749]
+ [ -1.82044787   8.67200178 -17.5568513   16.56823415  -4.86293676]
+ [  0.55082288   3.06798019  -5.01212763   7.12585406  -4.73252949]]</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
@@ -12784,9 +12788,9 @@
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>[[ 0.75330439  1.53176247 -3.91860571  4.41714686 -1.78360801]
- [-0.71848393  4.00723832 -8.66994949  9.91950938 -3.53831427]
- [ 0.8062741   0.55087817  2.58410782 -2.30326439 -0.6379957 ]]</t>
+          <t>[[  1.1133367    1.80990114  -6.27580736   6.83677206  -2.48420254]
+ [ -2.07095197   9.20545246 -18.52689862  16.96536136  -4.57296322]
+ [  0.18546337   3.98503842  -7.1741585    9.17627015  -5.17261344]]</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
@@ -12805,9 +12809,9 @@
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
-          <t>[[ -3.57912156  29.37825816 -79.91654295  94.53119577 -39.41378943]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[ -19.25403694  152.92962126 -432.81031822  499.76525432 -199.63052042]
+ [   0.            0.            0.            0.            0.        ]
+ [   0.            0.            0.            0.            0.        ]]</t>
         </is>
       </c>
       <c r="E501" t="inlineStr"/>
@@ -12830,37 +12834,37 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>[[1.67388548e-04]
- [3.49863471e-04]
- [2.30285561e-05]
- [3.11911746e-03]
- [5.45908890e-03]
- [8.36985268e-03]
- [1.18406856e-02]
- [1.58608468e-02]
- [2.04195790e-02]
- [2.55061106e-02]
- [3.11096572e-02]
- [3.72194231e-02]
- [4.38246033e-02]
- [5.09143854e-02]
- [5.84779644e-02]
- [6.65045348e-02]
- [7.06880543e-02]
- [7.49832633e-02]
- [7.93888087e-02]
- [1.16248167e-01]
- [1.61388475e-01]
- [2.13988348e-01]
- [3.05670531e-01]
- [4.16921935e-01]
- [5.43515403e-01]
- [6.28449898e-01]
- [7.21229623e-01]
- [8.20126305e-01]
- [9.16444255e-01]
- [1.01454319e+00]
- [1.11044909e+00]]</t>
+          <t>[[2.29141675e-04]
+ [3.07924546e-04]
+ [1.90782845e-04]
+ [2.75037503e-03]
+ [4.38675651e-03]
+ [6.36839184e-03]
+ [8.68880966e-03]
+ [1.13419619e-02]
+ [1.43225029e-02]
+ [1.76253584e-02]
+ [2.12450443e-02]
+ [2.51753198e-02]
+ [2.94095924e-02]
+ [3.39422135e-02]
+ [3.87692611e-02]
+ [4.38875291e-02]
+ [4.65545951e-02]
+ [4.92927408e-02]
+ [5.21011122e-02]
+ [8.01462360e-02]
+ [1.21518168e-01]
+ [1.74898671e-01]
+ [2.69362866e-01]
+ [3.81759512e-01]
+ [5.08208812e-01]
+ [5.90675671e-01]
+ [6.79165610e-01]
+ [7.74075141e-01]
+ [8.69759216e-01]
+ [9.68479801e-01]
+ [1.06498591e+00]]</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
@@ -12883,7 +12887,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[1.11044909]</t>
+          <t>[1.06498591]</t>
         </is>
       </c>
       <c r="E503" t="inlineStr"/>
@@ -12906,24 +12910,24 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>[[-35263334.54994567]
- [-33096436.19061824]
- [-30691298.92308791]
- [-29809027.40900908]
- [-28922133.2395282 ]
- [-28025839.09752702]
- [-27115049.77018829]
- [-26184169.47595264]
- [-25226883.62623878]
- [-24235879.51138749]
- [-23202464.28699249]
- [-22116011.59227018]
- [-21196906.38106724]
- [-20474606.92795827]
- [-19752307.47484902]
- [-19391157.74829444]
- [-19030008.02173989]
- [-18668858.2951853 ]]</t>
+          <t>[[-45679159.64797284]
+ [-42046188.37178015]
+ [-38175905.98363774]
+ [-36805438.92815914]
+ [-35430366.70985661]
+ [-34045930.04559491]
+ [-32648430.60714221]
+ [-31233356.27759575]
+ [-29794571.67384157]
+ [-28323880.20744623]
+ [-26811292.3025943 ]
+ [-25246312.90240559]
+ [-23848934.48159451]
+ [-22650717.56678559]
+ [-21457277.79018086]
+ [-20861711.80554731]
+ [-20266145.69322705]
+ [-19670579.38937784]]</t>
         </is>
       </c>
       <c r="E504" t="inlineStr"/>
@@ -12946,24 +12950,24 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>[[-3778130.93853854]
- [-9497146.75393792]
- [-9729902.86428811]
- [ 2428235.63469534]
- [ 2428312.97453413]
- [ 2428392.04043604]
- [ 2428474.17105419]
- [ 2428560.87679678]
- [ 2428653.93133404]
- [ 2428755.49385769]
- [ 2428868.28738497]
- [ 2428995.87629441]
- [ 2428974.06835787]
- [ 2428744.96384273]
- [ 2428795.12220169]
- [ 2428378.78241598]
- [ 2428390.88233579]
- [ 2428402.83567486]]</t>
+          <t>[[ -5170171.61667736]
+ [-10201189.58746336]
+ [ -8271105.79490609]
+ [  2428262.21986983]
+ [  2428334.4054398 ]
+ [  2428407.31406319]
+ [  2428481.34010618]
+ [  2428557.44095096]
+ [  2428637.11119452]
+ [  2428722.1147329 ]
+ [  2428814.49606357]
+ [  2428915.64217862]
+ [  2428920.47634721]
+ [  2428793.06194539]
+ [  2428841.731838  ]
+ [  2428402.04150196]
+ [  2428414.74028648]
+ [  2428427.28653411]]</t>
         </is>
       </c>
       <c r="E505" t="inlineStr"/>
@@ -12986,24 +12990,24 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>[[ -49086.02420458]
- [-123628.7614075 ]
- [-127631.09754114]
- [  29098.74853778]
- [  29099.75506056]
- [  29100.78540689]
- [  29101.85706074]
- [  29102.98979195]
- [  29104.20685768]
- [  29105.53661024]
- [  29107.01484339]
- [  29108.68844467]
- [  29108.41545022]
- [  29105.43487906]
- [  29106.0995673 ]
- [  29100.66147567]
- [  29100.82236916]
- [  29100.98150279]]</t>
+          <t>[[ -67201.37761762]
+ [-132920.24359543]
+ [-108862.22353195]
+ [  29099.09323218]
+ [  29100.0329401 ]
+ [  29100.98335858]
+ [  29101.94967236]
+ [  29102.94441344]
+ [  29103.98713832]
+ [  29105.10096007]
+ [  29106.31271119]
+ [  29107.64073994]
+ [  29107.71445399]
+ [  29106.06156553]
+ [  29106.7073665 ]
+ [  29100.96501744]
+ [  29101.13392277]
+ [  29101.3009978 ]]</t>
         </is>
       </c>
       <c r="E506" t="inlineStr"/>
@@ -13026,24 +13030,24 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>[[ -555394.14286993]
- [-2532410.52279644]
- [-4963966.03944673]
- [-5671282.33224627]
- [-5573175.37378599]
- [-5474890.74509241]
- [-5376445.49740699]
- [-5277856.84535976]
- [-5179142.33237533]
- [-5080320.02245757]
- [-4981408.73094247]
- [-4882428.31259283]
- [-4783399.99368004]
- [-4684323.86318261]
- [-4585193.53326977]
- [-4535621.45758781]
- [-4486040.50506337]
- [-4436451.8974777 ]]</t>
+          <t>[[ -916281.80474398]
+ [-3140431.52593904]
+ [-5200238.64655151]
+ [-5675765.98273834]
+ [-5577838.26966975]
+ [-5479789.38318111]
+ [-5381634.24886006]
+ [-5283387.45683596]
+ [-5185063.5814827 ]
+ [-5086677.61492459]
+ [-4988245.26641873]
+ [-4889782.98416667]
+ [-4791307.64423736]
+ [-4692822.04350183]
+ [-4594324.57735257]
+ [-4545084.83769162]
+ [-4495846.31482789]
+ [-4446610.17535903]]</t>
         </is>
       </c>
       <c r="E507" t="inlineStr"/>
@@ -13066,24 +13070,24 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>[[4.28975076e+07]
- [1.95278195e+08]
- [3.81817870e+08]
- [4.35733648e+08]
- [4.27553803e+08]
- [4.19360342e+08]
- [4.11154598e+08]
- [4.02937913e+08]
- [3.94711652e+08]
- [3.86477219e+08]
- [3.78236072e+08]
- [3.69989744e+08]
- [3.61739872e+08]
- [3.53486470e+08]
- [3.45229058e+08]
- [3.41099876e+08]
- [3.36970051e+08]
- [3.32839678e+08]]</t>
+          <t>[[7.07863281e+07]
+ [2.42157799e+08]
+ [3.99909785e+08]
+ [4.35964789e+08]
+ [4.27798775e+08]
+ [4.19623483e+08]
+ [4.11440076e+08]
+ [4.03249689e+08]
+ [3.95053453e+08]
+ [3.86852530e+08]
+ [3.78648134e+08]
+ [3.70441533e+08]
+ [3.62234024e+08]
+ [3.54025825e+08]
+ [3.45816817e+08]
+ [3.41713039e+08]
+ [3.37609378e+08]
+ [3.33505926e+08]]</t>
         </is>
       </c>
       <c r="E508" t="inlineStr"/>
@@ -13106,24 +13110,24 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>[[ 214072.72737014]
- [ 467910.00804974]
- [ 808666.05405471]
- [1299638.62650943]
- [1299633.52179037]
- [1299628.39036558]
- [1299623.20459526]
- [1299617.93500122]
- [1299612.54921015]
- [1299607.01069109]
- [1299601.27713974]
- [1299595.29826866]
- [1299589.01260618]
- [1299583.69517856]
- [1299579.5163893 ]
- [1299575.3376269 ]
- [1299573.24825578]
- [1299571.15889139]]</t>
+          <t>[[ 250279.35745713]
+ [ 528498.37433239]
+ [ 865719.98261656]
+ [1299592.78326119]
+ [1299588.05459612]
+ [1299583.31007597]
+ [1299578.63961138]
+ [1299573.98249186]
+ [1299569.25053078]
+ [1299564.36016284]
+ [1299559.26145684]
+ [1299554.01754261]
+ [1299548.76051029]
+ [1299544.23703964]
+ [1299540.37468969]
+ [1299536.34173302]
+ [1299534.2524729 ]
+ [1299532.16321261]]</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
@@ -13146,9 +13150,9 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>[[ 2.42823563e+06]
- [ 2.90987485e+04]
- [-3.06912989e+07]]</t>
+          <t>[[ 2.42826222e+06]
+ [ 2.90990932e+04]
+ [-3.81759060e+07]]</t>
         </is>
       </c>
       <c r="E510" t="inlineStr"/>
@@ -13171,9 +13175,9 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[[-5.76919458e+06]
- [ 4.43898544e+08]
- [ 1.29963863e+06]]</t>
+          <t>[[-5.77355731e+06]
+ [ 4.44120339e+08]
+ [ 1.29959278e+06]]</t>
         </is>
       </c>
       <c r="E511" t="inlineStr"/>
@@ -13225,12 +13229,12 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 10.66632311 10.31071369  9.95510427  8.63640285  7.31770142
-  5.999     ]</t>
+          <t>[11.         11.         11.         11.         11.         11.
+ 11.         10.98373676 10.96747352 10.95121027 10.95121058 10.95121089
+ 10.9512112  10.9083229  10.86543461 10.82254631 10.82254903 10.82255174
+ 10.         10.         10.         10.          9.9990901   9.99818021
+  9.99727031  8.8568682   7.7164661   6.57606399  6.5760701   6.5760762
+  6.57608231]</t>
         </is>
       </c>
       <c r="E513" t="inlineStr"/>
@@ -13253,11 +13257,11 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.077      0.077      0.077      0.077      0.077      0.077
- 0.04799733 0.04799733 0.04799733 0.02718155 0.02718155 0.02718155
- 0.01179318 0.01179318 0.01179318 0.01140434 0.01140434 0.01140434]</t>
+          <t>[0.12998616 0.12998616 0.12998616 0.13       0.13       0.13
+ 0.12997942 0.12997942 0.12997942 0.12995941 0.12995941 0.12995941
+ 0.12996739 0.12996739 0.12996739 0.12997632 0.12997632 0.12997632
+ 0.04       0.04       0.04       0.04       0.04       0.04
+ 0.0275     0.0275     0.0275     0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13356,11 +13360,11 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057 2.83294057
- 1.77056998 1.77056998 1.77056998 1.00460023 1.00460023 1.00460023
- 0.42942434 0.41532698 0.40122961 0.35592244 0.30536904 0.25481564]</t>
+          <t>[4.74964202 4.74964202 4.74964202 4.7501415  4.7501415  4.7501415
+ 4.74584571 4.73873987 4.73163403 4.72736208 4.72736222 4.72736235
+ 4.71828053 4.69954323 4.68080594 4.67175484 4.67175603 4.67175721
+ 1.33922325 1.33922325 1.33922325 1.33916208 1.33903973 1.33891739
+ 0.868909   0.76348868 0.65806835 0.33082581 0.33082612 0.33082643]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13383,11 +13387,11 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[2.70998501 2.70998501 2.70998501 2.71027165 2.71027165 2.71027165
+ 2.70782961 2.70379816 2.69976671 2.69733834 2.69733842 2.6973385
+ 2.69218787 2.68155743 2.67092701 2.66579406 2.66579473 2.66579541
+ 0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
+ 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13410,11 +13414,11 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114 1.61268114
- 1.0066975  1.0066975  1.0066975  0.57070232 0.57070232 0.57070232
- 0.24380196 0.23580214 0.22780233 0.20208432 0.17339685 0.14470941]</t>
+          <t>[2.70998501 2.70998501 2.70998501 2.71027165 2.71027165 2.71027165
+ 2.70782961 2.70379816 2.69976671 2.69733834 2.69733842 2.6973385
+ 2.69218787 2.68155743 2.67092701 2.66579406 2.66579473 2.66579541
+ 0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
+ 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13437,11 +13441,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323 84.84478323
- 53.30723966 53.30723966 53.30723966 30.36034687 30.36034687 30.36034687
- 12.59712135 11.39677056 10.27520193  7.67006363  4.84404422  2.81456778]</t>
+          <t>[140.32116434 140.32116434 140.32116434 140.33556788 140.33556788
+ 140.33556788 139.99951344 139.37166083 138.74568827 138.41286337
+ 138.41287518 138.41288699 137.59988047 135.96722427 134.34753462
+ 133.55142741 133.55152919 133.55163096  33.21380796  33.21380796
+  33.21380796  33.20925684  33.20015585  33.19105652  19.19260506
+  13.02026832   8.33732654   3.56033296   3.5603429    3.56035284]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13464,11 +13469,11 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[70.16058217 70.16058217 70.16058217 70.16778394 70.16778394 70.16778394
+ 69.99975672 69.68583041 69.37284413 69.20643168 69.20643759 69.20644349
+ 68.79994024 67.98361213 67.17376731 66.7757137  66.77576459 66.77581548
+ 16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
+  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -13491,11 +13496,11 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162 42.42239162
- 26.65361983 26.65361983 26.65361983 15.18017344 15.18017344 15.18017344
-  6.29856068  5.69838528  5.13760097  3.83503182  2.42202211  1.40728389]</t>
+          <t>[70.16058217 70.16058217 70.16058217 70.16778394 70.16778394 70.16778394
+ 69.99975672 69.68583041 69.37284413 69.20643168 69.20643759 69.20644349
+ 68.79994024 67.98361213 67.17376731 66.7757137  66.77576459 66.77581548
+ 16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
+  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -13620,36 +13625,36 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[[-3.52633345e+07]
- [-3.30964362e+07]
- [-3.06912989e+07]
- [-2.98090274e+07]
- [-2.89221332e+07]
- [-2.80258391e+07]
- [-2.71150498e+07]
- [-2.61841695e+07]
- [-2.52268836e+07]
- [-2.42358795e+07]
- [-2.32024643e+07]
- [-2.21160116e+07]
- [-2.11969064e+07]
- [-2.04746069e+07]
- [-1.97523075e+07]
- [-1.93911577e+07]
- [-1.90300080e+07]
- [-1.86688583e+07]
- [-1.60511882e+07]
- [-1.44115973e+07]
- [-1.27714399e+07]
- [-1.14381105e+07]
- [-1.01042209e+07]
- [-8.76978460e+06]
- [-8.42405623e+06]
- [-8.08938504e+06]
- [-7.76593335e+06]
- [-7.49758542e+06]
- [-7.26692826e+06]
- [-9.89530236e-10]]</t>
+          <t>[[-4.56791596e+07]
+ [-4.20461884e+07]
+ [-3.81759060e+07]
+ [-3.68054389e+07]
+ [-3.54303667e+07]
+ [-3.40459300e+07]
+ [-3.26484306e+07]
+ [-3.12333563e+07]
+ [-2.97945717e+07]
+ [-2.83238802e+07]
+ [-2.68112923e+07]
+ [-2.52463129e+07]
+ [-2.38489345e+07]
+ [-2.26507176e+07]
+ [-2.14572778e+07]
+ [-2.08617118e+07]
+ [-2.02661457e+07]
+ [-1.96705794e+07]
+ [-1.74513902e+07]
+ [-1.62105129e+07]
+ [-1.49691146e+07]
+ [-1.31952253e+07]
+ [-1.14209848e+07]
+ [-9.64640679e+06]
+ [-8.95338584e+06]
+ [-8.34392923e+06]
+ [-7.81842602e+06]
+ [-7.57022009e+06]
+ [-7.32226889e+06]
+ [ 2.98314262e-09]]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13672,36 +13677,36 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[[-3.77813094e+06]
- [-9.49714675e+06]
- [-9.72990286e+06]
- [ 2.42823563e+06]
- [ 2.42831297e+06]
- [ 2.42839204e+06]
- [ 2.42847417e+06]
- [ 2.42856088e+06]
- [ 2.42865393e+06]
- [ 2.42875549e+06]
- [ 2.42886829e+06]
- [ 2.42899588e+06]
- [ 2.42897407e+06]
- [ 2.42874496e+06]
- [ 2.42879512e+06]
- [ 2.42837878e+06]
- [ 2.42839088e+06]
- [ 2.42840284e+06]
- [ 2.43042372e+06]
- [ 2.43099091e+06]
- [ 2.43149877e+06]
- [ 2.43147031e+06]
- [ 2.43222854e+06]
- [ 2.43282392e+06]
- [ 2.42934456e+06]
- [ 2.42942629e+06]
- [ 2.42947163e+06]
- [ 2.42926407e+06]
- [ 2.42909790e+06]
- [ 9.57378303e+02]]</t>
+          <t>[[-5.17017162e+06]
+ [-1.02011896e+07]
+ [-8.27110579e+06]
+ [ 2.42826222e+06]
+ [ 2.42833441e+06]
+ [ 2.42840731e+06]
+ [ 2.42848134e+06]
+ [ 2.42855744e+06]
+ [ 2.42863711e+06]
+ [ 2.42872211e+06]
+ [ 2.42881450e+06]
+ [ 2.42891564e+06]
+ [ 2.42892048e+06]
+ [ 2.42879306e+06]
+ [ 2.42884173e+06]
+ [ 2.42840204e+06]
+ [ 2.42841474e+06]
+ [ 2.42842729e+06]
+ [ 2.42936365e+06]
+ [ 2.43005190e+06]
+ [ 2.43067026e+06]
+ [ 2.43278469e+06]
+ [ 2.43370804e+06]
+ [ 2.43443218e+06]
+ [ 2.43068725e+06]
+ [ 2.43053222e+06]
+ [ 2.43033644e+06]
+ [ 2.42915605e+06]
+ [ 2.42919322e+06]
+ [ 1.23919658e+03]]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -13724,36 +13729,36 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>[[-4.90860242e+04]
- [-1.23628761e+05]
- [-1.27631098e+05]
- [ 2.90987485e+04]
- [ 2.90997551e+04]
- [ 2.91007854e+04]
- [ 2.91018571e+04]
- [ 2.91029898e+04]
- [ 2.91042069e+04]
- [ 2.91055366e+04]
- [ 2.91070148e+04]
- [ 2.91086884e+04]
- [ 2.91084155e+04]
- [ 2.91054349e+04]
- [ 2.91060996e+04]
- [ 2.91006615e+04]
- [ 2.91008224e+04]
- [ 2.91009815e+04]
- [ 2.91275153e+04]
- [ 2.91351480e+04]
- [ 2.91420640e+04]
- [ 2.91420584e+04]
- [ 2.91528279e+04]
- [ 2.91616399e+04]
- [ 2.91143934e+04]
- [ 2.91159227e+04]
- [ 2.91170350e+04]
- [ 2.91145662e+04]
- [ 2.91128556e+04]
- [ 1.52879523e+01]]</t>
+          <t>[[-6.72013776e+04]
+ [-1.32920244e+05]
+ [-1.08862224e+05]
+ [ 2.90990932e+04]
+ [ 2.91000329e+04]
+ [ 2.91009834e+04]
+ [ 2.91019497e+04]
+ [ 2.91029444e+04]
+ [ 2.91039871e+04]
+ [ 2.91051010e+04]
+ [ 2.91063127e+04]
+ [ 2.91076407e+04]
+ [ 2.91077145e+04]
+ [ 2.91060616e+04]
+ [ 2.91067074e+04]
+ [ 2.91009650e+04]
+ [ 2.91011339e+04]
+ [ 2.91013010e+04]
+ [ 2.91136441e+04]
+ [ 2.91229093e+04]
+ [ 2.91313326e+04]
+ [ 2.91600123e+04]
+ [ 2.91731304e+04]
+ [ 2.91838521e+04]
+ [ 2.91329902e+04]
+ [ 2.91314033e+04]
+ [ 2.91294792e+04]
+ [ 2.91133147e+04]
+ [ 2.91152117e+04]
+ [ 2.08609162e+01]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -13776,36 +13781,36 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[[-5.55394143e+05]
- [-2.53241052e+06]
- [-4.96396604e+06]
- [-5.67128233e+06]
- [-5.57317537e+06]
- [-5.47489075e+06]
- [-5.37644550e+06]
- [-5.27785685e+06]
- [-5.17914233e+06]
- [-5.08032002e+06]
- [-4.98140873e+06]
- [-4.88242831e+06]
- [-4.78339999e+06]
- [-4.68432386e+06]
- [-4.58519353e+06]
- [-4.53562146e+06]
- [-4.48604051e+06]
- [-4.43645190e+06]
- [-4.07669297e+06]
- [-3.71592832e+06]
- [-3.35467539e+06]
- [-2.83732260e+06]
- [-2.31840948e+06]
- [-1.79920493e+06]
- [-1.48783810e+06]
- [-1.17576467e+06]
- [-8.63186701e+05]
- [-5.71134704e+05]
- [-2.78796500e+05]
- [-3.73816029e-04]]</t>
+          <t>[[-9.16281805e+05]
+ [-3.14043153e+06]
+ [-5.20023865e+06]
+ [-5.67576598e+06]
+ [-5.57783827e+06]
+ [-5.47978938e+06]
+ [-5.38163425e+06]
+ [-5.28338746e+06]
+ [-5.18506358e+06]
+ [-5.08667761e+06]
+ [-4.98824527e+06]
+ [-4.88978298e+06]
+ [-4.79130764e+06]
+ [-4.69282204e+06]
+ [-4.59432458e+06]
+ [-4.54508484e+06]
+ [-4.49584631e+06]
+ [-4.44661018e+06]
+ [-4.08851565e+06]
+ [-3.72773650e+06]
+ [-3.36498593e+06]
+ [-2.84427150e+06]
+ [-2.32243062e+06]
+ [-1.80091682e+06]
+ [-1.48884812e+06]
+ [-1.17666468e+06]
+ [-8.64213656e+05]
+ [-5.71947032e+05]
+ [-2.78904686e+05]
+ [-5.18547805e-04]]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -13828,36 +13833,36 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[ 4.28975076e+07]
- [ 1.95278195e+08]
- [ 3.81817870e+08]
- [ 4.35733648e+08]
- [ 4.27553803e+08]
- [ 4.19360342e+08]
- [ 4.11154598e+08]
- [ 4.02937913e+08]
- [ 3.94711652e+08]
- [ 3.86477219e+08]
- [ 3.78236072e+08]
- [ 3.69989744e+08]
- [ 3.61739872e+08]
- [ 3.53486470e+08]
- [ 3.45229058e+08]
- [ 3.41099876e+08]
- [ 3.36970051e+08]
- [ 3.32839678e+08]
- [ 3.02880061e+08]
- [ 2.72847226e+08]
- [ 2.42780901e+08]
- [ 1.99741826e+08]
- [ 1.56600220e+08]
- [ 1.13451995e+08]
- [ 8.75852132e+07]
- [ 6.16822948e+07]
- [ 3.57609458e+07]
- [ 1.15663625e+07]
- [-1.26157192e+07]
- [ 2.34095515e-02]]</t>
+          <t>[[ 7.07863281e+07]
+ [ 2.42157799e+08]
+ [ 3.99909785e+08]
+ [ 4.35964789e+08]
+ [ 4.27798775e+08]
+ [ 4.19623483e+08]
+ [ 4.11440076e+08]
+ [ 4.03249689e+08]
+ [ 3.95053453e+08]
+ [ 3.86852530e+08]
+ [ 3.78648134e+08]
+ [ 3.70441533e+08]
+ [ 3.62234024e+08]
+ [ 3.54025825e+08]
+ [ 3.45816817e+08]
+ [ 3.41713039e+08]
+ [ 3.37609378e+08]
+ [ 3.33505926e+08]
+ [ 3.03674240e+08]
+ [ 2.73643952e+08]
+ [ 2.43470348e+08]
+ [ 2.00188322e+08]
+ [ 1.56836091e+08]
+ [ 1.13522783e+08]
+ [ 8.76052354e+07]
+ [ 6.16916334e+07]
+ [ 3.57783882e+07]
+ [ 1.15836713e+07]
+ [-1.26102650e+07]
+ [ 3.08025736e-02]]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
@@ -13880,35 +13885,35 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[ 214072.72737014]
- [ 467910.00804974]
- [ 808666.05405471]
- [1299638.62650943]
- [1299633.52179037]
- [1299628.39036558]
- [1299623.20459526]
- [1299617.93500122]
- [1299612.54921015]
- [1299607.01069109]
- [1299601.27713974]
- [1299595.29826866]
- [1299589.01260618]
- [1299583.69517856]
- [1299579.5163893 ]
- [1299575.3376269 ]
- [1299573.24825578]
- [1299571.15889139]
- [1299624.79919968]
- [1299609.64475989]
- [1299594.46703318]
- [1299669.42998524]
- [1299647.67462564]
- [1299625.91085229]
- [1299795.81119799]
- [1299793.52838312]
- [1299791.53698028]
- [1299818.71529919]
- [1299863.53220933]
+          <t>[[ 250279.35745713]
+ [ 528498.37433239]
+ [ 865719.98261656]
+ [1299592.78326119]
+ [1299588.05459612]
+ [1299583.31007597]
+ [1299578.63961138]
+ [1299573.98249186]
+ [1299569.25053078]
+ [1299564.36016284]
+ [1299559.26145684]
+ [1299554.01754261]
+ [1299548.76051029]
+ [1299544.23703964]
+ [1299540.37468969]
+ [1299536.34173302]
+ [1299534.2524729 ]
+ [1299532.16321261]
+ [1299689.80301832]
+ [1299674.64296865]
+ [1299659.45486393]
+ [1299644.26910866]
+ [1299622.57193141]
+ [1299600.86719768]
+ [1299643.01967844]
+ [1299653.26747841]
+ [1299668.88033212]
+ [1299848.45584724]
+ [1299836.15405083]
  [      0.        ]]</t>
         </is>
       </c>
@@ -13932,24 +13937,24 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[-6874454.09213108]
- [13687425.80367622]
- [38771286.46756577]
- [46087360.02962812]
- [45337729.75905599]
- [44589648.6965456 ]
- [43845088.48603125]
- [43106198.8027257 ]
- [42375386.02525805]
- [41655413.72334646]
- [40949539.77775166]
- [40261714.5525469 ]
- [39514356.93787616]
- [38697070.30250869]
- [37879262.63184141]
- [37470297.02269466]
- [37061247.91327693]
- [36652127.56229974]]</t>
+          <t>[[-4067871.91031717]
+ [10132236.27891142]
+ [23314577.99126239]
+ [26427081.03686874]
+ [26076434.42846965]
+ [25727031.97622951]
+ [25427041.96416618]
+ [25167821.95393667]
+ [24910558.88307612]
+ [24618898.41432979]
+ [24289684.12876578]
+ [23971378.02092548]
+ [23720732.65810951]
+ [23529524.10618152]
+ [23331301.20252733]
+ [23228199.02931631]
+ [23023098.32589875]
+ [22818014.76431999]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -13972,24 +13977,24 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[2356866.25623859]
- [5919933.20839102]
- [6086415.27733569]
- [1590237.61748397]
- [1590285.2472537 ]
- [1590333.94569547]
- [1590384.54116354]
- [1590437.9684049 ]
- [1590495.32523761]
- [1590557.94828662]
- [1590627.52345204]
- [1590706.25787626]
- [1590692.32576021]
- [1590549.90406685]
- [1590580.73781083]
- [1590322.27829897]
- [1590329.64622719]
- [1590336.92325673]]</t>
+          <t>[[1917794.009296  ]
+ [3785331.87193155]
+ [3086282.37488675]
+ [ 946945.5880003 ]
+ [ 946972.03898992]
+ [ 946998.75616899]
+ [ 947918.54056775]
+ [ 949437.81696048]
+ [ 950963.18692537]
+ [ 951889.68201772]
+ [ 951923.7038925 ]
+ [ 951960.96972372]
+ [ 953887.95993696]
+ [ 957831.92178601]
+ [ 961874.94697568]
+ [ 963669.23391039]
+ [ 963673.65624956]
+ [ 963678.02136239]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14014,17 +14019,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [-11069255.18650071]
- [-20952918.00233972]
- [-18591939.66962818]
- [-16251862.17496276]
- [-13934010.10561551]
- [-11640441.57095347]
- [ -9374039.0592973 ]
- [ -7138640.08978021]
- [ -4939216.94626482]
- [ -2782118.66358746]
- [  -857519.5343171 ]
+ [ -6512219.08008422]
+ [-12325607.7268928 ]
+ [-10936756.17039617]
+ [ -9560199.58545868]
+ [ -8191897.51935737]
+ [ -6833246.67744684]
+ [ -5494556.96123023]
+ [ -4181796.05422373]
+ [ -2893380.00861245]
+ [ -1629757.6800922 ]
+ [  -501306.05322475]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -14088,24 +14093,24 @@
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[0.04067103]
- [0.08699773]
- [0.2367509 ]
- [0.3025059 ]
- [0.29007579]
- [0.27790859]
- [0.26603734]
- [0.25450079]
- [0.24334394]
- [0.23261837]
- [0.22238261]
- [0.2127023 ]
- [0.20370673]
- [0.19734853]
- [0.19319912]
- [0.19112411]
- [0.18904896]
- [0.18697357]]</t>
+          <t>[[0.02671567]
+ [0.06139188]
+ [0.14082544]
+ [0.17464872]
+ [0.16775198]
+ [0.16101833]
+ [0.15468305]
+ [0.1487267 ]
+ [0.14300697]
+ [0.1373711 ]
+ [0.13180599]
+ [0.12656909]
+ [0.12225064]
+ [0.11999082]
+ [0.11898752]
+ [0.11846551]
+ [0.11742488]
+ [0.11638439]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14124,24 +14129,24 @@
       <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[0.06443786]
- [0.08187824]
- [0.21202388]
- [0.11850737]
- [0.10719946]
- [0.09618592]
- [0.08553646]
- [0.07535431]
- [0.0657936 ]
- [0.05708557]
- [0.04957175]
- [0.04259201]
- [0.03736632]
- [0.03516986]
- [0.03409665]
- [0.03083053]
- [0.03031913]
- [0.02980856]]</t>
+          <t>[[0.03991221]
+ [0.04413473]
+ [0.06784398]
+ [0.04626923]
+ [0.0420533 ]
+ [0.03799451]
+ [0.03413245]
+ [0.03051822]
+ [0.02724913]
+ [0.02441893]
+ [0.02210887]
+ [0.02042202]
+ [0.0195475 ]
+ [0.01895499]
+ [0.01811623]
+ [0.01704314]
+ [0.0166102 ]
+ [0.01617869]]</t>
         </is>
       </c>
       <c r="E538" t="inlineStr"/>
@@ -14160,24 +14165,24 @@
       <c r="C539" t="inlineStr"/>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[[0.09363805]
- [0.18515119]
- [0.29750159]
- [0.32957559]
- [0.32270115]
- [0.31580233]
- [0.30887001]
- [0.30189411]
- [0.29486319]
- [0.28776389]
- [0.28058027]
- [0.27329267]
- [0.26633352]
- [0.25975967]
- [0.25318548]
- [0.24989889]
- [0.24661244]
- [0.24332619]]</t>
+          <t>[[0.06565947]
+ [0.11625974]
+ [0.16226836]
+ [0.17228434]
+ [0.16837517]
+ [0.16445522]
+ [0.16076891]
+ [0.15724802]
+ [0.15368467]
+ [0.14988341]
+ [0.14580361]
+ [0.14167349]
+ [0.13821262]
+ [0.13543738]
+ [0.13262596]
+ [0.1311974 ]
+ [0.12927665]
+ [0.12735626]]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14200,36 +14205,36 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[[-6.87445409e+06]
- [ 1.36874258e+07]
- [ 3.87712865e+07]
- [ 4.60873600e+07]
- [ 4.53377298e+07]
- [ 4.45896487e+07]
- [ 4.38450885e+07]
- [ 4.31061988e+07]
- [ 4.23753860e+07]
- [ 4.16554137e+07]
- [ 4.09495398e+07]
- [ 4.02617146e+07]
- [ 3.95143569e+07]
- [ 3.86970703e+07]
- [ 3.78792626e+07]
- [ 3.74702970e+07]
- [ 3.70612479e+07]
- [ 3.66521276e+07]
- [ 5.35643304e+07]
- [ 4.82802531e+07]
- [ 4.29895723e+07]
- [ 6.11352770e+07]
- [ 4.67999691e+07]
- [ 3.24628367e+07]
- [ 5.57907940e+07]
- [ 3.72997611e+07]
- [ 1.59206589e+07]
- [-7.03026022e+06]
- [-3.01687414e+06]
- [ 5.53864310e-02]]</t>
+          <t>[[-4.06787191e+06]
+ [ 1.01322363e+07]
+ [ 2.33145780e+07]
+ [ 2.64270810e+07]
+ [ 2.60764344e+07]
+ [ 2.57270320e+07]
+ [ 2.54270420e+07]
+ [ 2.51678220e+07]
+ [ 2.49105589e+07]
+ [ 2.46188984e+07]
+ [ 2.42896841e+07]
+ [ 2.39713780e+07]
+ [ 2.37207327e+07]
+ [ 2.35295241e+07]
+ [ 2.33313012e+07]
+ [ 2.32281990e+07]
+ [ 2.30230983e+07]
+ [ 2.17908795e+07]
+ [ 7.84074257e+07]
+ [ 7.02918415e+07]
+ [ 6.21334956e+07]
+ [ 5.04308767e+07]
+ [ 3.87090604e+07]
+ [ 2.69947133e+07]
+ [ 3.27321912e+07]
+ [ 2.83417022e+07]
+ [ 1.87951989e+07]
+ [-1.46126270e+06]
+ [ 1.16399459e+06]
+ [ 5.69013542e-02]]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14252,36 +14257,36 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[[2.35686626e+06]
- [5.91993321e+06]
- [6.08641528e+06]
- [1.59023762e+06]
- [1.59028525e+06]
- [1.59033395e+06]
- [1.59038454e+06]
- [1.59043797e+06]
- [1.59049533e+06]
- [1.59055795e+06]
- [1.59062752e+06]
- [1.59070626e+06]
- [1.59069233e+06]
- [1.59054990e+06]
- [1.59058074e+06]
- [1.59032228e+06]
- [1.59032965e+06]
- [1.59033692e+06]
- [2.54878440e+06]
- [2.54934630e+06]
- [2.54984925e+06]
- [4.49670797e+06]
- [4.49803275e+06]
- [4.49907215e+06]
- [1.05245924e+07]
- [1.09016607e+07]
- [1.13064855e+07]
- [1.28095644e+07]
- [1.50801906e+07]
- [6.61671113e+03]]</t>
+          <t>[[1.91779401e+06]
+ [3.78533187e+06]
+ [3.08628237e+06]
+ [9.46945588e+05]
+ [9.46972039e+05]
+ [9.46998756e+05]
+ [9.47918541e+05]
+ [9.49437817e+05]
+ [9.50963187e+05]
+ [9.51889682e+05]
+ [9.51923704e+05]
+ [9.51960970e+05]
+ [9.53887960e+05]
+ [9.57831922e+05]
+ [9.61874947e+05]
+ [9.63669234e+05]
+ [9.63673656e+05]
+ [9.61677042e+05]
+ [3.38686012e+06]
+ [3.38776194e+06]
+ [3.38857195e+06]
+ [3.39151085e+06]
+ [3.39304799e+06]
+ [3.39432367e+06]
+ [5.24277143e+06]
+ [6.01563577e+06]
+ [7.05441194e+06]
+ [1.41277018e+07]
+ [1.41278741e+07]
+ [6.59509518e+03]]</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -14306,34 +14311,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.10692552e+07]
- [-2.09529180e+07]
- [-1.85919397e+07]
- [-1.62518622e+07]
- [-1.39340101e+07]
- [-1.16404416e+07]
- [-9.37403906e+06]
- [-7.13864009e+06]
- [-4.93921695e+06]
- [-2.78211866e+06]
- [-8.57519534e+05]
+ [-6.51221908e+06]
+ [-1.23256077e+07]
+ [-1.09367562e+07]
+ [-9.56019959e+06]
+ [-8.19189752e+06]
+ [-6.83324668e+06]
+ [-5.49455696e+06]
+ [-4.18179605e+06]
+ [-2.89338001e+06]
+ [-1.62975768e+06]
+ [-5.01306053e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-1.69148758e+03]
- [-5.85573103e+03]
- [-6.56000375e+03]
- [-7.07832402e+03]
- [-1.33926689e+04]
- [-1.42427817e+04]
- [-1.49556368e+04]
- [-3.51118708e+04]
- [-3.47134906e+04]
- [-3.42168737e+04]
- [-3.30471726e+04]
- [-2.88150824e+04]
- [-2.44114691e+04]]</t>
+ [-9.41304698e+02]
+ [-6.37727477e+03]
+ [-7.14427391e+03]
+ [-7.70875864e+03]
+ [-8.24395227e+03]
+ [-8.76644424e+03]
+ [-9.20436610e+03]
+ [-1.30658629e+04]
+ [-1.17356522e+04]
+ [-1.03208350e+04]
+ [-1.77556391e+04]
+ [-1.80448235e+04]
+ [-1.83200231e+04]]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14404,36 +14409,36 @@
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[[4.06710285e-02]
- [8.69977326e-02]
- [2.36750896e-01]
- [3.02505902e-01]
- [2.90075787e-01]
- [2.77908592e-01]
- [2.66037336e-01]
- [2.54500792e-01]
- [2.43343938e-01]
- [2.32618368e-01]
- [2.22382611e-01]
- [2.12702299e-01]
- [2.03706727e-01]
- [1.97348529e-01]
- [1.93199125e-01]
- [1.91124108e-01]
- [1.89048959e-01]
- [1.86977865e-01]
- [2.73418120e-01]
- [2.46641185e-01]
- [2.19854993e-01]
- [3.13539887e-01]
- [2.41381354e-01]
- [1.69865235e-01]
- [2.98655646e-01]
- [2.12748345e-01]
- [1.28441688e-01]
- [1.18368586e-01]
- [1.33744579e-01]
- [1.37184171e-04]]</t>
+          <t>[[2.67156687e-02]
+ [6.13918783e-02]
+ [1.40825443e-01]
+ [1.74648721e-01]
+ [1.67751980e-01]
+ [1.61018332e-01]
+ [1.54683049e-01]
+ [1.48726703e-01]
+ [1.43006968e-01]
+ [1.37371099e-01]
+ [1.31805995e-01]
+ [1.26569091e-01]
+ [1.22250638e-01]
+ [1.19990816e-01]
+ [1.18987515e-01]
+ [1.18465509e-01]
+ [1.17424880e-01]
+ [1.11175014e-01]
+ [3.99986098e-01]
+ [3.58833351e-01]
+ [3.17496904e-01]
+ [2.58295004e-01]
+ [1.99189856e-01]
+ [1.40562780e-01]
+ [1.72828114e-01]
+ [1.53635221e-01]
+ [1.14059931e-01]
+ [1.24696396e-01]
+ [1.24621786e-01]
+ [1.09825274e-04]]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -14452,36 +14457,36 @@
       <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[[0.06443786]
- [0.08187824]
- [0.21202388]
- [0.11850737]
- [0.10719946]
- [0.09618592]
- [0.08553646]
- [0.07535431]
- [0.0657936 ]
- [0.05708557]
- [0.04957175]
- [0.04259201]
- [0.03736632]
- [0.03516986]
- [0.03409665]
- [0.03083053]
- [0.03031913]
- [0.0298075 ]
- [0.07405548]
- [0.06892204]
- [0.06384311]
- [0.20237966]
- [0.19084618]
- [0.17936278]
- [0.99469794]
- [0.9756347 ]
- [0.95785236]
- [1.00000002]
- [0.99389132]
- [0.0049161 ]]</t>
+          <t>[[0.03991221]
+ [0.04413473]
+ [0.06784398]
+ [0.04626923]
+ [0.0420533 ]
+ [0.03799451]
+ [0.03413245]
+ [0.03051822]
+ [0.02724913]
+ [0.02441893]
+ [0.02210887]
+ [0.02042202]
+ [0.0195475 ]
+ [0.01895499]
+ [0.01811623]
+ [0.01704314]
+ [0.0166102 ]
+ [0.01672052]
+ [0.11275632]
+ [0.10730928]
+ [0.1018874 ]
+ [0.10044744]
+ [0.09294021]
+ [0.08556153]
+ [0.15839597]
+ [0.15757109]
+ [0.15958454]
+ [0.560214  ]
+ [0.55320041]
+ [0.00247187]]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr"/>
@@ -14500,36 +14505,36 @@
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[[2.13004406e-01]
- [3.80134528e-01]
- [5.83315157e-01]
- [6.40396214e-01]
- [6.25672887e-01]
- [6.10929443e-01]
- [5.96138032e-01]
- [5.81268506e-01]
- [5.66287228e-01]
- [5.51155579e-01]
- [5.35827924e-01]
- [5.20248668e-01]
- [5.05680817e-01]
- [4.92275979e-01]
- [4.78905268e-01]
- [4.72233804e-01]
- [4.65571200e-01]
- [4.58917536e-01]
- [6.68532548e-01]
- [5.98416813e-01]
- [5.29043304e-01]
- [7.97092980e-01]
- [6.34558254e-01]
- [4.74919046e-01]
- [9.84354232e-01]
- [8.18908722e-01]
- [6.24112780e-01]
- [4.89792959e-01]
- [7.72396267e-01]
- [4.54950754e-10]]</t>
+          <t>[[1.49512916e-01]
+ [2.27107267e-01]
+ [2.96160582e-01]
+ [3.10394274e-01]
+ [3.02403737e-01]
+ [2.94402308e-01]
+ [2.86921871e-01]
+ [2.79816156e-01]
+ [2.72604979e-01]
+ [2.64848080e-01]
+ [2.56478479e-01]
+ [2.47982709e-01]
+ [2.41047995e-01]
+ [2.35703282e-01]
+ [2.30273362e-01]
+ [2.27508908e-01]
+ [2.23712322e-01]
+ [2.15731043e-01]
+ [8.05330750e-01]
+ [7.25707991e-01]
+ [6.46973655e-01]
+ [5.36201083e-01]
+ [4.27596049e-01]
+ [3.21222611e-01]
+ [4.50949327e-01]
+ [4.97368749e-01]
+ [5.56842959e-01]
+ [9.75626298e-01]
+ [9.65426703e-01]
+ [3.44266539e-10]]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr"/>
@@ -14571,7 +14576,7 @@
       <c r="C548" t="inlineStr"/>
       <c r="D548" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[0.92399627]</t>
         </is>
       </c>
       <c r="E548" t="inlineStr"/>
@@ -14618,26 +14623,26 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>[[2.25728098e+10 5.88832555e+12 2.25728098e+10 5.88832555e+12
-  1.52235685e+10 1.24971223e+11]
- [2.04978625e+10 4.24270853e+12 2.04978625e+10 4.24270853e+12
-  1.41035685e+10 1.24971223e+11]
- [1.84229151e+10 2.95106681e+12 1.84229151e+10 2.95106681e+12
-  1.29835685e+10 1.24971223e+11]
- [1.63479677e+10 1.96915349e+12 1.63479677e+10 1.96915349e+12
-  1.18635685e+10 1.24971223e+11]
- [1.42730203e+10 1.25272165e+12 1.42730203e+10 1.25272165e+12
-  1.07435685e+10 1.24971223e+11]
- [1.21980730e+10 7.57524372e+11 1.21980730e+10 7.57524372e+11
-  9.62356851e+09 1.24971223e+11]
- [1.01231256e+10 4.39314753e+11 1.01231256e+10 4.39314753e+11
-  8.50356851e+09 1.24971223e+11]
- [8.04817824e+09 2.53845875e+11 8.04817824e+09 2.53845875e+11
-  7.38356851e+09 1.24971223e+11]
- [5.97323087e+09 1.56870824e+11 5.97323087e+09 1.56870824e+11
-  6.26356851e+09 1.24971223e+11]
- [3.89828350e+09 1.04142686e+11 3.89828350e+09 1.04142686e+11
-  5.14356851e+09 1.24971223e+11]]</t>
+          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
+  1.52133333e+10 1.24226667e+11]
+ [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
+  1.40933333e+10 1.24226667e+11]
+ [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
+  1.29733333e+10 1.24226667e+11]
+ [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
+  1.18533333e+10 1.24226667e+11]
+ [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
+  1.07333333e+10 1.24226667e+11]
+ [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
+  9.61333333e+09 1.24226667e+11]
+ [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
+  8.49333333e+09 1.24226667e+11]
+ [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
+  7.37333333e+09 1.24226667e+11]
+ [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
+  6.25333333e+09 1.24226667e+11]
+ [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
+  5.13333333e+09 1.24226667e+11]]</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
@@ -14660,9 +14665,9 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[371.4793265  427.39276174 466.29138454 496.79280604 531.93235094
- 560.82588545 585.57146893 580.31611632 573.36902904 564.9196529
- 500.38743524 430.35572601 352.18249915]</t>
+          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.23177151
+ 510.56968119 533.07977868 484.77613683 431.3139066  371.41485665
+ 377.98294805 384.21329897 390.14302107]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14781,9 +14786,9 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[371.4793265  427.39276174 466.29138454 496.79280604 531.93235094
- 560.82588545 585.57146893 580.31611632 573.36902904 564.9196529
- 500.38743524 430.35572601 352.18249915]</t>
+          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.23177151
+ 510.56968119 533.07977868 484.77613683 431.3139066  371.41485665
+ 377.98294805 384.21329897 390.14302107]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14971,9 +14976,9 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>[-371.4793265  -427.39276174 -466.29138454 -496.79280604 -531.93235094
- -560.82588545 -585.57146893 -580.31611632 -573.36902904 -564.9196529
- -500.38743524 -430.35572601 -352.18249915]</t>
+          <t>[-336.9560439  -388.43785582 -424.16473764 -452.12457083 -484.23177151
+ -510.56968119 -533.07977868 -484.77613683 -431.3139066  -371.41485665
+ -377.98294805 -384.21329897 -390.14302107]</t>
         </is>
       </c>
       <c r="E564" t="inlineStr"/>
@@ -15017,7 +15022,7 @@
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>[229.63638128 405.49315201 889.3715009  699.47497258]</t>
+          <t>[250.         249.96587888 301.3333509  438.40487671]</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
@@ -15036,7 +15041,7 @@
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[1.         1.         0.9032086  0.60260544]</t>
+          <t>[1.         0.99972703 0.65778595 0.99999721]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -15055,7 +15060,7 @@
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>[1.         1.         0.9032086  0.60260544]</t>
+          <t>[1.         0.99972703 0.65778595 1.00000279]</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
@@ -15074,7 +15079,7 @@
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>[0.56631383 0.43386709 0.96702859]</t>
+          <t>[1.         0.6875     0.54545455]</t>
         </is>
       </c>
       <c r="E569" t="inlineStr"/>
@@ -15117,9 +15122,9 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[5.51096626 5.51096626 5.51096626 5.51096626 5.51096626 5.51096626
- 5.51096626 5.33316155 5.15535684 4.97755213 4.31820142 3.65885071
- 2.9995    ]</t>
+          <t>[5.         5.         5.         5.         4.99954505 4.9990901
+ 4.99863516 4.4284341  3.85823305 3.28803199 3.28803505 3.2880381
+ 3.28804116]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr"/>
@@ -15370,9 +15375,9 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253 10.66632311 10.31071369  9.95510427  8.63640285  7.31770142
-  5.999     ]</t>
+          <t>[10.         10.         10.         10.          9.9990901   9.99818021
+  9.99727031  8.8568682   7.7164661   6.57606399  6.5760701   6.5760762
+  6.57608231]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15625,7 +15630,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[13810.44580765  7835.88176253  3239.55040805  2381.87849492]</t>
+          <t>[10445.94134309 10444.50990852  5955.2116684   2580.44372287]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -15652,7 +15657,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[207898.23467424 118405.35280764  44447.40518573  18891.77246061]</t>
+          <t>[129533.85103079 129480.60781643  50779.04643687  13885.33731655]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -15679,7 +15684,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[207898.23467424 118405.35280764  44447.40518573  18891.77246061]</t>
+          <t>[129533.85103079 129480.60781643  50779.04643687  13885.33731655]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -15706,7 +15711,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[4.98198501e+12 2.83741560e+12 1.06511874e+12 4.52714413e+11]</t>
+          <t>[3.10409420e+12 3.10281830e+12 1.21684751e+12 3.32742327e+11]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -15733,7 +15738,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[4.98198501e+12 2.83741560e+12 1.06511874e+12 4.52714413e+11]</t>
+          <t>[3.10409420e+12 3.10281830e+12 1.21684751e+12 3.32742327e+11]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -15760,7 +15765,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[3.95071412e+12 2.25007057e+12 8.44639164e+11 3.59002530e+11]</t>
+          <t>[2.46154670e+12 2.46053491e+12 9.64960072e+11 2.63864666e+11]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -15787,7 +15792,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[3.30947659e+11 1.87775743e+11 7.76312104e+10 5.70783248e+10]</t>
+          <t>[2.50322103e+11 2.50287800e+11 1.42708164e+11 6.18366576e+10]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -15895,10 +15900,10 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.60432517 0.22123576 0.22123576 0.        ]
- [0.         0.         1.0651003  0.38844971 0.38844971 0.        ]
- [0.         0.         2.57628342 0.98472761 0.98472761 0.        ]
- [0.         0.         3.50395707 1.76204952 1.76204952 0.        ]]</t>
+          <t>[[0.         0.         0.7989706  0.32215517 0.32215517 0.        ]
+ [0.         0.         0.7990801  0.32224366 0.32224366 0.        ]
+ [0.         0.         1.40146152 0.68099471 0.68099471 0.        ]
+ [0.         0.         3.23432746 1.97632601 1.97632601 0.        ]]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15921,10 +15926,10 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[[0.99334706 0.99334706 0.         0.         0.         0.11061788]
- [1.75222698 1.75222698 0.         0.         0.         0.19422485]
- [4.24084357 4.24084357 0.         0.         0.         0.49236381]
- [5.76711748 5.76711748 0.         0.         0.         0.88102476]]</t>
+          <t>[[1.3135028  1.3135028  0.         0.         0.         0.16107759]
+ [1.31368249 1.31368249 0.         0.         0.         0.16112183]
+ [2.30470321 2.30470321 0.         0.         0.         0.34049736]
+ [5.3213244  5.3213244  0.         0.         0.         0.988163  ]]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15947,7 +15952,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[561.83706362]</t>
+          <t>[602.21404088]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -15970,7 +15975,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>[3034829.18824379]</t>
+          <t>[3177543.13779193]</t>
         </is>
       </c>
       <c r="E606" t="inlineStr"/>
@@ -15993,8 +15998,8 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 10.84412782 10.4885184  10.13290898  9.29575356  7.97705213  6.65835071]</t>
+          <t>[10.         10.         10.          9.99954505  9.99863516  9.99772526
+  9.42706926  8.28666715  7.14626504  6.57606704  6.57607315  6.57607926]</t>
         </is>
       </c>
       <c r="E607" t="inlineStr"/>
@@ -16017,8 +16022,8 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[0.05135714 0.05135714 0.05135714 0.02908426 0.02908426 0.02908426
- 0.0126187  0.0126187  0.0126187  0.01220265 0.01220265 0.01220265]</t>
+          <t>[0.0428   0.0428   0.0428   0.0428   0.0428   0.0428   0.029425 0.029425
+ 0.029425 0.01605  0.01605  0.01605 ]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -16065,18 +16070,18 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[[57933309.84975845]
- [52753148.21550242]
- [47553952.34961242]
- [69345903.38928984]
- [55177325.50248434]
- [40979172.84770282]
- [76143382.51342542]
- [59204102.67429189]
- [39523012.80304472]
- [22090112.46399018]
- [-4866401.92048856]
- [ 2133401.58424424]]</t>
+          <t>[[85183786.6655943 ]
+ [77168319.71506432]
+ [69098002.98646456]
+ [57504248.59191263]
+ [45870802.47702564]
+ [34225815.30239955]
+ [44573086.57754934]
+ [43733782.51895173]
+ [39568180.68646032]
+ [43311071.79546647]
+ [ -691106.07376145]
+ [ 1957822.61200308]]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16099,18 +16104,18 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>[[ 2546644.47724612]
- [ 2547240.87626185]
- [ 2547783.03560213]
- [ 4493848.41455891]
- [ 4495322.83778122]
- [ 4496514.4163509 ]
- [10523156.92181629]
- [10900366.09187304]
- [11305351.68427345]
- [12808679.74195428]
- [15079552.85688148]
- [18323065.65241127]]</t>
+          <t>[[ 3385516.43460866]
+ [ 3386481.18980202]
+ [ 3387358.41684407]
+ [ 3389896.10626579]
+ [ 3391575.40635426]
+ [ 3392994.63264646]
+ [ 5242059.17926565]
+ [ 6015031.36481052]
+ [ 7053978.41659996]
+ [14127607.53396295]
+ [14128225.20800928]
+ [14128409.03522575]]</t>
         </is>
       </c>
       <c r="E611" t="inlineStr"/>
@@ -16133,18 +16138,18 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>[[ -5855.73102842]
- [ -6560.00374938]
- [ -7078.32401563]
- [-13392.66893235]
- [-14242.78169624]
- [-14955.63679057]
- [-35111.87078559]
- [-34713.4905949 ]
- [-34216.8736892 ]
- [-33047.17256943]
- [-28815.08243615]
- [-24411.46907923]]</t>
+          <t>[[ -6377.27477098]
+ [ -7144.27390968]
+ [ -7708.75864117]
+ [ -8243.95227294]
+ [ -8766.44424047]
+ [ -9204.36609936]
+ [-13065.86286144]
+ [-11735.65219187]
+ [-10320.83496892]
+ [-17755.63905599]
+ [-18044.82347281]
+ [-18320.02309665]]</t>
         </is>
       </c>
       <c r="E612" t="inlineStr"/>
@@ -16197,18 +16202,18 @@
       <c r="C614" t="inlineStr"/>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[0.29557204]
- [0.26930648]
- [0.24296215]
- [0.35500861]
- [0.2835013 ]
- [0.21222802]
- [0.39836749]
- [0.31619583]
- [0.2244527 ]
- [0.1593193 ]
- [0.13513711]
- [0.16181066]]</t>
+          <t>[[0.43436789]
+ [0.39370236]
+ [0.35278289]
+ [0.29406335]
+ [0.23527056]
+ [0.17667629]
+ [0.23143026]
+ [0.22872638]
+ [0.21068386]
+ [0.25309263]
+ [0.12453029]
+ [0.12488505]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16227,18 +16232,18 @@
       <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr">
         <is>
-          <t>[[0.07403859]
- [0.06890324]
- [0.06382293]
- [0.20230923]
- [0.19077403]
- [0.17928985]
- [0.99452432]
- [0.97547415]
- [0.95770631]
- [0.9998832 ]
- [0.99382744]
- [0.99983521]]</t>
+          <t>[[0.11274662]
+ [0.10729774]
+ [0.10187473]
+ [0.10042483]
+ [0.09291699]
+ [0.08553818]
+ [0.15837438]
+ [0.15755635]
+ [0.15957768]
+ [0.56021511]
+ [0.55321058]
+ [0.54620331]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16257,18 +16262,18 @@
       <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[1.09720649]
- [0.99303418]
- [0.88911766]
- [1.33825998]
- [1.09093092]
- [0.84510333]
- [1.72724685]
- [1.49221196]
- [1.2110139 ]
- [1.04656158]
- [0.77682119]
- [1.22060323]]</t>
+          <t>[[1.11344999]
+ [1.01181251]
+ [0.91030565]
+ [0.76584496]
+ [0.62235751]
+ [0.48007008]
+ [0.66914609]
+ [0.72408946]
+ [0.77789096]
+ [1.26277455]
+ [0.65086196]
+ [0.66104495]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16384,7 +16389,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[0.26235856]</t>
+          <t>[0.23634439]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16407,7 +16412,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[0.26560987]</t>
+          <t>[0.23897492]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16430,7 +16435,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[0.26235856 0.26560987 0.81156807 0.99151709 1.17542381 2.82451817]</t>
+          <t>[0.23634439 0.23897492 0.7628393  0.88628817 1.03365797 2.4227752 ]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16449,9 +16454,9 @@
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[[   0.84157979    0.60092273   -1.66399371    2.0539178    -0.83242662]
- [  20.81499464   23.3156168  -115.34326851  146.90785319  -74.69519612]
- [ -74.80910236  194.48131603 -349.63890138  425.9183671  -194.95167939]]</t>
+          <t>[[   1.16384812    1.10563031   -4.53759413    4.9845257    -1.71641001]
+ [ 192.76327287 -336.2428202   320.171669    -63.86628884 -111.82583284]
+ [ -68.59758682  231.30227136 -430.45486542  458.17362481 -189.42344393]]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16470,9 +16475,9 @@
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[[   0.83376879    0.5697341    -1.55419346    1.91473599   -0.76404541]
- [   9.88338602   16.86540782  -70.56809919   89.64245861  -44.82315325]
- [ -73.01275238  186.49174419 -333.60267171  406.67784723 -185.55416733]]</t>
+          <t>[[   1.14664405    1.1198359    -4.51644286    4.92109787   -1.67113496]
+ [  36.43209799  -53.36547975   31.56180543   25.09010827  -38.71853193]
+ [ -64.93227521  216.68150149 -402.98460656  427.18680678 -174.95142649]]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16491,7 +16496,7 @@
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[[  4.3931408  -16.96321895  30.94226255 -24.87663792   7.50445352]
+          <t>[[  6.55008061 -21.62323394  30.2418452  -18.22040808   4.0517162 ]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -16516,7 +16521,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.26560987 1.17542381 2.87285173]</t>
+          <t>[0.23897492 1.03365797 2.50239822]</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
@@ -16539,7 +16544,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0.26235856 0.99151709 2.82451817]</t>
+          <t>[0.23634439 0.88628817 2.4227752 ]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
@@ -16562,7 +16567,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[4.45141744 0.         0.        ]</t>
+          <t>[4.8829449 0.        0.       ]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16586,18 +16591,18 @@
       <c r="D630" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00506521]
- [0.01898955]
- [0.04096531]
- [0.09041295]
- [0.1616456 ]
- [0.25048088]
- [0.31444081]
- [0.38836168]
- [0.470758  ]
- [0.55429475]
- [0.64338835]
- [0.73528081]]</t>
+ [0.00807516]
+ [0.03046512]
+ [0.06586615]
+ [0.1364094 ]
+ [0.2269892 ]
+ [0.33375209]
+ [0.40572038]
+ [0.48537551]
+ [0.57399789]
+ [0.66844146]
+ [0.77227461]
+ [0.8791472 ]]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
@@ -16620,7 +16625,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[0.73528081]</t>
+          <t>[0.8791472]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
@@ -16643,18 +16648,18 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-16051992.10278329]
- [-14411834.67399543]
- [-12771262.55835896]
- [-11437372.89073127]
- [-10102936.62687584]
- [ -8768042.49194199]
- [ -8422214.30181514]
- [ -8087605.60901488]
- [ -7764232.7714458 ]
- [ -7496233.7148301 ]
- [ -7266219.80616691]
- [ -7074256.2758736 ]]</t>
+          <t>[[-17452350.88530215]
+ [-16210952.53759762]
+ [-14969173.64224009]
+ [-13194771.64061391]
+ [-11420032.25349326]
+ [ -9645037.23863564]
+ [ -8952148.39516638]
+ [ -8343212.99962719]
+ [ -7818290.39053385]
+ [ -7570339.39719079]
+ [ -7322327.01625802]
+ [ -7074256.27587359]]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr"/>
@@ -16677,18 +16682,18 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[[2428269.64664408]
- [2428871.56652992]
- [2429418.887901  ]
- [2429838.49098211]
- [2430682.12161118]
- [2431364.34462649]
- [2428994.62155263]
- [2429121.0429694 ]
- [2429213.38266195]
- [2429085.32447461]
- [2428987.3378164 ]
- [2428839.83861402]]</t>
+          <t>[[2428340.74750155]
+ [2429076.91360711]
+ [2429746.44799186]
+ [2431555.51099555]
+ [2432587.18214335]
+ [2433420.67818559]
+ [2430335.63502881]
+ [2430269.99481195]
+ [2430174.29540535]
+ [2429138.32853434]
+ [2429259.18994879]
+ [2429298.52809833]]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16711,18 +16716,18 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[[29099.27130827]
- [29107.31314518]
- [29114.70053407]
- [29120.52166618]
- [29132.31718621]
- [29142.17434406]
- [29109.6906588 ]
- [29111.77340594]
- [29113.46876225]
- [29112.03416735]
- [29111.19309759]
- [29109.93654496]]</t>
+          <t>[[29100.21705562]
+ [29110.0550604 ]
+ [29119.09398618]
+ [29143.61990486]
+ [29158.04605685]
+ [29170.08947809]
+ [29128.13980439]
+ [29127.7029852 ]
+ [29127.06123843]
+ [29112.88377914]
+ [29115.80230547]
+ [29117.73444325]]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
@@ -16745,18 +16750,18 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[[-4328901.96460794]
- [-3974717.285662  ]
- [-3619270.2239009 ]
- [-3109036.95722209]
- [-2596195.33319479]
- [-2082080.16619002]
- [-1773185.56184445]
- [-1463273.34419512]
- [-1152540.49776426]
- [ -861895.99039055]
- [ -570574.06230101]
- [ -278501.79439328]]</t>
+          <t>[[-4359054.71294704]
+ [-4002642.28320746]
+ [-3643752.41815183]
+ [-3127814.08022803]
+ [-2609847.7224417 ]
+ [-2091394.27557316]
+ [-1780722.3941837 ]
+ [-1469656.64177822]
+ [-1157989.38193093]
+ [ -865968.83657879]
+ [ -572581.17978985]
+ [ -278501.81963877]]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
@@ -16779,17 +16784,17 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[[ 3.24011210e+08]
- [ 2.94479374e+08]
- [ 2.64854349e+08]
- [ 2.22354714e+08]
- [ 1.79670862e+08]
- [ 1.36904235e+08]
- [ 1.11221393e+08]
- [ 8.54774663e+07]
- [ 5.96897316e+07]
- [ 3.55945376e+07]
- [ 1.14800993e+07]
+          <t>[[ 3.26181894e+08]
+ [ 2.96482817e+08]
+ [ 2.66600629e+08]
+ [ 2.23676745e+08]
+ [ 1.80612409e+08]
+ [ 1.37524021e+08]
+ [ 1.11707717e+08]
+ [ 8.58733186e+07]
+ [ 6.00126083e+07]
+ [ 3.58275982e+07]
+ [ 1.15949475e+07]
  [-1.26341965e+07]]</t>
         </is>
       </c>
@@ -16813,18 +16818,18 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[1299624.83028311]
- [1299609.65220171]
- [1299594.4692305 ]
- [1299669.42709201]
- [1299647.66259013]
- [1299625.88989905]
- [1299795.74468577]
- [1299793.45567302]
- [1299791.46426948]
- [1299818.63696173]
- [1299863.4596295 ]
- [1299928.51689908]]</t>
+          <t>[[1299689.84318767]
+ [1299674.65472769]
+ [1299659.46024462]
+ [1299644.26983159]
+ [1299622.56637809]
+ [1299600.85553687]
+ [1299642.99384307]
+ [1299653.24091151]
+ [1299668.86249151]
+ [1299848.44912528]
+ [1299836.15996386]
+ [1299823.86796219]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16847,9 +16852,9 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>[[  2427925.55809664]
- [    29094.73368413]
- [-17691583.00028507]]</t>
+          <t>[[  2427925.55809654]
+ [    29094.73368412]
+ [-18693228.13433488]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16872,8 +16877,8 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-4.68128734e+06]
- [ 3.53408469e+08]
+          <t>[[-4.71225004e+06]
+ [ 3.55640347e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -16897,7 +16902,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[2042153.07941735]</t>
+          <t>[2145314.73898238]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16920,7 +16925,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[-3.13247093e+00 -4.62753410e-02  1.05628879e+02]</t>
+          <t>[-2.98183994e+00 -4.40501006e-02  1.07808252e+02]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16943,7 +16948,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[3.02734470e+10 3.01359600e+10 2.88588440e+08 7.86163621e+02
+          <t>[3.17668343e+10 3.16293473e+10 2.84222173e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -18452,7 +18457,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[2.82995258]</t>
+          <t>[2.97518627]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
@@ -19584,8 +19589,8 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253 11.02193253 11.02193253 11.02193253
- 11.02193253]</t>
+          <t>[11.         11.         11.         10.95121027 10.9512112  10.82254631
+ 10.82255446]</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -19612,7 +19617,8 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
+          <t>[[0.12997233 0.13       0.13       0.12995885 0.12995998 0.1299748
+  0.12997784]]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -19828,7 +19834,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[11.02193253 11.02193253 11.02193253  9.95510427  5.999     ]</t>
+          <t>[10.         10.          9.99727031  6.57606399  6.57608231]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -19878,7 +19884,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[[0.05789818 0.03809647 0.01626663 0.00731973 0.01548895]]</t>
+          <t>[[0.04  0.04  0.04  0.015 0.015]]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">

--- a/examples/99_tower_gbf/15mw/30m/outputs_mono/monotow_output.xlsx
+++ b/examples/99_tower_gbf/15mw/30m/outputs_mono/monotow_output.xlsx
@@ -914,8 +914,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[[0.12997233 0.13       0.13       0.12995885 0.12995998 0.1299748
-  0.12997784]]</t>
+          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -938,8 +937,8 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         10.95121027 10.9512112  10.82254631
- 10.82255446]</t>
+          <t>[11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1636,7 +1635,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[10.]</t>
+          <t>[11.98673647]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1659,7 +1658,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[10.82255446]</t>
+          <t>[11.98673647]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3520,7 +3519,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[[0.04  0.04  0.04  0.015 0.015]]</t>
+          <t>[[0.03737835 0.02117265 0.015      0.015      0.015     ]]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3543,7 +3542,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[10.         10.          9.99727031  6.57606399  6.57608231]</t>
+          <t>[11.98673647 11.98673647 11.98673647  7.69904921  5.999     ]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -4574,10 +4573,10 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          47941.642397
-  48633.63313747  50732.65247576  54309.05199929  59313.30112057
-  66058.52896089  74781.18167334  86056.14118855 100172.95742156
- 117808.55339718      0.              0.              0.
+          <t>[     0.              0.              0.          56732.77954637
+  57548.11703331  60021.04768235  64233.81990068  70328.8933642
+  78518.50286864  89101.41668437 102491.24856306 119263.6287789
+ 140234.30072598      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -4828,10 +4827,10 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         11.
- 11.         10.98373676 10.96747352 10.95121027 10.95121058 10.95121089
- 10.9512112  10.9083229  10.86543461 10.82254631 10.82254903 10.82255174
- 10.82255446]</t>
+          <t>[11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647]</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -4972,10 +4971,10 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          47941.642397
-  48633.63313747  50732.65247576  54309.05199929  59313.30112057
-  66058.52896089  74781.18167334  86056.14118855 100172.95742156
- 117808.55339718      0.              0.              0.
+          <t>[     0.              0.              0.          56732.77954637
+  57548.11703331  60021.04768235  64233.81990068  70328.8933642
+  78518.50286864  89101.41668437 102491.24856306 119263.6287789
+ 140234.30072598      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5118,10 +5117,10 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -47941.642397
-  -48633.63313747  -50732.65247576  -54309.05199929  -59313.30112057
-  -66058.52896089  -74781.18167334  -86056.14118855 -100172.95742156
- -117808.55339718       0.               0.               0.
+          <t>[      0.               0.               0.          -56732.77954637
+  -57548.11703331  -60021.04768235  -64233.81990068  -70328.8933642
+  -78518.50286864  -89101.41668437 -102491.24856306 -119263.6287789
+ -140234.30072598       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -5172,8 +5171,8 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         10.95121027 10.9512112  10.82254631
- 10.82255446]</t>
+          <t>[11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647]</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -5196,7 +5195,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[0.12998616 0.13       0.12997942 0.12995941 0.12996739 0.12997632]</t>
+          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -5262,8 +5261,8 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         10.95121027 10.9512112  10.82254631
- 10.82255446]</t>
+          <t>[11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -5286,7 +5285,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[0.12998616 0.13       0.12997942 0.12995941 0.12996739 0.12997632]</t>
+          <t>[0.077 0.077 0.077 0.077 0.077 0.077]</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -5549,9 +5548,8 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[0.12998616 0.12998616 0.12998616 0.13       0.13       0.13
- 0.12997942 0.12997942 0.12997942 0.12995941 0.12995941 0.12995941
- 0.12996739 0.12996739 0.12996739 0.12997632 0.12997632 0.12997632]</t>
+          <t>[0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077 0.077
+ 0.077 0.077 0.077 0.077 0.077 0.077]</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5715,7 +5713,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[2769046.08902908]</t>
+          <t>[1803359.83848]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5738,7 +5736,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[6483060.08044048]</t>
+          <t>[4397600.93104681]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5761,7 +5759,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[37.40765676]</t>
+          <t>[37.5]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5784,7 +5782,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[5.21032784e+09 5.21032784e+09 8.12629080e+07 0.00000000e+00
+          <t>[3.41327501e+09 3.41327501e+09 6.39506347e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -5808,7 +5806,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[1178239.84885882]</t>
+          <t>[823869.77690561]</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5831,7 +5829,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[3177543.13779193]</t>
+          <t>[2497981.38467728]</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5878,26 +5876,26 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
-  1.52133333e+10 1.24226667e+11]
- [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
-  1.40933333e+10 1.24226667e+11]
- [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
-  1.29733333e+10 1.24226667e+11]
- [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
-  1.18533333e+10 1.24226667e+11]
- [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
-  1.07333333e+10 1.24226667e+11]
- [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
-  9.61333333e+09 1.24226667e+11]
- [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
-  8.49333333e+09 1.24226667e+11]
- [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
-  7.37333333e+09 1.24226667e+11]
- [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
-  6.25333333e+09 1.24226667e+11]
- [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
-  5.13333333e+09 1.24226667e+11]]</t>
+          <t>[[2.29140457e+10 5.99272586e+12 2.29140457e+10 5.99272586e+12
+  1.56738104e+10 1.60745805e+11]
+ [2.08390984e+10 4.33882126e+12 2.08390984e+10 4.33882126e+12
+  1.45538104e+10 1.60745805e+11]
+ [1.87641510e+10 3.03889197e+12 1.87641510e+10 3.03889197e+12
+  1.34338104e+10 1.60745805e+11]
+ [1.66892036e+10 2.04869107e+12 1.66892036e+10 2.04869107e+12
+  1.23138104e+10 1.60745805e+11]
+ [1.46142563e+10 1.32397166e+12 1.46142563e+10 1.32397166e+12
+  1.11938104e+10 1.60745805e+11]
+ [1.25393089e+10 8.20486814e+11 1.25393089e+10 8.20486814e+11
+  1.00738104e+10 1.60745805e+11]
+ [1.04643615e+10 4.93989622e+11 1.04643615e+10 4.93989622e+11
+  8.95381035e+09 1.60745805e+11]
+ [8.38941416e+09 3.00233172e+11 8.38941416e+09 3.00233172e+11
+  7.83381035e+09 1.60745805e+11]
+ [6.31446679e+09 1.94970548e+11 6.31446679e+09 1.94970548e+11
+  6.71381035e+09 1.60745805e+11]
+ [4.23951943e+09 1.33954838e+11 4.23951943e+09 1.33954838e+11
+  5.59381035e+09 1.60745805e+11]]</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -5920,9 +5918,9 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[4.74964202 4.74964202 4.74964202 4.7501415  4.7501415  4.7501415
- 4.74584571 4.73873987 4.73163403 4.72736208 4.72736222 4.72736235
- 4.71828053 4.69954323 4.68080594 4.67175484 4.67175603 4.67175721]</t>
+          <t>[3.08266639 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639
+ 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639
+ 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639]</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5945,9 +5943,9 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[2.70998501 2.70998501 2.70998501 2.71027165 2.71027165 2.71027165
- 2.70782961 2.70379816 2.69976671 2.69733834 2.69733842 2.6973385
- 2.69218787 2.68155743 2.67092701 2.66579406 2.66579473 2.66579541]</t>
+          <t>[1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275]</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5970,9 +5968,9 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[2.70998501 2.70998501 2.70998501 2.71027165 2.71027165 2.71027165
- 2.70782961 2.70379816 2.69976671 2.69733834 2.69733842 2.6973385
- 2.69218787 2.68155743 2.67092701 2.66579406 2.66579473 2.66579541]</t>
+          <t>[1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275]</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5995,9 +5993,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[70.16058217 70.16058217 70.16058217 70.16778394 70.16778394 70.16778394
- 69.99975672 69.68583041 69.37284413 69.20643168 69.20643759 69.20644349
- 68.79994024 67.98361213 67.17376731 66.7757137  66.77576459 66.77581548]</t>
+          <t>[54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6020,9 +6018,9 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[70.16058217 70.16058217 70.16058217 70.16778394 70.16778394 70.16778394
- 69.99975672 69.68583041 69.37284413 69.20643168 69.20643759 69.20644349
- 68.79994024 67.98361213 67.17376731 66.7757137  66.77576459 66.77581548]</t>
+          <t>[54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214]</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -6045,10 +6043,10 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[140.32116434 140.32116434 140.32116434 140.33556788 140.33556788
- 140.33556788 139.99951344 139.37166083 138.74568827 138.41286337
- 138.41287518 138.41288699 137.59988047 135.96722427 134.34753462
- 133.55142741 133.55152919 133.55163096]</t>
+          <t>[109.31732429 109.31732429 109.31732429 109.31732429 109.31732429
+ 109.31732429 109.31732429 109.31732429 109.31732429 109.31732429
+ 109.31732429 109.31732429 109.31732429 109.31732429 109.31732429
+ 109.31732429 109.31732429 109.31732429]</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -6243,8 +6241,8 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[1.33922325 1.33922325 1.33922325 1.33916208 1.33903973 1.33891739
- 0.868909   0.76348868 0.65806835 0.33082581 0.33082612 0.33082643]</t>
+          <t>[1.17673031 1.17673031 1.17673031 0.72766102 0.72766102 0.72766102
+ 0.56761293 0.49554754 0.42348214 0.37316264 0.34458903 0.31601542]</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -6267,8 +6265,8 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
- 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
+          <t>[0.66848041 0.66848041 0.66848041 0.41320022 0.41320022 0.41320022
+ 0.32229196 0.28139712 0.24050234 0.21194768 0.19573312 0.17951858]</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -6291,8 +6289,8 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
- 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
+          <t>[0.66848041 0.66848041 0.66848041 0.41320022 0.41320022 0.41320022
+ 0.32229196 0.28139712 0.24050234 0.21194768 0.19573312 0.17951858]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6315,8 +6313,8 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
-  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
+          <t>[21.03136692 21.03136692 21.03136692 13.02958138 13.02958138 13.02958138
+  8.99120301  5.98297477  3.73393617  2.55479734  2.01171581  1.5516276 ]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -6339,8 +6337,8 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
-  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
+          <t>[21.03136692 21.03136692 21.03136692 13.02958138 13.02958138 13.02958138
+  8.99120301  5.98297477  3.73393617  2.55479734  2.01171581  1.5516276 ]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6363,8 +6361,8 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[33.21380796 33.21380796 33.21380796 33.20925684 33.20015585 33.19105652
- 19.19260506 13.02026832  8.33732654  3.56033296  3.5603429   3.56035284]</t>
+          <t>[42.06273384 42.06273384 42.06273384 26.05916277 26.05916277 26.05916277
+ 17.98240602 11.96594953  7.46787235  5.10959469  4.02343161  3.1032552 ]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -6458,9 +6456,9 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>[10.         10.         10.         10.          9.9990901   9.99818021
-  9.99727031  8.8568682   7.7164661   6.57606399  6.5760701   6.5760762
-  6.57608231]</t>
+          <t>[11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 10.55750738  9.12827829  7.69904921  7.13236614  6.56568307
+  5.999     ]</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -6483,8 +6481,8 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[0.04   0.04   0.04   0.04   0.04   0.04   0.0275 0.0275 0.0275 0.015
- 0.015  0.015 ]</t>
+          <t>[0.0292755  0.0292755  0.0292755  0.01808632 0.01808632 0.01808632
+ 0.015      0.015      0.015      0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6589,9 +6587,9 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[[  2427925.55809654]
- [    29094.73368412]
- [-18693228.13433488]]</t>
+          <t>[[  2427925.5580971 ]
+ [    29094.73368413]
+ [-15228847.72391246]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6614,8 +6612,8 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[-4.71225004e+06]
- [ 3.55640347e+08]
+          <t>[[-4.69725126e+06]
+ [ 3.54528418e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -6639,7 +6637,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>[1464096.06274318 1464096.06274318 2928192.12548636       0.
+          <t>[1796023.14059664 1796023.14059664 3592046.28119328       0.
        0.               0.        ]</t>
         </is>
       </c>
@@ -6732,7 +6730,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[2145314.73898238]</t>
+          <t>[1790944.66702917]</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6755,7 +6753,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[-2.98183994e+00 -4.40501006e-02  1.07808252e+02]</t>
+          <t>[-3.57184970e+00 -5.27661920e-02  1.16617214e+02]</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -6778,7 +6776,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[3.17668343e+10 3.16293473e+10 2.84222173e+08 7.86163621e+02
+          <t>[3.00971245e+10 2.99596375e+10 2.83706211e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -6887,16 +6885,16 @@
           <t>[[      0.        ]
  [      0.        ]
  [      0.        ]
- [ -47941.642397  ]
- [ -48633.63313747]
- [ -50732.65247576]
- [ -54309.05199929]
- [ -59313.30112057]
- [ -66058.52896089]
- [ -74781.18167334]
- [ -86056.14118855]
- [-100172.95742156]
- [-117808.55339718]
+ [ -56732.77954637]
+ [ -57548.11703331]
+ [ -60021.04768235]
+ [ -64233.81990068]
+ [ -70328.8933642 ]
+ [ -78518.50286864]
+ [ -89101.41668437]
+ [-102491.24856306]
+ [-119263.6287789 ]
+ [-140234.30072598]
  [      0.        ]
  [      0.        ]
  [      0.        ]
@@ -6995,19 +6993,19 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[[-336.9560439 ]
- [-388.43785582]
- [-424.16473764]
- [-452.12457083]
- [-484.23177151]
- [-510.56968119]
- [-533.07977868]
- [-484.77613683]
- [-431.3139066 ]
- [-371.41485665]
- [-377.98294805]
- [-384.21329897]
- [-390.14302107]]</t>
+          <t>[[-403.24058278]
+ [-463.49849005]
+ [-505.53878472]
+ [-538.57448711]
+ [-576.71189198]
+ [-608.13340356]
+ [-635.08915713]
+ [-574.61915732]
+ [-509.74231062]
+ [-438.78906081]
+ [-412.37524165]
+ [-383.55035019]
+ [-352.18249915]]</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -7030,24 +7028,24 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[[-45679159.64797284]
- [-42046188.37178015]
- [-38175905.98363774]
- [-36805438.92815914]
- [-35430366.70985661]
- [-34045930.04559491]
- [-32648430.60714221]
- [-31233356.27759575]
- [-29794571.67384157]
- [-28323880.20744623]
- [-26811292.3025943 ]
- [-25246312.90240559]
- [-23848934.48159451]
- [-22650717.56678559]
- [-21457277.79018086]
- [-20861711.80554731]
- [-20266145.69322705]
- [-19670579.38937784]]</t>
+          <t>[[-34487089.35615265]
+ [-32129177.10083135]
+ [-29490437.58914344]
+ [-28515903.35767256]
+ [-27535943.48799849]
+ [-26544952.2083278 ]
+ [-25536952.97382469]
+ [-24505384.03106831]
+ [-23442840.43797834]
+ [-22340741.8079598 ]
+ [-21188875.51772328]
+ [-19974733.20104225]
+ [-18957375.86276843]
+ [-18171405.11099429]
+ [-17385434.35922042]
+ [-16992448.98333348]
+ [-16599463.60744643]
+ [-16206478.23155973]]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7070,24 +7068,24 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[ -5170171.61667736]
- [-10201189.58746336]
- [ -8271105.79490609]
- [  2428262.21986983]
- [  2428334.4054398 ]
- [  2428407.31406319]
- [  2428481.34010618]
- [  2428557.44095096]
- [  2428637.11119452]
- [  2428722.1147329 ]
- [  2428814.49606357]
- [  2428915.64217862]
- [  2428920.47634721]
- [  2428793.06194539]
- [  2428841.731838  ]
- [  2428402.04150196]
- [  2428414.74028648]
- [  2428427.28653411]]</t>
+          <t>[[-3834695.50411106]
+ [-8947737.48246193]
+ [-8718909.53337147]
+ [ 2428202.70026369]
+ [ 2428269.05102612]
+ [ 2428337.11575266]
+ [ 2428408.1155831 ]
+ [ 2428483.42979106]
+ [ 2428564.68052683]
+ [ 2428653.84695831]
+ [ 2428753.43280145]
+ [ 2428866.72732307]
+ [ 2428841.95062541]
+ [ 2428626.01439335]
+ [ 2428668.3356563 ]
+ [ 2428312.50917787]
+ [ 2428322.72043825]
+ [ 2428332.80868796]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7110,24 +7108,24 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[ -67201.37761762]
- [-132920.24359543]
- [-108862.22353195]
- [  29099.09323218]
- [  29100.0329401 ]
- [  29100.98335858]
- [  29101.94967236]
- [  29102.94441344]
- [  29103.98713832]
- [  29105.10096007]
- [  29106.31271119]
- [  29107.64073994]
- [  29107.71445399]
- [  29106.06156553]
- [  29106.7073665 ]
- [  29100.96501744]
- [  29101.13392277]
- [  29101.3009978 ]]</t>
+          <t>[[ -49838.36615904]
+ [-116546.28531862]
+ [-114538.05293677]
+ [  29098.32145868]
+ [  29099.18511081]
+ [  29100.07222534]
+ [  29100.9987537 ]
+ [  29101.98275145]
+ [  29103.04549084]
+ [  29104.2129617 ]
+ [  29105.51807556]
+ [  29107.00410013]
+ [  29106.69106462]
+ [  29103.88117316]
+ [  29104.44214013]
+ [  29099.79457635]
+ [  29099.93038971]
+ [  29100.06472701]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7150,24 +7148,24 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[ -916281.80474398]
- [-3140431.52593904]
- [-5200238.64655151]
- [-5675765.98273834]
- [-5577838.26966975]
- [-5479789.38318111]
- [-5381634.24886006]
- [-5283387.45683596]
- [-5185063.5814827 ]
- [-5086677.61492459]
- [-4988245.26641873]
- [-4889782.98416667]
- [-4791307.64423736]
- [-4692822.04350183]
- [-4594324.57735257]
- [-4545084.83769162]
- [-4495846.31482789]
- [-4446610.17535903]]</t>
+          <t>[[ -658752.93154314]
+ [-2646388.82687277]
+ [-4921604.62479299]
+ [-5663535.18794852]
+ [-5565689.71386317]
+ [-5467718.1031974 ]
+ [-5369634.54970183]
+ [-5271453.41824133]
+ [-5173189.39611147]
+ [-5074857.66867262]
+ [-4976474.13106203]
+ [-4878055.65324121]
+ [-4779620.38702138]
+ [-4681166.97737494]
+ [-4582688.1518071 ]
+ [-4533450.49114011]
+ [-4484210.26016195]
+ [-4434968.43711518]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7190,24 +7188,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[7.07863281e+07]
- [2.42157799e+08]
- [3.99909785e+08]
- [4.35964789e+08]
- [4.27798775e+08]
- [4.19623483e+08]
- [4.11440076e+08]
- [4.03249689e+08]
- [3.95053453e+08]
- [3.86852530e+08]
- [3.78648134e+08]
- [3.70441533e+08]
- [3.62234024e+08]
- [3.54025825e+08]
- [3.45816817e+08]
- [3.41713039e+08]
- [3.37609378e+08]
- [3.33505926e+08]]</t>
+          <t>[[5.08746309e+07]
+ [2.04029610e+08]
+ [3.78480903e+08]
+ [4.35058352e+08]
+ [4.26898672e+08]
+ [4.18729330e+08]
+ [4.10551433e+08]
+ [4.02366100e+08]
+ [3.94174470e+08]
+ [3.85977720e+08]
+ [3.77777079e+08]
+ [3.69573847e+08]
+ [3.61369420e+08]
+ [3.53163698e+08]
+ [3.44956127e+08]
+ [3.40852512e+08]
+ [3.36748726e+08]
+ [3.32644844e+08]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7230,24 +7228,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[ 250279.35745713]
- [ 528498.37433239]
- [ 865719.98261656]
- [1299592.78326119]
- [1299588.05459612]
- [1299583.31007597]
- [1299578.63961138]
- [1299573.98249186]
- [1299569.25053078]
- [1299564.36016284]
- [1299559.26145684]
- [1299554.01754261]
- [1299548.76051029]
- [1299544.23703964]
- [1299540.37468969]
- [1299536.34173302]
- [1299534.2524729 ]
- [1299532.16321261]]</t>
+          <t>[[ 214207.13619544]
+ [ 468135.93930733]
+ [ 808877.1898626 ]
+ [1299617.85617384]
+ [1299612.6745761 ]
+ [1299607.46417191]
+ [1299602.19515668]
+ [1299596.83575545]
+ [1299591.3510829 ]
+ [1299585.70177192]
+ [1299579.84220739]
+ [1299573.71809796]
+ [1299567.26294903]
+ [1299561.85408296]
+ [1299557.67543402]
+ [1299553.49681195]
+ [1299551.40751099]
+ [1299549.31821677]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7299,12 +7297,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         11.
- 11.         10.98373676 10.96747352 10.95121027 10.95121058 10.95121089
- 10.9512112  10.9083229  10.86543461 10.82254631 10.82254903 10.82255174
- 10.         10.         10.         10.          9.9990901   9.99818021
-  9.99727031  8.8568682   7.7164661   6.57606399  6.5760701   6.5760762
-  6.57608231]</t>
+          <t>[11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 10.55750738  9.12827829  7.69904921  7.13236614  6.56568307
+  5.999     ]</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -7327,11 +7325,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>[0.12998616 0.12998616 0.12998616 0.13       0.13       0.13
- 0.12997942 0.12997942 0.12997942 0.12995941 0.12995941 0.12995941
- 0.12996739 0.12996739 0.12996739 0.12997632 0.12997632 0.12997632
- 0.04       0.04       0.04       0.04       0.04       0.04
- 0.0275     0.0275     0.0275     0.015      0.015      0.015     ]</t>
+          <t>[0.077      0.077      0.077      0.077      0.077      0.077
+ 0.077      0.077      0.077      0.077      0.077      0.077
+ 0.077      0.077      0.077      0.077      0.077      0.077
+ 0.0292755  0.0292755  0.0292755  0.01808632 0.01808632 0.01808632
+ 0.015      0.015      0.015      0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -7479,11 +7477,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>[4.74964202 4.74964202 4.74964202 4.7501415  4.7501415  4.7501415
- 4.74584571 4.73873987 4.73163403 4.72736208 4.72736222 4.72736235
- 4.71828053 4.69954323 4.68080594 4.67175484 4.67175603 4.67175721
- 1.33922325 1.33922325 1.33922325 1.33916208 1.33903973 1.33891739
- 0.868909   0.76348868 0.65806835 0.33082581 0.33082612 0.33082643]</t>
+          <t>[3.08266639 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639
+ 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639
+ 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639
+ 1.17673031 1.17673031 1.17673031 0.72766102 0.72766102 0.72766102
+ 0.56761293 0.49554754 0.42348214 0.37316264 0.34458903 0.31601542]</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -7506,11 +7504,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>[2.70998501 2.70998501 2.70998501 2.71027165 2.71027165 2.71027165
- 2.70782961 2.70379816 2.69976671 2.69733834 2.69733842 2.6973385
- 2.69218787 2.68155743 2.67092701 2.66579406 2.66579473 2.66579541
- 0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
- 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
+          <t>[1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 0.66848041 0.66848041 0.66848041 0.41320022 0.41320022 0.41320022
+ 0.32229196 0.28139712 0.24050234 0.21194768 0.19573312 0.17951858]</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -7533,11 +7531,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[2.70998501 2.70998501 2.70998501 2.71027165 2.71027165 2.71027165
- 2.70782961 2.70379816 2.69976671 2.69733834 2.69733842 2.6973385
- 2.69218787 2.68155743 2.67092701 2.66579406 2.66579473 2.66579541
- 0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
- 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
+          <t>[1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 0.66848041 0.66848041 0.66848041 0.41320022 0.41320022 0.41320022
+ 0.32229196 0.28139712 0.24050234 0.21194768 0.19573312 0.17951858]</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -7560,11 +7558,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[70.16058217 70.16058217 70.16058217 70.16778394 70.16778394 70.16778394
- 69.99975672 69.68583041 69.37284413 69.20643168 69.20643759 69.20644349
- 68.79994024 67.98361213 67.17376731 66.7757137  66.77576459 66.77581548
- 16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
-  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
+          <t>[54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 21.03136692 21.03136692 21.03136692 13.02958138 13.02958138 13.02958138
+  8.99120301  5.98297477  3.73393617  2.55479734  2.01171581  1.5516276 ]</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -7587,11 +7585,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[70.16058217 70.16058217 70.16058217 70.16778394 70.16778394 70.16778394
- 69.99975672 69.68583041 69.37284413 69.20643168 69.20643759 69.20644349
- 68.79994024 67.98361213 67.17376731 66.7757137  66.77576459 66.77581548
- 16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
-  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
+          <t>[54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 21.03136692 21.03136692 21.03136692 13.02958138 13.02958138 13.02958138
+  8.99120301  5.98297477  3.73393617  2.55479734  2.01171581  1.5516276 ]</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -7614,12 +7612,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>[140.32116434 140.32116434 140.32116434 140.33556788 140.33556788
- 140.33556788 139.99951344 139.37166083 138.74568827 138.41286337
- 138.41287518 138.41288699 137.59988047 135.96722427 134.34753462
- 133.55142741 133.55152919 133.55163096  33.21380796  33.21380796
-  33.21380796  33.20925684  33.20015585  33.19105652  19.19260506
-  13.02026832   8.33732654   3.56033296   3.5603429    3.56035284]</t>
+          <t>[109.31732429 109.31732429 109.31732429 109.31732429 109.31732429
+ 109.31732429 109.31732429 109.31732429 109.31732429 109.31732429
+ 109.31732429 109.31732429 109.31732429 109.31732429 109.31732429
+ 109.31732429 109.31732429 109.31732429  42.06273384  42.06273384
+  42.06273384  26.05916277  26.05916277  26.05916277  17.98240602
+  11.96594953   7.46787235   5.10959469   4.02343161   3.1032552 ]</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -7642,36 +7640,36 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>[[-4.56791596e+07]
- [-4.20461884e+07]
- [-3.81759060e+07]
- [-3.68054389e+07]
- [-3.54303667e+07]
- [-3.40459300e+07]
- [-3.26484306e+07]
- [-3.12333563e+07]
- [-2.97945717e+07]
- [-2.83238802e+07]
- [-2.68112923e+07]
- [-2.52463129e+07]
- [-2.38489345e+07]
- [-2.26507176e+07]
- [-2.14572778e+07]
- [-2.08617118e+07]
- [-2.02661457e+07]
- [-1.96705794e+07]
- [-1.74513902e+07]
- [-1.62105129e+07]
- [-1.49691146e+07]
- [-1.31952253e+07]
- [-1.14209848e+07]
- [-9.64640679e+06]
- [-8.95338584e+06]
- [-8.34392923e+06]
- [-7.81842602e+06]
- [-7.57022009e+06]
- [-7.32226889e+06]
- [ 2.98314262e-09]]</t>
+          <t>[[-3.44870894e+07]
+ [-3.21291771e+07]
+ [-2.94904376e+07]
+ [-2.85159034e+07]
+ [-2.75359435e+07]
+ [-2.65449522e+07]
+ [-2.55369530e+07]
+ [-2.45053840e+07]
+ [-2.34428404e+07]
+ [-2.23407418e+07]
+ [-2.11888755e+07]
+ [-1.99747332e+07]
+ [-1.89573759e+07]
+ [-1.81714051e+07]
+ [-1.73854344e+07]
+ [-1.69924490e+07]
+ [-1.65994636e+07]
+ [-1.62064782e+07]
+ [-1.41369273e+07]
+ [-1.30452399e+07]
+ [-1.19529412e+07]
+ [-1.09842141e+07]
+ [-1.00148795e+07]
+ [-9.04495117e+06]
+ [-8.58936110e+06]
+ [-8.19097699e+06]
+ [-7.85026915e+06]
+ [-7.57009364e+06]
+ [-7.31148981e+06]
+ [-9.60426405e-10]]</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -7694,36 +7692,36 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>[[-5.17017162e+06]
- [-1.02011896e+07]
- [-8.27110579e+06]
- [ 2.42826222e+06]
- [ 2.42833441e+06]
- [ 2.42840731e+06]
- [ 2.42848134e+06]
- [ 2.42855744e+06]
- [ 2.42863711e+06]
- [ 2.42872211e+06]
- [ 2.42881450e+06]
- [ 2.42891564e+06]
- [ 2.42892048e+06]
- [ 2.42879306e+06]
- [ 2.42884173e+06]
- [ 2.42840204e+06]
- [ 2.42841474e+06]
- [ 2.42842729e+06]
- [ 2.42936365e+06]
- [ 2.43005190e+06]
- [ 2.43067026e+06]
- [ 2.43278469e+06]
- [ 2.43370804e+06]
- [ 2.43443218e+06]
- [ 2.43068725e+06]
- [ 2.43053222e+06]
- [ 2.43033644e+06]
- [ 2.42915605e+06]
- [ 2.42919322e+06]
- [ 1.23919658e+03]]</t>
+          <t>[[-3.83469550e+06]
+ [-8.94773748e+06]
+ [-8.71890953e+06]
+ [ 2.42820270e+06]
+ [ 2.42826905e+06]
+ [ 2.42833712e+06]
+ [ 2.42840812e+06]
+ [ 2.42848343e+06]
+ [ 2.42856468e+06]
+ [ 2.42865385e+06]
+ [ 2.42875343e+06]
+ [ 2.42886673e+06]
+ [ 2.42884195e+06]
+ [ 2.42862601e+06]
+ [ 2.42866834e+06]
+ [ 2.42831251e+06]
+ [ 2.42832272e+06]
+ [ 2.42833281e+06]
+ [ 2.42933481e+06]
+ [ 2.42981379e+06]
+ [ 2.43024281e+06]
+ [ 2.43053763e+06]
+ [ 2.43118084e+06]
+ [ 2.43168642e+06]
+ [ 2.42986221e+06]
+ [ 2.42974598e+06]
+ [ 2.42960059e+06]
+ [ 2.42938566e+06]
+ [ 2.42930417e+06]
+ [ 1.23887735e+03]]</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -7746,36 +7744,36 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[[-6.72013776e+04]
- [-1.32920244e+05]
- [-1.08862224e+05]
- [ 2.90990932e+04]
- [ 2.91000329e+04]
- [ 2.91009834e+04]
- [ 2.91019497e+04]
- [ 2.91029444e+04]
- [ 2.91039871e+04]
- [ 2.91051010e+04]
- [ 2.91063127e+04]
- [ 2.91076407e+04]
- [ 2.91077145e+04]
- [ 2.91060616e+04]
- [ 2.91067074e+04]
- [ 2.91009650e+04]
- [ 2.91011339e+04]
- [ 2.91013010e+04]
- [ 2.91136441e+04]
- [ 2.91229093e+04]
- [ 2.91313326e+04]
- [ 2.91600123e+04]
- [ 2.91731304e+04]
- [ 2.91838521e+04]
- [ 2.91329902e+04]
- [ 2.91314033e+04]
- [ 2.91294792e+04]
- [ 2.91133147e+04]
- [ 2.91152117e+04]
- [ 2.08609162e+01]]</t>
+          <t>[[-4.98383662e+04]
+ [-1.16546285e+05]
+ [-1.14538053e+05]
+ [ 2.90983215e+04]
+ [ 2.90991851e+04]
+ [ 2.91000722e+04]
+ [ 2.91009988e+04]
+ [ 2.91019828e+04]
+ [ 2.91030455e+04]
+ [ 2.91042130e+04]
+ [ 2.91055181e+04]
+ [ 2.91070041e+04]
+ [ 2.91066911e+04]
+ [ 2.91038812e+04]
+ [ 2.91044421e+04]
+ [ 2.90997946e+04]
+ [ 2.90999304e+04]
+ [ 2.91000647e+04]
+ [ 2.91132387e+04]
+ [ 2.91196859e+04]
+ [ 2.91255298e+04]
+ [ 2.91297467e+04]
+ [ 2.91388844e+04]
+ [ 2.91463683e+04]
+ [ 2.91216476e+04]
+ [ 2.91204208e+04]
+ [ 2.91189573e+04]
+ [ 2.91166442e+04]
+ [ 2.91165285e+04]
+ [ 2.02962791e+01]]</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -7798,36 +7796,36 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>[[-9.16281805e+05]
- [-3.14043153e+06]
- [-5.20023865e+06]
- [-5.67576598e+06]
- [-5.57783827e+06]
- [-5.47978938e+06]
- [-5.38163425e+06]
- [-5.28338746e+06]
- [-5.18506358e+06]
- [-5.08667761e+06]
- [-4.98824527e+06]
- [-4.88978298e+06]
- [-4.79130764e+06]
- [-4.69282204e+06]
- [-4.59432458e+06]
- [-4.54508484e+06]
- [-4.49584631e+06]
- [-4.44661018e+06]
- [-4.08851565e+06]
- [-3.72773650e+06]
- [-3.36498593e+06]
- [-2.84427150e+06]
- [-2.32243062e+06]
- [-1.80091682e+06]
- [-1.48884812e+06]
- [-1.17666468e+06]
- [-8.64213656e+05]
- [-5.71947032e+05]
- [-2.78904686e+05]
- [-5.18547805e-04]]</t>
+          <t>[[-6.58752932e+05]
+ [-2.64638883e+06]
+ [-4.92160462e+06]
+ [-5.66353519e+06]
+ [-5.56568971e+06]
+ [-5.46771810e+06]
+ [-5.36963455e+06]
+ [-5.27145342e+06]
+ [-5.17318940e+06]
+ [-5.07485767e+06]
+ [-4.97647413e+06]
+ [-4.87805565e+06]
+ [-4.77962039e+06]
+ [-4.68116698e+06]
+ [-4.58268815e+06]
+ [-4.53345049e+06]
+ [-4.48421026e+06]
+ [-4.43496844e+06]
+ [-4.07751215e+06]
+ [-3.71849841e+06]
+ [-3.35840635e+06]
+ [-2.84178606e+06]
+ [-2.32279927e+06]
+ [-1.80267995e+06]
+ [-1.49057691e+06]
+ [-1.17808264e+06]
+ [-8.64999569e+05]
+ [-5.72180199e+05]
+ [-2.78893600e+05]
+ [-5.51641205e-04]]</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -7850,36 +7848,36 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>[[ 7.07863281e+07]
- [ 2.42157799e+08]
- [ 3.99909785e+08]
- [ 4.35964789e+08]
- [ 4.27798775e+08]
- [ 4.19623483e+08]
- [ 4.11440076e+08]
- [ 4.03249689e+08]
- [ 3.95053453e+08]
- [ 3.86852530e+08]
- [ 3.78648134e+08]
- [ 3.70441533e+08]
- [ 3.62234024e+08]
- [ 3.54025825e+08]
- [ 3.45816817e+08]
- [ 3.41713039e+08]
- [ 3.37609378e+08]
- [ 3.33505926e+08]
- [ 3.03674240e+08]
- [ 2.73643952e+08]
- [ 2.43470348e+08]
- [ 2.00188322e+08]
- [ 1.56836091e+08]
- [ 1.13522783e+08]
- [ 8.76052354e+07]
- [ 6.16916334e+07]
- [ 3.57783882e+07]
- [ 1.15836713e+07]
- [-1.26102650e+07]
- [ 3.08025736e-02]]</t>
+          <t>[[ 5.08746309e+07]
+ [ 2.04029610e+08]
+ [ 3.78480903e+08]
+ [ 4.35058352e+08]
+ [ 4.26898672e+08]
+ [ 4.18729330e+08]
+ [ 4.10551433e+08]
+ [ 4.02366100e+08]
+ [ 3.94174470e+08]
+ [ 3.85977720e+08]
+ [ 3.77777079e+08]
+ [ 3.69573847e+08]
+ [ 3.61369420e+08]
+ [ 3.53163698e+08]
+ [ 3.44956127e+08]
+ [ 3.40852512e+08]
+ [ 3.36748726e+08]
+ [ 3.32644844e+08]
+ [ 3.02861021e+08]
+ [ 2.72962350e+08]
+ [ 2.42985889e+08]
+ [ 2.00006151e+08]
+ [ 1.56864923e+08]
+ [ 1.13656648e+08]
+ [ 8.77391598e+07]
+ [ 6.18059397e+07]
+ [ 3.58517097e+07]
+ [ 1.16154340e+07]
+ [-1.26102767e+07]
+ [ 3.36723323e-02]]</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -7902,36 +7900,36 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>[[ 250279.35745713]
- [ 528498.37433239]
- [ 865719.98261656]
- [1299592.78326119]
- [1299588.05459612]
- [1299583.31007597]
- [1299578.63961138]
- [1299573.98249186]
- [1299569.25053078]
- [1299564.36016284]
- [1299559.26145684]
- [1299554.01754261]
- [1299548.76051029]
- [1299544.23703964]
- [1299540.37468969]
- [1299536.34173302]
- [1299534.2524729 ]
- [1299532.16321261]
- [1299689.80301832]
- [1299674.64296865]
- [1299659.45486393]
- [1299644.26910866]
- [1299622.57193141]
- [1299600.86719768]
- [1299643.01967844]
- [1299653.26747841]
- [1299668.88033212]
- [1299848.45584724]
- [1299836.15405083]
- [      0.        ]]</t>
+          <t>[[2.14207136e+05]
+ [4.68135939e+05]
+ [8.08877190e+05]
+ [1.29961786e+06]
+ [1.29961267e+06]
+ [1.29960746e+06]
+ [1.29960220e+06]
+ [1.29959684e+06]
+ [1.29959135e+06]
+ [1.29958570e+06]
+ [1.29957984e+06]
+ [1.29957372e+06]
+ [1.29956726e+06]
+ [1.29956185e+06]
+ [1.29955768e+06]
+ [1.29955350e+06]
+ [1.29955141e+06]
+ [1.29954932e+06]
+ [1.29967314e+06]
+ [1.29965797e+06]
+ [1.29964276e+06]
+ [1.29973031e+06]
+ [1.29970848e+06]
+ [1.29968664e+06]
+ [1.29972225e+06]
+ [1.29974517e+06]
+ [1.29977810e+06]
+ [1.29980589e+06]
+ [1.29982116e+06]
+ [6.90710297e-10]]</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -8076,7 +8074,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[11.98673647]</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -8628,7 +8626,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>[3177543.13779193]</t>
+          <t>[2497981.38467728]</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -8651,7 +8649,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>[1178239.84885882]</t>
+          <t>[823869.77690561]</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -8674,7 +8672,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>[4122543.13779193]</t>
+          <t>[3442981.38467728]</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -8697,7 +8695,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>[274.83620919]</t>
+          <t>[229.53209231]</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -8720,7 +8718,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>[1178239.84885882]</t>
+          <t>[823869.77690561]</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -8789,7 +8787,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[3177543.13779193]</t>
+          <t>[2497981.38467728]</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
@@ -8812,7 +8810,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[3177543.13779193]</t>
+          <t>[2497981.38467728]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8835,9 +8833,9 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.23177151
- 510.56968119 533.07977868 484.77613683 431.3139066  371.41485665
- 377.98294805 384.21329897 390.14302107]</t>
+          <t>[403.24058278 463.49849005 505.53878472 538.57448711 576.71189198
+ 608.13340356 635.08915713 574.61915732 509.74231062 438.78906081
+ 412.37524165 383.55035019 352.18249915]</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -9052,9 +9050,9 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[10.         10.         10.         10.          9.9990901   9.99818021
-  9.99727031  8.8568682   7.7164661   6.57606399  6.5760701   6.5760762
-  6.57608231]</t>
+          <t>[11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 10.55750738  9.12827829  7.69904921  7.13236614  6.56568307
+  5.999     ]</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -9148,9 +9146,9 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.23177151
- 510.56968119 533.07977868 484.77613683 431.3139066  371.41485665
- 377.98294805 384.21329897 390.14302107]</t>
+          <t>[403.24058278 463.49849005 505.53878472 538.57448711 576.71189198
+ 608.13340356 635.08915713 574.61915732 509.74231062 438.78906081
+ 412.37524165 383.55035019 352.18249915]</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -9290,9 +9288,9 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[-336.9560439  -388.43785582 -424.16473764 -452.12457083 -484.23177151
- -510.56968119 -533.07977868 -484.77613683 -431.3139066  -371.41485665
- -377.98294805 -384.21329897 -390.14302107]</t>
+          <t>[-403.24058278 -463.49849005 -505.53878472 -538.57448711 -576.71189198
+ -608.13340356 -635.08915713 -574.61915732 -509.74231062 -438.78906081
+ -412.37524165 -383.55035019 -352.18249915]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9340,7 +9338,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>[10.         10.          9.99727031  6.57606399  6.57608231]</t>
+          <t>[11.98673647 11.98673647 11.98673647  7.69904921  5.999     ]</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -9363,7 +9361,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[0.04   0.04   0.0275 0.015 ]</t>
+          <t>[0.0292755  0.01808632 0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -9428,7 +9426,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[10.         10.          9.99727031  6.57606399  6.57608231]</t>
+          <t>[11.98673647 11.98673647 11.98673647  7.69904921  5.999     ]</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -9451,7 +9449,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[0.04   0.04   0.0275 0.015 ]</t>
+          <t>[0.0292755  0.01808632 0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9687,8 +9685,8 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[0.04   0.04   0.04   0.04   0.04   0.04   0.0275 0.0275 0.0275 0.015
- 0.015  0.015 ]</t>
+          <t>[0.0292755  0.0292755  0.0292755  0.01808632 0.01808632 0.01808632
+ 0.015      0.015      0.015      0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -9871,8 +9869,8 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>[1.33922325 1.33922325 1.33922325 1.33916208 1.33903973 1.33891739
- 0.868909   0.76348868 0.65806835 0.33082581 0.33082612 0.33082643]</t>
+          <t>[1.17673031 1.17673031 1.17673031 0.72766102 0.72766102 0.72766102
+ 0.56761293 0.49554754 0.42348214 0.37316264 0.34458903 0.31601542]</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -9895,8 +9893,8 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
- 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
+          <t>[0.66848041 0.66848041 0.66848041 0.41320022 0.41320022 0.41320022
+ 0.32229196 0.28139712 0.24050234 0.21194768 0.19573312 0.17951858]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -9919,8 +9917,8 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
- 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
+          <t>[0.66848041 0.66848041 0.66848041 0.41320022 0.41320022 0.41320022
+ 0.32229196 0.28139712 0.24050234 0.21194768 0.19573312 0.17951858]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -9943,8 +9941,8 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
-  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
+          <t>[21.03136692 21.03136692 21.03136692 13.02958138 13.02958138 13.02958138
+  8.99120301  5.98297477  3.73393617  2.55479734  2.01171581  1.5516276 ]</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -9967,8 +9965,8 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
-  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
+          <t>[21.03136692 21.03136692 21.03136692 13.02958138 13.02958138 13.02958138
+  8.99120301  5.98297477  3.73393617  2.55479734  2.01171581  1.5516276 ]</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -9991,8 +9989,8 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[33.21380796 33.21380796 33.21380796 33.20925684 33.20015585 33.19105652
- 19.19260506 13.02026832  8.33732654  3.56033296  3.5603429   3.56035284]</t>
+          <t>[42.06273384 42.06273384 42.06273384 26.05916277 26.05916277 26.05916277
+ 17.98240602 11.96594953  7.46787235  5.10959469  4.02343161  3.1032552 ]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10086,17 +10084,17 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>[[-17452350.88530215]
- [-16210952.53759762]
- [-14969173.64224009]
- [-13194771.64061391]
- [-11420032.25349326]
- [ -9645037.23863564]
- [ -8952148.39516638]
- [ -8343212.99962719]
- [ -7818290.39053385]
- [ -7570339.39719079]
- [ -7322327.01625802]
+          <t>[[-14137160.2769769 ]
+ [-13044861.56673705]
+ [-11952114.2543811 ]
+ [-10982779.66139249]
+ [-10012851.30242394]
+ [ -9042424.6256795 ]
+ [ -8587006.20714758]
+ [ -8189264.08368282]
+ [ -7849251.9226282 ]
+ [ -7569541.84535765]
+ [ -7311202.06926156]
  [ -7074256.27587359]]</t>
         </is>
       </c>
@@ -10120,18 +10118,18 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[[2428340.74750155]
- [2429076.91360711]
- [2429746.44799186]
- [2431555.51099555]
- [2432587.18214335]
- [2433420.67818559]
- [2430335.63502881]
- [2430269.99481195]
- [2430174.29540535]
- [2429138.32853434]
- [2429259.18994879]
- [2429298.52809833]]</t>
+          <t>[[2428220.74223609]
+ [2428730.60105878]
+ [2429194.47409366]
+ [2429661.12557496]
+ [2430378.96115889]
+ [2430959.80379956]
+ [2429553.62105771]
+ [2429507.97639125]
+ [2429442.32295447]
+ [2429310.84473273]
+ [2429303.35357566]
+ [2429225.59719733]]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10154,18 +10152,18 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[[29100.21705562]
- [29110.0550604 ]
- [29119.09398618]
- [29143.61990486]
- [29158.04605685]
- [29170.08947809]
- [29128.13980439]
- [29127.7029852 ]
- [29127.06123843]
- [29112.88377914]
- [29115.80230547]
- [29117.73444325]]</t>
+          <t>[[29098.622573  ]
+ [29105.43600535]
+ [29111.698381  ]
+ [29118.12162777]
+ [29128.15944276]
+ [29136.55177556]
+ [29117.43056921]
+ [29117.1133627 ]
+ [29116.67389303]
+ [29115.4351758 ]
+ [29116.24178058]
+ [29116.31243066]]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10188,18 +10186,18 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[[-4359054.71294704]
- [-4002642.28320746]
- [-3643752.41815183]
- [-3127814.08022803]
- [-2609847.7224417 ]
- [-2091394.27557316]
- [-1780722.3941837 ]
- [-1469656.64177822]
- [-1157989.38193093]
- [ -865968.83657879]
- [ -572581.17978985]
- [ -278501.81963877]]</t>
+          <t>[[-4344736.89595478]
+ [-3990180.4223171 ]
+ [-3634078.76789704]
+ [-3122413.31748535]
+ [-2607628.20394778]
+ [-2091015.58454959]
+ [-1780646.07590038]
+ [-1469613.63674616]
+ [-1157646.23399928]
+ [ -865460.66158585]
+ [ -572324.72068445]
+ [ -278501.92667911]]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10222,18 +10220,18 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>[[ 3.26181894e+08]
- [ 2.96482817e+08]
- [ 2.66600629e+08]
- [ 2.23676745e+08]
- [ 1.80612409e+08]
- [ 1.37524021e+08]
- [ 1.11707717e+08]
- [ 8.58733186e+07]
- [ 6.00126083e+07]
- [ 3.58275982e+07]
- [ 1.15949475e+07]
- [-1.26341965e+07]]</t>
+          <t>[[ 3.25121280e+08]
+ [ 2.95561422e+08]
+ [ 2.65887406e+08]
+ [ 2.23281252e+08]
+ [ 1.80454160e+08]
+ [ 1.37505434e+08]
+ [ 1.11714789e+08]
+ [ 8.58867781e+07]
+ [ 6.00098843e+07]
+ [ 3.58127284e+07]
+ [ 1.15867517e+07]
+ [-1.26341969e+07]]</t>
         </is>
       </c>
       <c r="E396" t="inlineStr"/>
@@ -10256,18 +10254,18 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>[[1299689.84318767]
- [1299674.65472769]
- [1299659.46024462]
- [1299644.26983159]
- [1299622.56637809]
- [1299600.85553687]
- [1299642.99384307]
- [1299653.24091151]
- [1299668.86249151]
- [1299848.44912528]
- [1299836.15996386]
- [1299823.86796219]]</t>
+          <t>[[1299673.17891415]
+ [1299657.97175298]
+ [1299642.7564331 ]
+ [1299730.28660591]
+ [1299708.4488852 ]
+ [1299686.59852228]
+ [1299722.17566951]
+ [1299745.08893418]
+ [1299778.03476946]
+ [1299805.84856045]
+ [1299821.13687477]
+ [1299840.29912663]]</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -10441,19 +10439,19 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>[[-336.9560439 ]
- [-388.43785582]
- [-424.16473764]
- [-452.12457083]
- [-484.23177151]
- [-510.56968119]
- [-533.07977868]
- [-484.77613683]
- [-431.3139066 ]
- [-371.41485665]
- [-377.98294805]
- [-384.21329897]
- [-390.14302107]]</t>
+          <t>[[-403.24058278]
+ [-463.49849005]
+ [-505.53878472]
+ [-538.57448711]
+ [-576.71189198]
+ [-608.13340356]
+ [-635.08915713]
+ [-574.61915732]
+ [-509.74231062]
+ [-438.78906081]
+ [-412.37524165]
+ [-383.55035019]
+ [-352.18249915]]</t>
         </is>
       </c>
       <c r="E403" t="inlineStr"/>
@@ -10476,7 +10474,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>[1178239.84885882]</t>
+          <t>[823869.77690561]</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
@@ -10499,7 +10497,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>[58.81710158]</t>
+          <t>[56.89369725]</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
@@ -10522,7 +10520,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>[5.67167205e+09 5.67167205e+09 2.68712398e+07 0.00000000e+00
+          <t>[4.00196227e+09 4.00196227e+09 2.63552783e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10577,10 +10575,10 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          47941.642397
-  48633.63313747  50732.65247576  54309.05199929  59313.30112057
-  66058.52896089  74781.18167334  86056.14118855 100172.95742156
- 117808.55339718      0.              0.              0.
+          <t>[     0.              0.              0.          56732.77954637
+  57548.11703331  60021.04768235  64233.81990068  70328.8933642
+  78518.50286864  89101.41668437 102491.24856306 119263.6287789
+ 140234.30072598      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -10831,10 +10829,10 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          47941.642397
-  48633.63313747  50732.65247576  54309.05199929  59313.30112057
-  66058.52896089  74781.18167334  86056.14118855 100172.95742156
- 117808.55339718      0.              0.              0.
+          <t>[     0.              0.              0.          56732.77954637
+  57548.11703331  60021.04768235  64233.81990068  70328.8933642
+  78518.50286864  89101.41668437 102491.24856306 119263.6287789
+ 140234.30072598      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11216,10 +11214,10 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -47941.642397
-  -48633.63313747  -50732.65247576  -54309.05199929  -59313.30112057
-  -66058.52896089  -74781.18167334  -86056.14118855 -100172.95742156
- -117808.55339718       0.               0.               0.
+          <t>[      0.               0.               0.          -56732.77954637
+  -57548.11703331  -60021.04768235  -64233.81990068  -70328.8933642
+  -78518.50286864  -89101.41668437 -102491.24856306 -119263.6287789
+ -140234.30072598       0.               0.               0.
        0.               0.               0.        ]</t>
         </is>
       </c>
@@ -11266,7 +11264,8 @@
       <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
-          <t>[84.62439064 84.61538462 84.44109736 84.26639025 83.76623139 83.26555467]</t>
+          <t>[155.67190223 155.67190223 155.67190223 155.67190223 155.67190223
+ 155.67190223]</t>
         </is>
       </c>
       <c r="E436" t="inlineStr"/>
@@ -11285,7 +11284,7 @@
       <c r="C437" t="inlineStr"/>
       <c r="D437" t="inlineStr">
         <is>
-          <t>[1.         1.         0.99556457 0.99999992 0.98825108 0.99999925]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E437" t="inlineStr"/>
@@ -11304,7 +11303,7 @@
       <c r="C438" t="inlineStr"/>
       <c r="D438" t="inlineStr">
         <is>
-          <t>[1.         1.         0.99556457 1.00000008 0.98825108 1.00000075]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E438" t="inlineStr"/>
@@ -11323,7 +11322,7 @@
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
-          <t>[1.00010643 0.99984172 0.99984606 1.0000614  1.00006868]</t>
+          <t>[1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E439" t="inlineStr"/>
@@ -11367,10 +11366,10 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>[5.5        5.5        5.5        5.5        5.5        5.5
- 5.5        5.49186838 5.48373676 5.47560514 5.47560529 5.47560544
- 5.4756056  5.45416145 5.4327173  5.41127315 5.41127451 5.41127587
- 5.41127723]</t>
+          <t>[5.99336824 5.99336824 5.99336824 5.99336824 5.99336824 5.99336824
+ 5.99336824 5.99336824 5.99336824 5.99336824 5.99336824 5.99336824
+ 5.99336824 5.99336824 5.99336824 5.99336824 5.99336824 5.99336824
+ 5.99336824]</t>
         </is>
       </c>
       <c r="E441" t="inlineStr"/>
@@ -11393,7 +11392,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>[  0.           0.         -30.04929018]</t>
+          <t>[  0.   0. -30.]</t>
         </is>
       </c>
       <c r="E442" t="inlineStr"/>
@@ -11416,7 +11415,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[5689.37028436]</t>
+          <t>[6770.84772501]</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -11439,7 +11438,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[57186638.56317871]</t>
+          <t>[68057096.35047564]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11481,7 +11480,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>[94.1920373]</t>
+          <t>[112.84746208]</t>
         </is>
       </c>
       <c r="E446" t="inlineStr"/>
@@ -11504,7 +11503,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>[706.02245973]</t>
+          <t>[1013.3832663]</t>
         </is>
       </c>
       <c r="E447" t="inlineStr"/>
@@ -11527,7 +11526,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>[706.02245973]</t>
+          <t>[1013.3832663]</t>
         </is>
       </c>
       <c r="E448" t="inlineStr"/>
@@ -11550,8 +11549,8 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>[5.83160454e+06 5.83160454e+06 2.27379167e+05 1.74675344e+09
- 1.74675344e+09 0.00000000e+00]</t>
+          <t>[6.94011892e+06 6.94011892e+06 2.94222233e+05 2.08214083e+09
+ 2.08214083e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E449" t="inlineStr"/>
@@ -11623,10 +11622,10 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         11.
- 11.         10.98373676 10.96747352 10.95121027 10.95121058 10.95121089
- 10.9512112  10.9083229  10.86543461 10.82254631 10.82254903 10.82255174
- 10.82255446]</t>
+          <t>[11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647]</t>
         </is>
       </c>
       <c r="E452" t="inlineStr"/>
@@ -11880,8 +11879,8 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>[37047.20773817 37051.10369456 36962.17096453 36873.42529519
- 36656.43723224 36439.69700378]</t>
+          <t>[24044.7978464 24044.7978464 24044.7978464 24044.7978464 24044.7978464
+ 24044.7978464]</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -11908,8 +11907,8 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[547252.54092533 547308.71472256 543549.47723537 539810.21319106
- 530272.17464784 520850.96382736]</t>
+          <t>[426337.56471791 426337.56471793 426337.56471795 426337.56471797
+ 426337.56471799 426337.56471801]</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -11936,8 +11935,8 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[547252.54092533 547308.71472256 543549.47723537 539810.21319106
- 530272.17464784 520850.96382736]</t>
+          <t>[426337.56471791 426337.56471793 426337.56471795 426337.56471797
+ 426337.56471799 426337.56471801]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -11964,8 +11963,8 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>[1.31141275e+13 1.31154736e+13 1.30253889e+13 1.29357827e+13
- 1.27072172e+13 1.24814513e+13]</t>
+          <t>[1.02165724e+13 1.02165724e+13 1.02165724e+13 1.02165724e+13
+ 1.02165724e+13 1.02165724e+13]</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -11992,8 +11991,8 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>[1.31141275e+13 1.31154736e+13 1.30253889e+13 1.29357827e+13
- 1.27072172e+13 1.24814513e+13]</t>
+          <t>[1.02165724e+13 1.02165724e+13 1.02165724e+13 1.02165724e+13
+ 1.02165724e+13 1.02165724e+13]</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12020,8 +12019,8 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>[1.03995031e+13 1.04005706e+13 1.03291334e+13 1.02580757e+13
- 1.00768233e+13 9.89779090e+12]</t>
+          <t>[8.10174188e+12 8.10174188e+12 8.10174188e+12 8.10174188e+12
+ 8.10174188e+12 8.10174188e+12]</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -12048,8 +12047,8 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[8.87783555e+11 8.87876916e+11 8.85745770e+11 8.83619106e+11
- 8.78419296e+11 8.73225425e+11]</t>
+          <t>[5.76199325e+11 5.76199325e+11 5.76199325e+11 5.76199325e+11
+ 5.76199325e+11 5.76199325e+11]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -12157,12 +12156,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.22528014 0.08387901 0.08387901 0.        ]
- [0.         0.         0.22525645 0.0838704  0.0838704  0.        ]
- [0.         0.         0.22579843 0.08426317 0.08426317 0.        ]
- [0.         0.         0.22634187 0.08465828 0.08465828 0.        ]
- [0.         0.         0.2276817  0.08567477 0.08567477 0.        ]
- [0.         0.         0.22903593 0.08670907 0.08670907 0.        ]]</t>
+          <t>[[0.         0.         0.34710211 0.1173264  0.1173264  0.        ]
+ [0.         0.         0.34710211 0.1173264  0.1173264  0.        ]
+ [0.         0.         0.34710211 0.1173264  0.1173264  0.        ]
+ [0.         0.         0.34710211 0.1173264  0.1173264  0.        ]
+ [0.         0.         0.34710211 0.1173264  0.1173264  0.        ]
+ [0.         0.         0.34710211 0.1173264  0.1173264  0.        ]]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12185,12 +12184,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[[0.36900573 0.36900573 0.         0.         0.         0.0419395 ]
- [0.36896671 0.36896671 0.         0.         0.         0.0419352 ]
- [0.36985009 0.36985009 0.         0.         0.         0.04213158]
- [0.37073583 0.37073583 0.         0.         0.         0.04232914]
- [0.37291761 0.37291761 0.         0.         0.         0.04283738]
- [0.37512266 0.37512266 0.         0.         0.         0.04335454]]</t>
+          <t>[[0.57000105 0.57000105 0.         0.         0.         0.0586632 ]
+ [0.57000105 0.57000105 0.         0.         0.         0.0586632 ]
+ [0.57000105 0.57000105 0.         0.         0.         0.0586632 ]
+ [0.57000105 0.57000105 0.         0.         0.         0.0586632 ]
+ [0.57000105 0.57000105 0.         0.         0.         0.0586632 ]
+ [0.57000105 0.57000105 0.         0.         0.         0.0586632 ]]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12213,7 +12212,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>[1370.90916785]</t>
+          <t>[1194.17191882]</t>
         </is>
       </c>
       <c r="E475" t="inlineStr"/>
@@ -12236,7 +12235,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>[6483060.08044048]</t>
+          <t>[4397600.93104681]</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
@@ -12259,7 +12258,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>[2769046.08902908]</t>
+          <t>[1803359.83848]</t>
         </is>
       </c>
       <c r="E477" t="inlineStr"/>
@@ -12282,7 +12281,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[37.40765676]</t>
+          <t>[37.5]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12305,7 +12304,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[5.21032784e+09 5.21032784e+09 8.12629080e+07 0.00000000e+00
+          <t>[3.41327501e+09 3.41327501e+09 6.39506347e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12329,9 +12328,9 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         11.
- 10.99186838 10.97560514 10.95934189 10.95121043 10.95121074 10.95121104
- 10.92976705 10.88687875 10.84399046 10.82254767 10.82255038 10.8225531 ]</t>
+          <t>[11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647]</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -12354,9 +12353,8 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[0.1390852  0.1390852  0.1390852  0.1391     0.1391     0.1391
- 0.13907798 0.13907798 0.13907798 0.13905657 0.13905657 0.13905657
- 0.13906511 0.13906511 0.13906511 0.13907466 0.13907466 0.13907466]</t>
+          <t>[0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239
+ 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239 0.08239]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12404,7 +12402,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[2869046.08902908]</t>
+          <t>[1903359.83848]</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -12427,7 +12425,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[6983060.08044048]</t>
+          <t>[4897600.93104681]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12450,7 +12448,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[38.71793001]</t>
+          <t>[39.47020023]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12473,7 +12471,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>[5.77429193e+09 5.77429193e+09 8.41911001e+07 0.00000000e+00
+          <t>[3.97757104e+09 3.97757104e+09 6.75426810e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12497,7 +12495,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>[4047285.9378879]</t>
+          <t>[2727229.61538561]</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
@@ -12520,7 +12518,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[10160603.21823241]</t>
+          <t>[7395582.31572408]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12570,7 +12568,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>[0.21997286]</t>
+          <t>[0.21998206]</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -12593,7 +12591,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[0.22150534]</t>
+          <t>[0.22156967]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -12616,7 +12614,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[0.21997286 0.22150534 0.83220175 0.89330442 1.02403137 1.83570612]</t>
+          <t>[0.21998206 0.22156967 0.8563474  0.97252779 1.12415776 2.05241759]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -12639,7 +12637,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>[0.22150534 1.02403137 1.9222813 ]</t>
+          <t>[0.22156967 1.12415776 2.13540245]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -12662,7 +12660,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>[0.21997286 0.89330442 1.83570612]</t>
+          <t>[0.21998206 0.97252779 2.05241759]</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
@@ -12685,7 +12683,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[4.50396476 0.         0.        ]</t>
+          <t>[4.07461829 0.         0.        ]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -12704,9 +12702,9 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[  0.40061497   0.37009084   3.0482131   -5.09851157   2.27959267]
- [ -2.17427663  -0.85185779   7.42494137 -10.62384481   7.22503786]
- [ -5.00753347   3.50729064   9.19244813   5.0542818  -11.74648709]]</t>
+          <t>[[  0.56183127   0.32526244   1.14290061  -1.62597717   0.59598286]
+ [ -2.77925357  -0.57911667   8.10928813 -10.45394682   6.70302893]
+ [ -5.5484733    2.89526494  15.9116616   -5.94040902  -6.31804422]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -12725,9 +12723,9 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[  0.39528932   0.36436687   3.06901268  -5.14316081   2.31449194]
- [ -2.20814498  -1.2376651    8.62288718 -14.10412933   9.92705223]
- [ -4.43830339   2.75443828   7.38191195   5.44510031 -10.14314714]]</t>
+          <t>[[  0.55558585   0.32150221   1.16186624  -1.66373466   0.62478035]
+ [ -2.86652695  -0.88877714   8.9265583  -13.23093973   9.05968553]
+ [ -5.07858092   2.37267076  13.71693774  -4.364566    -5.64646159]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -12746,9 +12744,9 @@
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[[ -0.33366462   6.70138625 -14.87983846  14.40596849  -4.89385166]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[-0.316796    3.50596422 -4.31532435  4.23365596 -2.10749983]
+ [ 0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
       </c>
       <c r="E498" t="inlineStr"/>
@@ -12767,9 +12765,9 @@
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>[[  1.13266684   1.76612958  -6.2030496    6.78469067  -2.48043749]
- [ -1.82044787   8.67200178 -17.5568513   16.56823415  -4.86293676]
- [  0.55082288   3.06798019  -5.01212763   7.12585406  -4.73252949]]</t>
+          <t>[[  0.7748712    1.88377583  -4.55922748   4.5338024   -1.63322194]
+ [ -1.33108169   6.32557104 -13.00083415  13.05264979  -4.04630499]
+ [  0.62346859   0.91300923   2.23541601  -2.01300746  -0.75888637]]</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
@@ -12788,9 +12786,9 @@
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>[[  1.1133367    1.80990114  -6.27580736   6.83677206  -2.48420254]
- [ -2.07095197   9.20545246 -18.52689862  16.96536136  -4.57296322]
- [  0.18546337   3.98503842  -7.1741585    9.17627015  -5.17261344]]</t>
+          <t>[[  0.76012015   1.91707382  -4.62901264   4.59868039  -1.64686172]
+ [ -1.53263412   6.86170843 -14.36416504  14.20241419  -4.16732346]
+ [  0.37060293   1.58880166   0.29423741   0.11326857  -1.36691056]]</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
@@ -12809,7 +12807,7 @@
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
-          <t>[[ -19.25403694  152.92962126 -432.81031822  499.76525432 -199.63052042]
+          <t>[[  -7.95003343   62.44237725 -158.69434083  171.81946057  -66.61746356]
  [   0.            0.            0.            0.            0.        ]
  [   0.            0.            0.            0.            0.        ]]</t>
         </is>
@@ -12834,37 +12832,37 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>[[2.29141675e-04]
- [3.07924546e-04]
- [1.90782845e-04]
- [2.75037503e-03]
- [4.38675651e-03]
- [6.36839184e-03]
- [8.68880966e-03]
- [1.13419619e-02]
- [1.43225029e-02]
- [1.76253584e-02]
- [2.12450443e-02]
- [2.51753198e-02]
- [2.94095924e-02]
- [3.39422135e-02]
- [3.87692611e-02]
- [4.38875291e-02]
- [4.65545951e-02]
- [4.92927408e-02]
- [5.21011122e-02]
- [8.01462360e-02]
- [1.21518168e-01]
- [1.74898671e-01]
- [2.69362866e-01]
- [3.81759512e-01]
- [5.08208812e-01]
- [5.90675671e-01]
- [6.79165610e-01]
- [7.74075141e-01]
- [8.69759216e-01]
- [9.68479801e-01]
- [1.06498591e+00]]</t>
+          <t>[[1.67364721e-04]
+ [3.06397619e-04]
+ [2.18401411e-05]
+ [2.62956513e-03]
+ [4.52281644e-03]
+ [6.85837910e-03]
+ [9.62795112e-03]
+ [1.28232207e-02]
+ [1.64358673e-02]
+ [2.04575625e-02]
+ [2.48799715e-02]
+ [2.96947536e-02]
+ [3.48935640e-02]
+ [4.04680543e-02]
+ [4.64098855e-02]
+ [5.27107206e-02]
+ [5.59931512e-02]
+ [5.93622022e-02]
+ [6.28168302e-02]
+ [9.40842628e-02]
+ [1.35846517e-01]
+ [1.87067195e-01]
+ [2.80053955e-01]
+ [3.95871518e-01]
+ [5.29594593e-01]
+ [6.17563006e-01]
+ [7.12087919e-01]
+ [8.13774879e-01]
+ [9.14368263e-01]
+ [1.01728965e+00]
+ [1.11812934e+00]]</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
@@ -12887,7 +12885,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[1.06498591]</t>
+          <t>[1.11812934]</t>
         </is>
       </c>
       <c r="E503" t="inlineStr"/>
@@ -12910,24 +12908,24 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>[[-45679159.64797284]
- [-42046188.37178015]
- [-38175905.98363774]
- [-36805438.92815914]
- [-35430366.70985661]
- [-34045930.04559491]
- [-32648430.60714221]
- [-31233356.27759575]
- [-29794571.67384157]
- [-28323880.20744623]
- [-26811292.3025943 ]
- [-25246312.90240559]
- [-23848934.48159451]
- [-22650717.56678559]
- [-21457277.79018086]
- [-20861711.80554731]
- [-20266145.69322705]
- [-19670579.38937784]]</t>
+          <t>[[-34487089.35615265]
+ [-32129177.10083135]
+ [-29490437.58914344]
+ [-28515903.35767256]
+ [-27535943.48799849]
+ [-26544952.2083278 ]
+ [-25536952.97382469]
+ [-24505384.03106831]
+ [-23442840.43797834]
+ [-22340741.8079598 ]
+ [-21188875.51772328]
+ [-19974733.20104225]
+ [-18957375.86276843]
+ [-18171405.11099429]
+ [-17385434.35922042]
+ [-16992448.98333348]
+ [-16599463.60744643]
+ [-16206478.23155973]]</t>
         </is>
       </c>
       <c r="E504" t="inlineStr"/>
@@ -12950,24 +12948,24 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>[[ -5170171.61667736]
- [-10201189.58746336]
- [ -8271105.79490609]
- [  2428262.21986983]
- [  2428334.4054398 ]
- [  2428407.31406319]
- [  2428481.34010618]
- [  2428557.44095096]
- [  2428637.11119452]
- [  2428722.1147329 ]
- [  2428814.49606357]
- [  2428915.64217862]
- [  2428920.47634721]
- [  2428793.06194539]
- [  2428841.731838  ]
- [  2428402.04150196]
- [  2428414.74028648]
- [  2428427.28653411]]</t>
+          <t>[[-3834695.50411106]
+ [-8947737.48246193]
+ [-8718909.53337147]
+ [ 2428202.70026369]
+ [ 2428269.05102612]
+ [ 2428337.11575266]
+ [ 2428408.1155831 ]
+ [ 2428483.42979106]
+ [ 2428564.68052683]
+ [ 2428653.84695831]
+ [ 2428753.43280145]
+ [ 2428866.72732307]
+ [ 2428841.95062541]
+ [ 2428626.01439335]
+ [ 2428668.3356563 ]
+ [ 2428312.50917787]
+ [ 2428322.72043825]
+ [ 2428332.80868796]]</t>
         </is>
       </c>
       <c r="E505" t="inlineStr"/>
@@ -12990,24 +12988,24 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>[[ -67201.37761762]
- [-132920.24359543]
- [-108862.22353195]
- [  29099.09323218]
- [  29100.0329401 ]
- [  29100.98335858]
- [  29101.94967236]
- [  29102.94441344]
- [  29103.98713832]
- [  29105.10096007]
- [  29106.31271119]
- [  29107.64073994]
- [  29107.71445399]
- [  29106.06156553]
- [  29106.7073665 ]
- [  29100.96501744]
- [  29101.13392277]
- [  29101.3009978 ]]</t>
+          <t>[[ -49838.36615904]
+ [-116546.28531862]
+ [-114538.05293677]
+ [  29098.32145868]
+ [  29099.18511081]
+ [  29100.07222534]
+ [  29100.9987537 ]
+ [  29101.98275145]
+ [  29103.04549084]
+ [  29104.2129617 ]
+ [  29105.51807556]
+ [  29107.00410013]
+ [  29106.69106462]
+ [  29103.88117316]
+ [  29104.44214013]
+ [  29099.79457635]
+ [  29099.93038971]
+ [  29100.06472701]]</t>
         </is>
       </c>
       <c r="E506" t="inlineStr"/>
@@ -13030,24 +13028,24 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>[[ -916281.80474398]
- [-3140431.52593904]
- [-5200238.64655151]
- [-5675765.98273834]
- [-5577838.26966975]
- [-5479789.38318111]
- [-5381634.24886006]
- [-5283387.45683596]
- [-5185063.5814827 ]
- [-5086677.61492459]
- [-4988245.26641873]
- [-4889782.98416667]
- [-4791307.64423736]
- [-4692822.04350183]
- [-4594324.57735257]
- [-4545084.83769162]
- [-4495846.31482789]
- [-4446610.17535903]]</t>
+          <t>[[ -658752.93154314]
+ [-2646388.82687277]
+ [-4921604.62479299]
+ [-5663535.18794852]
+ [-5565689.71386317]
+ [-5467718.1031974 ]
+ [-5369634.54970183]
+ [-5271453.41824133]
+ [-5173189.39611147]
+ [-5074857.66867262]
+ [-4976474.13106203]
+ [-4878055.65324121]
+ [-4779620.38702138]
+ [-4681166.97737494]
+ [-4582688.1518071 ]
+ [-4533450.49114011]
+ [-4484210.26016195]
+ [-4434968.43711518]]</t>
         </is>
       </c>
       <c r="E507" t="inlineStr"/>
@@ -13070,24 +13068,24 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>[[7.07863281e+07]
- [2.42157799e+08]
- [3.99909785e+08]
- [4.35964789e+08]
- [4.27798775e+08]
- [4.19623483e+08]
- [4.11440076e+08]
- [4.03249689e+08]
- [3.95053453e+08]
- [3.86852530e+08]
- [3.78648134e+08]
- [3.70441533e+08]
- [3.62234024e+08]
- [3.54025825e+08]
- [3.45816817e+08]
- [3.41713039e+08]
- [3.37609378e+08]
- [3.33505926e+08]]</t>
+          <t>[[5.08746309e+07]
+ [2.04029610e+08]
+ [3.78480903e+08]
+ [4.35058352e+08]
+ [4.26898672e+08]
+ [4.18729330e+08]
+ [4.10551433e+08]
+ [4.02366100e+08]
+ [3.94174470e+08]
+ [3.85977720e+08]
+ [3.77777079e+08]
+ [3.69573847e+08]
+ [3.61369420e+08]
+ [3.53163698e+08]
+ [3.44956127e+08]
+ [3.40852512e+08]
+ [3.36748726e+08]
+ [3.32644844e+08]]</t>
         </is>
       </c>
       <c r="E508" t="inlineStr"/>
@@ -13110,24 +13108,24 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>[[ 250279.35745713]
- [ 528498.37433239]
- [ 865719.98261656]
- [1299592.78326119]
- [1299588.05459612]
- [1299583.31007597]
- [1299578.63961138]
- [1299573.98249186]
- [1299569.25053078]
- [1299564.36016284]
- [1299559.26145684]
- [1299554.01754261]
- [1299548.76051029]
- [1299544.23703964]
- [1299540.37468969]
- [1299536.34173302]
- [1299534.2524729 ]
- [1299532.16321261]]</t>
+          <t>[[ 214207.13619544]
+ [ 468135.93930733]
+ [ 808877.1898626 ]
+ [1299617.85617384]
+ [1299612.6745761 ]
+ [1299607.46417191]
+ [1299602.19515668]
+ [1299596.83575545]
+ [1299591.3510829 ]
+ [1299585.70177192]
+ [1299579.84220739]
+ [1299573.71809796]
+ [1299567.26294903]
+ [1299561.85408296]
+ [1299557.67543402]
+ [1299553.49681195]
+ [1299551.40751099]
+ [1299549.31821677]]</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
@@ -13150,9 +13148,9 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>[[ 2.42826222e+06]
- [ 2.90990932e+04]
- [-3.81759060e+07]]</t>
+          <t>[[ 2.42820270e+06]
+ [ 2.90983215e+04]
+ [-2.94904376e+07]]</t>
         </is>
       </c>
       <c r="E510" t="inlineStr"/>
@@ -13175,9 +13173,9 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[[-5.77355731e+06]
- [ 4.44120339e+08]
- [ 1.29959278e+06]]</t>
+          <t>[[-5.76124036e+06]
+ [ 4.43207265e+08]
+ [ 1.29961786e+06]]</t>
         </is>
       </c>
       <c r="E511" t="inlineStr"/>
@@ -13229,12 +13227,12 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         11.
- 11.         10.98373676 10.96747352 10.95121027 10.95121058 10.95121089
- 10.9512112  10.9083229  10.86543461 10.82254631 10.82254903 10.82255174
- 10.         10.         10.         10.          9.9990901   9.99818021
-  9.99727031  8.8568682   7.7164661   6.57606399  6.5760701   6.5760762
-  6.57608231]</t>
+          <t>[11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 10.55750738  9.12827829  7.69904921  7.13236614  6.56568307
+  5.999     ]</t>
         </is>
       </c>
       <c r="E513" t="inlineStr"/>
@@ -13257,11 +13255,11 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[0.12998616 0.12998616 0.12998616 0.13       0.13       0.13
- 0.12997942 0.12997942 0.12997942 0.12995941 0.12995941 0.12995941
- 0.12996739 0.12996739 0.12996739 0.12997632 0.12997632 0.12997632
- 0.04       0.04       0.04       0.04       0.04       0.04
- 0.0275     0.0275     0.0275     0.015      0.015      0.015     ]</t>
+          <t>[0.077      0.077      0.077      0.077      0.077      0.077
+ 0.077      0.077      0.077      0.077      0.077      0.077
+ 0.077      0.077      0.077      0.077      0.077      0.077
+ 0.0292755  0.0292755  0.0292755  0.01808632 0.01808632 0.01808632
+ 0.015      0.015      0.015      0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13360,11 +13358,11 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[4.74964202 4.74964202 4.74964202 4.7501415  4.7501415  4.7501415
- 4.74584571 4.73873987 4.73163403 4.72736208 4.72736222 4.72736235
- 4.71828053 4.69954323 4.68080594 4.67175484 4.67175603 4.67175721
- 1.33922325 1.33922325 1.33922325 1.33916208 1.33903973 1.33891739
- 0.868909   0.76348868 0.65806835 0.33082581 0.33082612 0.33082643]</t>
+          <t>[3.08266639 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639
+ 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639
+ 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639 3.08266639
+ 1.17673031 1.17673031 1.17673031 0.72766102 0.72766102 0.72766102
+ 0.56761293 0.49554754 0.42348214 0.37316264 0.34458903 0.31601542]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13387,11 +13385,11 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[2.70998501 2.70998501 2.70998501 2.71027165 2.71027165 2.71027165
- 2.70782961 2.70379816 2.69976671 2.69733834 2.69733842 2.6973385
- 2.69218787 2.68155743 2.67092701 2.66579406 2.66579473 2.66579541
- 0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
- 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
+          <t>[1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 0.66848041 0.66848041 0.66848041 0.41320022 0.41320022 0.41320022
+ 0.32229196 0.28139712 0.24050234 0.21194768 0.19573312 0.17951858]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13414,11 +13412,11 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[2.70998501 2.70998501 2.70998501 2.71027165 2.71027165 2.71027165
- 2.70782961 2.70379816 2.69976671 2.69733834 2.69733842 2.6973385
- 2.69218787 2.68155743 2.67092701 2.66579406 2.66579473 2.66579541
- 0.76132308 0.76132308 0.76132308 0.76128837 0.76121894 0.76114952
- 0.4937173  0.43389535 0.3740737  0.18792297 0.18792314 0.18792332]</t>
+          <t>[1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275 1.75438275
+ 0.66848041 0.66848041 0.66848041 0.41320022 0.41320022 0.41320022
+ 0.32229196 0.28139712 0.24050234 0.21194768 0.19573312 0.17951858]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13441,12 +13439,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[140.32116434 140.32116434 140.32116434 140.33556788 140.33556788
- 140.33556788 139.99951344 139.37166083 138.74568827 138.41286337
- 138.41287518 138.41288699 137.59988047 135.96722427 134.34753462
- 133.55142741 133.55152919 133.55163096  33.21380796  33.21380796
-  33.21380796  33.20925684  33.20015585  33.19105652  19.19260506
-  13.02026832   8.33732654   3.56033296   3.5603429    3.56035284]</t>
+          <t>[109.31732429 109.31732429 109.31732429 109.31732429 109.31732429
+ 109.31732429 109.31732429 109.31732429 109.31732429 109.31732429
+ 109.31732429 109.31732429 109.31732429 109.31732429 109.31732429
+ 109.31732429 109.31732429 109.31732429  42.06273384  42.06273384
+  42.06273384  26.05916277  26.05916277  26.05916277  17.98240602
+  11.96594953   7.46787235   5.10959469   4.02343161   3.1032552 ]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13469,11 +13467,11 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[70.16058217 70.16058217 70.16058217 70.16778394 70.16778394 70.16778394
- 69.99975672 69.68583041 69.37284413 69.20643168 69.20643759 69.20644349
- 68.79994024 67.98361213 67.17376731 66.7757137  66.77576459 66.77581548
- 16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
-  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
+          <t>[54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 21.03136692 21.03136692 21.03136692 13.02958138 13.02958138 13.02958138
+  8.99120301  5.98297477  3.73393617  2.55479734  2.01171581  1.5516276 ]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -13496,11 +13494,11 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[70.16058217 70.16058217 70.16058217 70.16778394 70.16778394 70.16778394
- 69.99975672 69.68583041 69.37284413 69.20643168 69.20643759 69.20644349
- 68.79994024 67.98361213 67.17376731 66.7757137  66.77576459 66.77581548
- 16.60690398 16.60690398 16.60690398 16.60462842 16.60007793 16.59552826
-  9.59630253  6.51013416  4.16866327  1.78016648  1.78017145  1.78017642]</t>
+          <t>[54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214 54.65866214
+ 21.03136692 21.03136692 21.03136692 13.02958138 13.02958138 13.02958138
+  8.99120301  5.98297477  3.73393617  2.55479734  2.01171581  1.5516276 ]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -13625,36 +13623,36 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[[-4.56791596e+07]
- [-4.20461884e+07]
- [-3.81759060e+07]
- [-3.68054389e+07]
- [-3.54303667e+07]
- [-3.40459300e+07]
- [-3.26484306e+07]
- [-3.12333563e+07]
- [-2.97945717e+07]
- [-2.83238802e+07]
- [-2.68112923e+07]
- [-2.52463129e+07]
- [-2.38489345e+07]
- [-2.26507176e+07]
- [-2.14572778e+07]
- [-2.08617118e+07]
- [-2.02661457e+07]
- [-1.96705794e+07]
- [-1.74513902e+07]
- [-1.62105129e+07]
- [-1.49691146e+07]
- [-1.31952253e+07]
- [-1.14209848e+07]
- [-9.64640679e+06]
- [-8.95338584e+06]
- [-8.34392923e+06]
- [-7.81842602e+06]
- [-7.57022009e+06]
- [-7.32226889e+06]
- [ 2.98314262e-09]]</t>
+          <t>[[-3.44870894e+07]
+ [-3.21291771e+07]
+ [-2.94904376e+07]
+ [-2.85159034e+07]
+ [-2.75359435e+07]
+ [-2.65449522e+07]
+ [-2.55369530e+07]
+ [-2.45053840e+07]
+ [-2.34428404e+07]
+ [-2.23407418e+07]
+ [-2.11888755e+07]
+ [-1.99747332e+07]
+ [-1.89573759e+07]
+ [-1.81714051e+07]
+ [-1.73854344e+07]
+ [-1.69924490e+07]
+ [-1.65994636e+07]
+ [-1.62064782e+07]
+ [-1.41369273e+07]
+ [-1.30452399e+07]
+ [-1.19529412e+07]
+ [-1.09842141e+07]
+ [-1.00148795e+07]
+ [-9.04495117e+06]
+ [-8.58936110e+06]
+ [-8.19097699e+06]
+ [-7.85026915e+06]
+ [-7.57009364e+06]
+ [-7.31148981e+06]
+ [-9.60426405e-10]]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13677,36 +13675,36 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[[-5.17017162e+06]
- [-1.02011896e+07]
- [-8.27110579e+06]
- [ 2.42826222e+06]
- [ 2.42833441e+06]
- [ 2.42840731e+06]
- [ 2.42848134e+06]
- [ 2.42855744e+06]
- [ 2.42863711e+06]
- [ 2.42872211e+06]
- [ 2.42881450e+06]
- [ 2.42891564e+06]
- [ 2.42892048e+06]
- [ 2.42879306e+06]
- [ 2.42884173e+06]
- [ 2.42840204e+06]
- [ 2.42841474e+06]
- [ 2.42842729e+06]
- [ 2.42936365e+06]
- [ 2.43005190e+06]
- [ 2.43067026e+06]
- [ 2.43278469e+06]
- [ 2.43370804e+06]
- [ 2.43443218e+06]
- [ 2.43068725e+06]
- [ 2.43053222e+06]
- [ 2.43033644e+06]
- [ 2.42915605e+06]
- [ 2.42919322e+06]
- [ 1.23919658e+03]]</t>
+          <t>[[-3.83469550e+06]
+ [-8.94773748e+06]
+ [-8.71890953e+06]
+ [ 2.42820270e+06]
+ [ 2.42826905e+06]
+ [ 2.42833712e+06]
+ [ 2.42840812e+06]
+ [ 2.42848343e+06]
+ [ 2.42856468e+06]
+ [ 2.42865385e+06]
+ [ 2.42875343e+06]
+ [ 2.42886673e+06]
+ [ 2.42884195e+06]
+ [ 2.42862601e+06]
+ [ 2.42866834e+06]
+ [ 2.42831251e+06]
+ [ 2.42832272e+06]
+ [ 2.42833281e+06]
+ [ 2.42933481e+06]
+ [ 2.42981379e+06]
+ [ 2.43024281e+06]
+ [ 2.43053763e+06]
+ [ 2.43118084e+06]
+ [ 2.43168642e+06]
+ [ 2.42986221e+06]
+ [ 2.42974598e+06]
+ [ 2.42960059e+06]
+ [ 2.42938566e+06]
+ [ 2.42930417e+06]
+ [ 1.23887735e+03]]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -13729,36 +13727,36 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>[[-6.72013776e+04]
- [-1.32920244e+05]
- [-1.08862224e+05]
- [ 2.90990932e+04]
- [ 2.91000329e+04]
- [ 2.91009834e+04]
- [ 2.91019497e+04]
- [ 2.91029444e+04]
- [ 2.91039871e+04]
- [ 2.91051010e+04]
- [ 2.91063127e+04]
- [ 2.91076407e+04]
- [ 2.91077145e+04]
- [ 2.91060616e+04]
- [ 2.91067074e+04]
- [ 2.91009650e+04]
- [ 2.91011339e+04]
- [ 2.91013010e+04]
- [ 2.91136441e+04]
- [ 2.91229093e+04]
- [ 2.91313326e+04]
- [ 2.91600123e+04]
- [ 2.91731304e+04]
- [ 2.91838521e+04]
- [ 2.91329902e+04]
- [ 2.91314033e+04]
- [ 2.91294792e+04]
- [ 2.91133147e+04]
- [ 2.91152117e+04]
- [ 2.08609162e+01]]</t>
+          <t>[[-4.98383662e+04]
+ [-1.16546285e+05]
+ [-1.14538053e+05]
+ [ 2.90983215e+04]
+ [ 2.90991851e+04]
+ [ 2.91000722e+04]
+ [ 2.91009988e+04]
+ [ 2.91019828e+04]
+ [ 2.91030455e+04]
+ [ 2.91042130e+04]
+ [ 2.91055181e+04]
+ [ 2.91070041e+04]
+ [ 2.91066911e+04]
+ [ 2.91038812e+04]
+ [ 2.91044421e+04]
+ [ 2.90997946e+04]
+ [ 2.90999304e+04]
+ [ 2.91000647e+04]
+ [ 2.91132387e+04]
+ [ 2.91196859e+04]
+ [ 2.91255298e+04]
+ [ 2.91297467e+04]
+ [ 2.91388844e+04]
+ [ 2.91463683e+04]
+ [ 2.91216476e+04]
+ [ 2.91204208e+04]
+ [ 2.91189573e+04]
+ [ 2.91166442e+04]
+ [ 2.91165285e+04]
+ [ 2.02962791e+01]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -13781,36 +13779,36 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[[-9.16281805e+05]
- [-3.14043153e+06]
- [-5.20023865e+06]
- [-5.67576598e+06]
- [-5.57783827e+06]
- [-5.47978938e+06]
- [-5.38163425e+06]
- [-5.28338746e+06]
- [-5.18506358e+06]
- [-5.08667761e+06]
- [-4.98824527e+06]
- [-4.88978298e+06]
- [-4.79130764e+06]
- [-4.69282204e+06]
- [-4.59432458e+06]
- [-4.54508484e+06]
- [-4.49584631e+06]
- [-4.44661018e+06]
- [-4.08851565e+06]
- [-3.72773650e+06]
- [-3.36498593e+06]
- [-2.84427150e+06]
- [-2.32243062e+06]
- [-1.80091682e+06]
- [-1.48884812e+06]
- [-1.17666468e+06]
- [-8.64213656e+05]
- [-5.71947032e+05]
- [-2.78904686e+05]
- [-5.18547805e-04]]</t>
+          <t>[[-6.58752932e+05]
+ [-2.64638883e+06]
+ [-4.92160462e+06]
+ [-5.66353519e+06]
+ [-5.56568971e+06]
+ [-5.46771810e+06]
+ [-5.36963455e+06]
+ [-5.27145342e+06]
+ [-5.17318940e+06]
+ [-5.07485767e+06]
+ [-4.97647413e+06]
+ [-4.87805565e+06]
+ [-4.77962039e+06]
+ [-4.68116698e+06]
+ [-4.58268815e+06]
+ [-4.53345049e+06]
+ [-4.48421026e+06]
+ [-4.43496844e+06]
+ [-4.07751215e+06]
+ [-3.71849841e+06]
+ [-3.35840635e+06]
+ [-2.84178606e+06]
+ [-2.32279927e+06]
+ [-1.80267995e+06]
+ [-1.49057691e+06]
+ [-1.17808264e+06]
+ [-8.64999569e+05]
+ [-5.72180199e+05]
+ [-2.78893600e+05]
+ [-5.51641205e-04]]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -13833,36 +13831,36 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[ 7.07863281e+07]
- [ 2.42157799e+08]
- [ 3.99909785e+08]
- [ 4.35964789e+08]
- [ 4.27798775e+08]
- [ 4.19623483e+08]
- [ 4.11440076e+08]
- [ 4.03249689e+08]
- [ 3.95053453e+08]
- [ 3.86852530e+08]
- [ 3.78648134e+08]
- [ 3.70441533e+08]
- [ 3.62234024e+08]
- [ 3.54025825e+08]
- [ 3.45816817e+08]
- [ 3.41713039e+08]
- [ 3.37609378e+08]
- [ 3.33505926e+08]
- [ 3.03674240e+08]
- [ 2.73643952e+08]
- [ 2.43470348e+08]
- [ 2.00188322e+08]
- [ 1.56836091e+08]
- [ 1.13522783e+08]
- [ 8.76052354e+07]
- [ 6.16916334e+07]
- [ 3.57783882e+07]
- [ 1.15836713e+07]
- [-1.26102650e+07]
- [ 3.08025736e-02]]</t>
+          <t>[[ 5.08746309e+07]
+ [ 2.04029610e+08]
+ [ 3.78480903e+08]
+ [ 4.35058352e+08]
+ [ 4.26898672e+08]
+ [ 4.18729330e+08]
+ [ 4.10551433e+08]
+ [ 4.02366100e+08]
+ [ 3.94174470e+08]
+ [ 3.85977720e+08]
+ [ 3.77777079e+08]
+ [ 3.69573847e+08]
+ [ 3.61369420e+08]
+ [ 3.53163698e+08]
+ [ 3.44956127e+08]
+ [ 3.40852512e+08]
+ [ 3.36748726e+08]
+ [ 3.32644844e+08]
+ [ 3.02861021e+08]
+ [ 2.72962350e+08]
+ [ 2.42985889e+08]
+ [ 2.00006151e+08]
+ [ 1.56864923e+08]
+ [ 1.13656648e+08]
+ [ 8.77391598e+07]
+ [ 6.18059397e+07]
+ [ 3.58517097e+07]
+ [ 1.16154340e+07]
+ [-1.26102767e+07]
+ [ 3.36723323e-02]]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
@@ -13885,36 +13883,36 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[ 250279.35745713]
- [ 528498.37433239]
- [ 865719.98261656]
- [1299592.78326119]
- [1299588.05459612]
- [1299583.31007597]
- [1299578.63961138]
- [1299573.98249186]
- [1299569.25053078]
- [1299564.36016284]
- [1299559.26145684]
- [1299554.01754261]
- [1299548.76051029]
- [1299544.23703964]
- [1299540.37468969]
- [1299536.34173302]
- [1299534.2524729 ]
- [1299532.16321261]
- [1299689.80301832]
- [1299674.64296865]
- [1299659.45486393]
- [1299644.26910866]
- [1299622.57193141]
- [1299600.86719768]
- [1299643.01967844]
- [1299653.26747841]
- [1299668.88033212]
- [1299848.45584724]
- [1299836.15405083]
- [      0.        ]]</t>
+          <t>[[2.14207136e+05]
+ [4.68135939e+05]
+ [8.08877190e+05]
+ [1.29961786e+06]
+ [1.29961267e+06]
+ [1.29960746e+06]
+ [1.29960220e+06]
+ [1.29959684e+06]
+ [1.29959135e+06]
+ [1.29958570e+06]
+ [1.29957984e+06]
+ [1.29957372e+06]
+ [1.29956726e+06]
+ [1.29956185e+06]
+ [1.29955768e+06]
+ [1.29955350e+06]
+ [1.29955141e+06]
+ [1.29954932e+06]
+ [1.29967314e+06]
+ [1.29965797e+06]
+ [1.29964276e+06]
+ [1.29973031e+06]
+ [1.29970848e+06]
+ [1.29968664e+06]
+ [1.29972225e+06]
+ [1.29974517e+06]
+ [1.29977810e+06]
+ [1.29980589e+06]
+ [1.29982116e+06]
+ [6.90710297e-10]]</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -13937,24 +13935,24 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[-4067871.91031717]
- [10132236.27891142]
- [23314577.99126239]
- [26427081.03686874]
- [26076434.42846965]
- [25727031.97622951]
- [25427041.96416618]
- [25167821.95393667]
- [24910558.88307612]
- [24618898.41432979]
- [24289684.12876578]
- [23971378.02092548]
- [23720732.65810951]
- [23529524.10618152]
- [23331301.20252733]
- [23228199.02931631]
- [23023098.32589875]
- [22818014.76431999]]</t>
+          <t>[[-5608508.18842879]
+ [11951371.94948354]
+ [31937722.12701882]
+ [38458153.85246017]
+ [37881267.76582453]
+ [37306900.77983933]
+ [36737112.99349962]
+ [36174155.57195823]
+ [35620555.69714148]
+ [35079225.8125704 ]
+ [34553613.5643689 ]
+ [34047919.23982884]
+ [33478257.98005764]
+ [32833394.16335827]
+ [32188327.66818701]
+ [31865813.18129605]
+ [31543279.86889838]
+ [31220735.97997519]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -13977,24 +13975,24 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[1917794.009296  ]
- [3785331.87193155]
- [3086282.37488675]
- [ 946945.5880003 ]
- [ 946972.03898992]
- [ 946998.75616899]
- [ 947918.54056775]
- [ 949437.81696048]
- [ 950963.18692537]
- [ 951889.68201772]
- [ 951923.7038925 ]
- [ 951960.96972372]
- [ 953887.95993696]
- [ 957831.92178601]
- [ 961874.94697568]
- [ 963669.23391039]
- [ 963673.65624956]
- [ 963678.02136239]]</t>
+          <t>[[2197709.04087546]
+ [5126318.09690097]
+ [5014563.3940073 ]
+ [1455429.54961513]
+ [1455467.0887194 ]
+ [1455505.60329579]
+ [1455545.78782021]
+ [1455588.42680483]
+ [1455634.44304333]
+ [1455684.9626017 ]
+ [1455741.41022211]
+ [1455805.65797446]
+ [1455791.18020046]
+ [1455667.78942381]
+ [1455691.68559133]
+ [1455488.61784977]
+ [1455494.3242418 ]
+ [1455499.96051294]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14019,17 +14017,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [ -6512219.08008422]
- [-12325607.7268928 ]
- [-10936756.17039617]
- [ -9560199.58545868]
- [ -8191897.51935737]
- [ -6833246.67744684]
- [ -5494556.96123023]
- [ -4181796.05422373]
- [ -2893380.00861245]
- [ -1629757.6800922 ]
- [  -501306.05322475]
+ [-12045018.26738735]
+ [-22799933.31448675]
+ [-20230832.98503586]
+ [-17684475.91805632]
+ [-15162303.46417375]
+ [-12666555.15662728]
+ [-10200367.57722779]
+ [ -7767916.52527543]
+ [ -5374612.59515499]
+ [ -3027364.4938477 ]
+ [  -933110.5193137 ]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -14093,24 +14091,24 @@
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[0.02671567]
- [0.06139188]
- [0.14082544]
- [0.17464872]
- [0.16775198]
- [0.16101833]
- [0.15468305]
- [0.1487267 ]
- [0.14300697]
- [0.1373711 ]
- [0.13180599]
- [0.12656909]
- [0.12225064]
- [0.11999082]
- [0.11898752]
- [0.11846551]
- [0.11742488]
- [0.11638439]]</t>
+          <t>[[0.03448084]
+ [0.07573805]
+ [0.20507619]
+ [0.27309257]
+ [0.2602316 ]
+ [0.24768067]
+ [0.23548192]
+ [0.22368553]
+ [0.21235048]
+ [0.20154507]
+ [0.19134724]
+ [0.18184424]
+ [0.17320033]
+ [0.16751377]
+ [0.16424219]
+ [0.16260649]
+ [0.16097094]
+ [0.15933545]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14129,24 +14127,24 @@
       <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[0.03991221]
- [0.04413473]
- [0.06784398]
- [0.04626923]
- [0.0420533 ]
- [0.03799451]
- [0.03413245]
- [0.03051822]
- [0.02724913]
- [0.02441893]
- [0.02210887]
- [0.02042202]
- [0.0195475 ]
- [0.01895499]
- [0.01811623]
- [0.01704314]
- [0.0166102 ]
- [0.01617869]]</t>
+          <t>[[0.06100954]
+ [0.07555699]
+ [0.22491681]
+ [0.127268  ]
+ [0.11450134]
+ [0.1019864 ]
+ [0.08977917]
+ [0.07796646]
+ [0.0666858 ]
+ [0.05616235]
+ [0.04677526]
+ [0.03915707]
+ [0.03283922]
+ [0.03026817]
+ [0.02916114]
+ [0.02580613]
+ [0.02528703]
+ [0.0247692 ]]</t>
         </is>
       </c>
       <c r="E538" t="inlineStr"/>
@@ -14165,24 +14163,24 @@
       <c r="C539" t="inlineStr"/>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[[0.06565947]
- [0.11625974]
- [0.16226836]
- [0.17228434]
- [0.16837517]
- [0.16445522]
- [0.16076891]
- [0.15724802]
- [0.15368467]
- [0.14988341]
- [0.14580361]
- [0.14167349]
- [0.13821262]
- [0.13543738]
- [0.13262596]
- [0.1311974 ]
- [0.12927665]
- [0.12735626]]</t>
+          <t>[[0.08957416]
+ [0.16936888]
+ [0.26023776]
+ [0.28946531]
+ [0.28318947]
+ [0.27689004]
+ [0.27055666]
+ [0.26417795]
+ [0.25774102]
+ [0.25123087]
+ [0.24462956]
+ [0.23791504]
+ [0.23156274]
+ [0.22563537]
+ [0.21970856]
+ [0.21674585]
+ [0.21378344]
+ [0.21082136]]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14205,36 +14203,36 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[[-4.06787191e+06]
- [ 1.01322363e+07]
- [ 2.33145780e+07]
- [ 2.64270810e+07]
- [ 2.60764344e+07]
- [ 2.57270320e+07]
- [ 2.54270420e+07]
- [ 2.51678220e+07]
- [ 2.49105589e+07]
- [ 2.46188984e+07]
- [ 2.42896841e+07]
- [ 2.39713780e+07]
- [ 2.37207327e+07]
- [ 2.35295241e+07]
- [ 2.33313012e+07]
- [ 2.32281990e+07]
- [ 2.30230983e+07]
- [ 2.17908795e+07]
- [ 7.84074257e+07]
- [ 7.02918415e+07]
- [ 6.21334956e+07]
- [ 5.04308767e+07]
- [ 3.87090604e+07]
- [ 2.69947133e+07]
- [ 3.27321912e+07]
- [ 2.83417022e+07]
- [ 1.87951989e+07]
- [-1.46126270e+06]
- [ 1.16399459e+06]
- [ 5.69013542e-02]]</t>
+          <t>[[-5.60850819e+06]
+ [ 1.19513719e+07]
+ [ 3.19377221e+07]
+ [ 3.84581539e+07]
+ [ 3.78812678e+07]
+ [ 3.73069008e+07]
+ [ 3.67371130e+07]
+ [ 3.61741556e+07]
+ [ 3.56205557e+07]
+ [ 3.50792258e+07]
+ [ 3.45536136e+07]
+ [ 3.40479192e+07]
+ [ 3.34782580e+07]
+ [ 3.28333942e+07]
+ [ 3.21883277e+07]
+ [ 3.18658132e+07]
+ [ 3.15432799e+07]
+ [ 3.12207360e+07]
+ [ 7.43012492e+07]
+ [ 6.67080654e+07]
+ [ 5.90932334e+07]
+ [ 7.69132086e+07]
+ [ 5.83997838e+07]
+ [ 3.98563756e+07]
+ [ 3.98740733e+07]
+ [ 3.43201207e+07]
+ [ 2.18665867e+07]
+ [-3.40804361e+06]
+ [ 2.53526398e+05]
+ [ 6.81766257e-02]]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14257,36 +14255,36 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[[1.91779401e+06]
- [3.78533187e+06]
- [3.08628237e+06]
- [9.46945588e+05]
- [9.46972039e+05]
- [9.46998756e+05]
- [9.47918541e+05]
- [9.49437817e+05]
- [9.50963187e+05]
- [9.51889682e+05]
- [9.51923704e+05]
- [9.51960970e+05]
- [9.53887960e+05]
- [9.57831922e+05]
- [9.61874947e+05]
- [9.63669234e+05]
- [9.63673656e+05]
- [9.61677042e+05]
- [3.38686012e+06]
- [3.38776194e+06]
- [3.38857195e+06]
- [3.39151085e+06]
- [3.39304799e+06]
- [3.39432367e+06]
- [5.24277143e+06]
- [6.01563577e+06]
- [7.05441194e+06]
- [1.41277018e+07]
- [1.41278741e+07]
- [6.59509518e+03]]</t>
+          <t>[[2.19770904e+06]
+ [5.12631810e+06]
+ [5.01456339e+06]
+ [1.45542955e+06]
+ [1.45546709e+06]
+ [1.45550560e+06]
+ [1.45554579e+06]
+ [1.45558843e+06]
+ [1.45563444e+06]
+ [1.45568496e+06]
+ [1.45574141e+06]
+ [1.45580566e+06]
+ [1.45579118e+06]
+ [1.45566779e+06]
+ [1.45569169e+06]
+ [1.45548862e+06]
+ [1.45549432e+06]
+ [1.45549996e+06]
+ [3.81956188e+06]
+ [3.82027631e+06]
+ [3.82091598e+06]
+ [6.18157580e+06]
+ [6.18312758e+06]
+ [6.18434625e+06]
+ [7.94722145e+06]
+ [9.16976912e+06]
+ [1.08351130e+07]
+ [1.24062419e+07]
+ [1.35185326e+07]
+ [6.90203524e+03]]</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -14311,34 +14309,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-6.51221908e+06]
- [-1.23256077e+07]
- [-1.09367562e+07]
- [-9.56019959e+06]
- [-8.19189752e+06]
- [-6.83324668e+06]
- [-5.49455696e+06]
- [-4.18179605e+06]
- [-2.89338001e+06]
- [-1.62975768e+06]
- [-5.01306053e+05]
+ [-1.20450183e+07]
+ [-2.27999333e+07]
+ [-2.02308330e+07]
+ [-1.76844759e+07]
+ [-1.51623035e+07]
+ [-1.26665552e+07]
+ [-1.02003676e+07]
+ [-7.76791653e+06]
+ [-5.37461260e+06]
+ [-3.02736449e+06]
+ [-9.33110519e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-9.41304698e+02]
- [-6.37727477e+03]
- [-7.14427391e+03]
- [-7.70875864e+03]
- [-8.24395227e+03]
- [-8.76644424e+03]
- [-9.20436610e+03]
- [-1.30658629e+04]
- [-1.17356522e+04]
- [-1.03208350e+04]
- [-1.77556391e+04]
- [-1.80448235e+04]
- [-1.83200231e+04]]</t>
+ [-1.84059347e+03]
+ [-1.04609334e+04]
+ [-1.17190769e+04]
+ [-1.26450268e+04]
+ [-2.19104270e+04]
+ [-2.33012128e+04]
+ [-2.44674448e+04]
+ [-2.86879125e+04]
+ [-2.56019368e+04]
+ [-2.23234752e+04]
+ [-2.00278847e+04]
+ [-1.87955179e+04]
+ [-1.74998407e+04]]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14409,36 +14407,36 @@
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[[2.67156687e-02]
- [6.13918783e-02]
- [1.40825443e-01]
- [1.74648721e-01]
- [1.67751980e-01]
- [1.61018332e-01]
- [1.54683049e-01]
- [1.48726703e-01]
- [1.43006968e-01]
- [1.37371099e-01]
- [1.31805995e-01]
- [1.26569091e-01]
- [1.22250638e-01]
- [1.19990816e-01]
- [1.18987515e-01]
- [1.18465509e-01]
- [1.17424880e-01]
- [1.11175014e-01]
- [3.99986098e-01]
- [3.58833351e-01]
- [3.17496904e-01]
- [2.58295004e-01]
- [1.99189856e-01]
- [1.40562780e-01]
- [1.72828114e-01]
- [1.53635221e-01]
- [1.14059931e-01]
- [1.24696396e-01]
- [1.24621786e-01]
- [1.09825274e-04]]</t>
+          <t>[[3.44808380e-02]
+ [7.57380526e-02]
+ [2.05076193e-01]
+ [2.73092574e-01]
+ [2.60231603e-01]
+ [2.47680670e-01]
+ [2.35481916e-01]
+ [2.23685533e-01]
+ [2.12350481e-01]
+ [2.01545074e-01]
+ [1.91347241e-01]
+ [1.81844239e-01]
+ [1.73200326e-01]
+ [1.67513770e-01]
+ [1.64242186e-01]
+ [1.62606488e-01]
+ [1.60970942e-01]
+ [1.59340114e-01]
+ [3.79489008e-01]
+ [3.41036008e-01]
+ [3.02515955e-01]
+ [3.95082105e-01]
+ [3.02089386e-01]
+ [2.10002287e-01]
+ [2.14652775e-01]
+ [1.92432512e-01]
+ [1.46627520e-01]
+ [1.10668072e-01]
+ [1.19117533e-01]
+ [1.07809867e-04]]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -14457,36 +14455,36 @@
       <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[[0.03991221]
- [0.04413473]
- [0.06784398]
- [0.04626923]
- [0.0420533 ]
- [0.03799451]
- [0.03413245]
- [0.03051822]
- [0.02724913]
- [0.02441893]
- [0.02210887]
- [0.02042202]
- [0.0195475 ]
- [0.01895499]
- [0.01811623]
- [0.01704314]
- [0.0166102 ]
- [0.01672052]
- [0.11275632]
- [0.10730928]
- [0.1018874 ]
- [0.10044744]
- [0.09294021]
- [0.08556153]
- [0.15839597]
- [0.15757109]
- [0.15958454]
- [0.560214  ]
- [0.55320041]
- [0.00247187]]</t>
+          <t>[[0.06100954]
+ [0.07555699]
+ [0.22491681]
+ [0.127268  ]
+ [0.11450134]
+ [0.1019864 ]
+ [0.08977917]
+ [0.07796646]
+ [0.0666858 ]
+ [0.05616235]
+ [0.04677526]
+ [0.03915707]
+ [0.03283922]
+ [0.03026817]
+ [0.02916114]
+ [0.02580613]
+ [0.02528703]
+ [0.02476815]
+ [0.17808634]
+ [0.16983774]
+ [0.16158868]
+ [0.48735331]
+ [0.4667186 ]
+ [0.44603826]
+ [0.57987578]
+ [0.5684039 ]
+ [0.56326534]
+ [0.55105616]
+ [0.54946671]
+ [0.00232123]]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr"/>
@@ -14505,36 +14503,36 @@
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[[1.49512916e-01]
- [2.27107267e-01]
- [2.96160582e-01]
- [3.10394274e-01]
- [3.02403737e-01]
- [2.94402308e-01]
- [2.86921871e-01]
- [2.79816156e-01]
- [2.72604979e-01]
- [2.64848080e-01]
- [2.56478479e-01]
- [2.47982709e-01]
- [2.41047995e-01]
- [2.35703282e-01]
- [2.30273362e-01]
- [2.27508908e-01]
- [2.23712322e-01]
- [2.15731043e-01]
- [8.05330750e-01]
- [7.25707991e-01]
- [6.46973655e-01]
- [5.36201083e-01]
- [4.27596049e-01]
- [3.21222611e-01]
- [4.50949327e-01]
- [4.97368749e-01]
- [5.56842959e-01]
- [9.75626298e-01]
- [9.65426703e-01]
- [3.44266539e-10]]</t>
+          <t>[[1.63949547e-01]
+ [2.78276349e-01]
+ [4.07231615e-01]
+ [4.48219840e-01]
+ [4.37536708e-01]
+ [4.26828149e-01]
+ [4.16070136e-01]
+ [4.05236555e-01]
+ [3.94298174e-01]
+ [3.83221327e-01]
+ [3.71966107e-01]
+ [3.60483758e-01]
+ [3.49850153e-01]
+ [3.40198576e-01]
+ [3.30567404e-01]
+ [3.25760111e-01]
+ [3.20958107e-01]
+ [3.16161439e-01]
+ [7.70130151e-01]
+ [6.93501636e-01]
+ [6.17493661e-01]
+ [8.59883667e-01]
+ [6.90797514e-01]
+ [5.24145046e-01]
+ [5.98386359e-01]
+ [6.48351472e-01]
+ [7.22586709e-01]
+ [6.83449082e-01]
+ [8.71546040e-01]
+ [4.67611585e-10]]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr"/>
@@ -14576,7 +14574,7 @@
       <c r="C548" t="inlineStr"/>
       <c r="D548" t="inlineStr">
         <is>
-          <t>[0.92399627]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="E548" t="inlineStr"/>
@@ -14623,26 +14621,26 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
-  1.52133333e+10 1.24226667e+11]
- [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
-  1.40933333e+10 1.24226667e+11]
- [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
-  1.29733333e+10 1.24226667e+11]
- [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
-  1.18533333e+10 1.24226667e+11]
- [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
-  1.07333333e+10 1.24226667e+11]
- [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
-  9.61333333e+09 1.24226667e+11]
- [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
-  8.49333333e+09 1.24226667e+11]
- [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
-  7.37333333e+09 1.24226667e+11]
- [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
-  6.25333333e+09 1.24226667e+11]
- [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
-  5.13333333e+09 1.24226667e+11]]</t>
+          <t>[[2.29140457e+10 5.99272586e+12 2.29140457e+10 5.99272586e+12
+  1.56738104e+10 1.60745805e+11]
+ [2.08390984e+10 4.33882126e+12 2.08390984e+10 4.33882126e+12
+  1.45538104e+10 1.60745805e+11]
+ [1.87641510e+10 3.03889197e+12 1.87641510e+10 3.03889197e+12
+  1.34338104e+10 1.60745805e+11]
+ [1.66892036e+10 2.04869107e+12 1.66892036e+10 2.04869107e+12
+  1.23138104e+10 1.60745805e+11]
+ [1.46142563e+10 1.32397166e+12 1.46142563e+10 1.32397166e+12
+  1.11938104e+10 1.60745805e+11]
+ [1.25393089e+10 8.20486814e+11 1.25393089e+10 8.20486814e+11
+  1.00738104e+10 1.60745805e+11]
+ [1.04643615e+10 4.93989622e+11 1.04643615e+10 4.93989622e+11
+  8.95381035e+09 1.60745805e+11]
+ [8.38941416e+09 3.00233172e+11 8.38941416e+09 3.00233172e+11
+  7.83381035e+09 1.60745805e+11]
+ [6.31446679e+09 1.94970548e+11 6.31446679e+09 1.94970548e+11
+  6.71381035e+09 1.60745805e+11]
+ [4.23951943e+09 1.33954838e+11 4.23951943e+09 1.33954838e+11
+  5.59381035e+09 1.60745805e+11]]</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
@@ -14665,9 +14663,9 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.23177151
- 510.56968119 533.07977868 484.77613683 431.3139066  371.41485665
- 377.98294805 384.21329897 390.14302107]</t>
+          <t>[403.24058278 463.49849005 505.53878472 538.57448711 576.71189198
+ 608.13340356 635.08915713 574.61915732 509.74231062 438.78906081
+ 412.37524165 383.55035019 352.18249915]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14786,9 +14784,9 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[336.9560439  388.43785582 424.16473764 452.12457083 484.23177151
- 510.56968119 533.07977868 484.77613683 431.3139066  371.41485665
- 377.98294805 384.21329897 390.14302107]</t>
+          <t>[403.24058278 463.49849005 505.53878472 538.57448711 576.71189198
+ 608.13340356 635.08915713 574.61915732 509.74231062 438.78906081
+ 412.37524165 383.55035019 352.18249915]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14976,9 +14974,9 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>[-336.9560439  -388.43785582 -424.16473764 -452.12457083 -484.23177151
- -510.56968119 -533.07977868 -484.77613683 -431.3139066  -371.41485665
- -377.98294805 -384.21329897 -390.14302107]</t>
+          <t>[-403.24058278 -463.49849005 -505.53878472 -538.57448711 -576.71189198
+ -608.13340356 -635.08915713 -574.61915732 -509.74231062 -438.78906081
+ -412.37524165 -383.55035019 -352.18249915]</t>
         </is>
       </c>
       <c r="E564" t="inlineStr"/>
@@ -15022,7 +15020,7 @@
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>[250.         249.96587888 301.3333509  438.40487671]</t>
+          <t>[409.44600681 662.75142033 656.19285591 456.60164018]</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
@@ -15041,7 +15039,7 @@
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[1.         0.99972703 0.65778595 0.99999721]</t>
+          <t>[1.         1.         0.64229736 0.77918712]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -15060,7 +15058,7 @@
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>[1.         0.99972703 0.65778595 1.00000279]</t>
+          <t>[1.         1.         0.64229736 0.77918712]</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
@@ -15079,7 +15077,7 @@
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>[1.         0.6875     0.54545455]</t>
+          <t>[0.61779725 0.82935596 1.        ]</t>
         </is>
       </c>
       <c r="E569" t="inlineStr"/>
@@ -15122,9 +15120,9 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[5.         5.         5.         5.         4.99954505 4.9990901
- 4.99863516 4.4284341  3.85823305 3.28803199 3.28803505 3.2880381
- 3.28804116]</t>
+          <t>[5.99336824 5.99336824 5.99336824 5.99336824 5.99336824 5.99336824
+ 5.99336824 5.27875369 4.56413915 3.8495246  3.56618307 3.28284153
+ 2.9995    ]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr"/>
@@ -15375,9 +15373,9 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[10.         10.         10.         10.          9.9990901   9.99818021
-  9.99727031  8.8568682   7.7164661   6.57606399  6.5760701   6.5760762
-  6.57608231]</t>
+          <t>[11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647 10.55750738  9.12827829  7.69904921  7.13236614  6.56568307
+  5.999     ]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15630,7 +15628,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[10445.94134309 10444.50990852  5955.2116684   2580.44372287]</t>
+          <t>[9178.49641585 5675.75598628 3865.27078758 2687.79443285]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -15657,7 +15655,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[129533.85103079 129480.60781643  50779.04643687  13885.33731655]</t>
+          <t>[164044.66199184 101630.73478724  46667.20318525  15691.38329848]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -15684,7 +15682,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[129533.85103079 129480.60781643  50779.04643687  13885.33731655]</t>
+          <t>[164044.66199184 101630.73478724  46667.20318525  15691.38329848]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -15711,7 +15709,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[3.10409420e+12 3.10281830e+12 1.21684751e+12 3.32742327e+11]</t>
+          <t>[3.93109662e+12 2.43543577e+12 1.11831304e+12 3.76021646e+11]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -15738,7 +15736,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[3.10409420e+12 3.10281830e+12 1.21684751e+12 3.32742327e+11]</t>
+          <t>[3.93109662e+12 2.43543577e+12 1.11831304e+12 3.76021646e+11]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -15765,7 +15763,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[2.46154670e+12 2.46053491e+12 9.64960072e+11 2.63864666e+11]</t>
+          <t>[3.11735962e+12 1.93130057e+12 8.86822241e+11 2.98185165e+11]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -15792,7 +15790,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[2.50322103e+11 2.50287800e+11 1.42708164e+11 6.18366576e+10]</t>
+          <t>[2.19949591e+11 1.36011406e+11 9.26257078e+10 6.44091645e+10]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -15900,10 +15898,10 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.7989706  0.32215517 0.32215517 0.        ]
- [0.         0.         0.7990801  0.32224366 0.32224366 0.        ]
- [0.         0.         1.40146152 0.68099471 0.68099471 0.        ]
- [0.         0.         3.23432746 1.97632601 1.97632601 0.        ]]</t>
+          <t>[[0.         0.         0.90929926 0.30492093 0.30492093 0.        ]
+ [0.         0.         1.47046491 0.49218036 0.49218036 0.        ]
+ [0.         0.         2.15922776 0.88015542 0.88015542 0.        ]
+ [0.         0.         3.10514818 1.82144424 1.82144424 0.        ]]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15926,10 +15924,10 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[[1.3135028  1.3135028  0.         0.         0.         0.16107759]
- [1.31368249 1.31368249 0.         0.         0.         0.16112183]
- [2.30470321 2.30470321 0.         0.         0.         0.34049736]
- [5.3213244  5.3213244  0.         0.         0.         0.988163  ]]</t>
+          <t>[[1.49593014 1.49593014 0.         0.         0.         0.15246047]
+ [2.42013423 2.42013423 0.         0.         0.         0.24609018]
+ [3.55369658 3.55369658 0.         0.         0.         0.44007771]
+ [5.10899735 5.10899735 0.         0.         0.         0.91072212]]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15952,7 +15950,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[602.21404088]</t>
+          <t>[522.65000322]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -15975,7 +15973,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>[3177543.13779193]</t>
+          <t>[2497981.38467728]</t>
         </is>
       </c>
       <c r="E606" t="inlineStr"/>
@@ -15998,8 +15996,8 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          9.99954505  9.99863516  9.99772526
-  9.42706926  8.28666715  7.14626504  6.57606704  6.57607315  6.57607926]</t>
+          <t>[11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.27212193  9.84289284  8.41366375  7.41570767  6.8490246   6.28234153]</t>
         </is>
       </c>
       <c r="E607" t="inlineStr"/>
@@ -16022,8 +16020,8 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[0.0428   0.0428   0.0428   0.0428   0.0428   0.0428   0.029425 0.029425
- 0.029425 0.01605  0.01605  0.01605 ]</t>
+          <t>[0.03132478 0.03132478 0.03132478 0.01935237 0.01935237 0.01935237
+ 0.01605    0.01605    0.01605    0.01605    0.01605    0.01605   ]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -16070,18 +16068,18 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[[85183786.6655943 ]
- [77168319.71506432]
- [69098002.98646456]
- [57504248.59191263]
- [45870802.47702564]
- [34225815.30239955]
- [44573086.57754934]
- [43733782.51895173]
- [39568180.68646032]
- [43311071.79546647]
- [ -691106.07376145]
- [ 1957822.61200308]]</t>
+          <t>[[80645071.00565344]
+ [73148966.32612173]
+ [65620709.8271035 ]
+ [87622055.32096605]
+ [69253942.80130267]
+ [50830589.086843  ]
+ [54908105.05969848]
+ [54132983.64749677]
+ [49087573.13395406]
+ [31706426.47074988]
+ [-1469171.46238252]
+ [ 3197541.66004724]]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16104,18 +16102,18 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>[[ 3385516.43460866]
- [ 3386481.18980202]
- [ 3387358.41684407]
- [ 3389896.10626579]
- [ 3391575.40635426]
- [ 3392994.63264646]
- [ 5242059.17926565]
- [ 6015031.36481052]
- [ 7053978.41659996]
- [14127607.53396295]
- [14128225.20800928]
- [14128409.03522575]]</t>
+          <t>[[ 3817895.17837236]
+ [ 3818655.79211178]
+ [ 3819347.60822404]
+ [ 6179454.34341548]
+ [ 6181186.74577826]
+ [ 6182587.58000914]
+ [ 7946263.84150978]
+ [ 9168923.22803709]
+ [10834454.84281773]
+ [12405888.83597978]
+ [13518528.39909616]
+ [14848582.93846118]]</t>
         </is>
       </c>
       <c r="E611" t="inlineStr"/>
@@ -16138,18 +16136,18 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>[[ -6377.27477098]
- [ -7144.27390968]
- [ -7708.75864117]
- [ -8243.95227294]
- [ -8766.44424047]
- [ -9204.36609936]
- [-13065.86286144]
- [-11735.65219187]
- [-10320.83496892]
- [-17755.63905599]
- [-18044.82347281]
- [-18320.02309665]]</t>
+          <t>[[-10460.93339183]
+ [-11719.07690762]
+ [-12645.02684531]
+ [-21910.42702206]
+ [-23301.21281448]
+ [-24467.44484788]
+ [-28687.9125396 ]
+ [-25601.93682291]
+ [-22323.4751633 ]
+ [-20027.88468827]
+ [-18795.51785686]
+ [-17499.84067228]]</t>
         </is>
       </c>
       <c r="E612" t="inlineStr"/>
@@ -16202,18 +16200,18 @@
       <c r="C614" t="inlineStr"/>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[0.43436789]
- [0.39370236]
- [0.35278289]
- [0.29406335]
- [0.23527056]
- [0.17667629]
- [0.23143026]
- [0.22872638]
- [0.21068386]
- [0.25309263]
- [0.12453029]
- [0.12488505]]</t>
+          <t>[[0.41164136]
+ [0.37365332]
+ [0.33553365]
+ [0.44909794]
+ [0.3565352 ]
+ [0.26430968]
+ [0.28802711]
+ [0.28704024]
+ [0.26738441]
+ [0.19488097]
+ [0.11934124]
+ [0.13184168]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16232,18 +16230,18 @@
       <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr">
         <is>
-          <t>[[0.11274662]
- [0.10729774]
- [0.10187473]
- [0.10042483]
- [0.09291699]
- [0.08553818]
- [0.15837438]
- [0.15755635]
- [0.15957768]
- [0.56021511]
- [0.55321058]
- [0.54620331]]</t>
+          <t>[[0.17805801]
+ [0.16980543]
+ [0.16155377]
+ [0.48723842]
+ [0.46659793]
+ [0.44591398]
+ [0.57976341]
+ [0.56832186]
+ [0.56321512]
+ [0.55103075]
+ [0.54945837]
+ [0.5504649 ]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16262,18 +16260,18 @@
       <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[1.11344999]
- [1.01181251]
- [0.91030565]
- [0.76584496]
- [0.62235751]
- [0.48007008]
- [0.66914609]
- [0.72408946]
- [0.77789096]
- [1.26277455]
- [0.65086196]
- [0.66104495]]</t>
+          <t>[[1.81656659]
+ [1.6508006 ]
+ [1.48522022]
+ [2.06201212]
+ [1.6904104 ]
+ [1.32036142]
+ [1.50498277]
+ [1.57673768]
+ [1.69013471]
+ [1.54363825]
+ [0.93714757]
+ [1.17991224]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16389,7 +16387,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[0.23634439]</t>
+          <t>[0.24172686]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16412,7 +16410,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[0.23897492]</t>
+          <t>[0.24458961]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16435,7 +16433,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[0.23634439 0.23897492 0.7628393  0.88628817 1.03365797 2.4227752 ]</t>
+          <t>[0.24172686 0.24458961 0.77118174 0.94454298 1.1181925  2.96007586]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16454,9 +16452,9 @@
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[[   1.16384812    1.10563031   -4.53759413    4.9845257    -1.71641001]
- [ 192.76327287 -336.2428202   320.171669    -63.86628884 -111.82583284]
- [ -68.59758682  231.30227136 -430.45486542  458.17362481 -189.42344393]]</t>
+          <t>[[   0.84921956    1.09312388   -2.72504459    2.63889621   -0.85619506]
+ [  34.02666431  -23.05009506  -25.71678379   72.52063543  -56.78042088]
+ [ -89.22970402  259.70069629 -469.46183198  527.87873824 -227.88789853]]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16475,9 +16473,9 @@
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[[   1.14664405    1.1198359    -4.51644286    4.92109787   -1.67113496]
- [  36.43209799  -53.36547975   31.56180543   25.09010827  -38.71853193]
- [ -64.93227521  216.68150149 -402.98460656  427.18680678 -174.95142649]]</t>
+          <t>[[   0.83740469    1.08843427   -2.67707149    2.56044426   -0.80921173]
+ [  15.60978055   -5.45808523  -25.42711259   50.53171199  -34.25629471]
+ [ -86.44704863  249.66529639 -451.67955686  507.11267089 -217.65136179]]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16496,7 +16494,7 @@
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[[  6.55008061 -21.62323394  30.2418452  -18.22040808   4.0517162 ]
+          <t>[[  5.16303114 -15.86588339  23.98440514 -16.83151123   4.54995835]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -16521,7 +16519,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.23897492 1.03365797 2.50239822]</t>
+          <t>[0.24458961 1.1181925  3.01445615]</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
@@ -16544,7 +16542,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0.23634439 0.88628817 2.4227752 ]</t>
+          <t>[0.24172686 0.94454298 2.96007586]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
@@ -16567,7 +16565,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[4.8829449 0.        0.       ]</t>
+          <t>[4.32855434 0.         0.        ]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16591,18 +16589,18 @@
       <c r="D630" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00807516]
- [0.03046512]
- [0.06586615]
- [0.1364094 ]
- [0.2269892 ]
- [0.33375209]
- [0.40572038]
- [0.48537551]
- [0.57399789]
- [0.66844146]
- [0.77227461]
- [0.8791472 ]]</t>
+ [0.00652671]
+ [0.02431998]
+ [0.05235513]
+ [0.1140948 ]
+ [0.20132253]
+ [0.3091488 ]
+ [0.38310382]
+ [0.46540234]
+ [0.55766761]
+ [0.65328986]
+ [0.75625484]
+ [0.86216933]]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
@@ -16625,7 +16623,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[0.8791472]</t>
+          <t>[0.86216933]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
@@ -16648,17 +16646,17 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-17452350.88530215]
- [-16210952.53759762]
- [-14969173.64224009]
- [-13194771.64061391]
- [-11420032.25349326]
- [ -9645037.23863564]
- [ -8952148.39516638]
- [ -8343212.99962719]
- [ -7818290.39053385]
- [ -7570339.39719079]
- [ -7322327.01625802]
+          <t>[[-14137160.2769769 ]
+ [-13044861.56673705]
+ [-11952114.2543811 ]
+ [-10982779.66139249]
+ [-10012851.30242394]
+ [ -9042424.6256795 ]
+ [ -8587006.20714758]
+ [ -8189264.08368282]
+ [ -7849251.9226282 ]
+ [ -7569541.84535765]
+ [ -7311202.06926156]
  [ -7074256.27587359]]</t>
         </is>
       </c>
@@ -16682,18 +16680,18 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[[2428340.74750155]
- [2429076.91360711]
- [2429746.44799186]
- [2431555.51099555]
- [2432587.18214335]
- [2433420.67818559]
- [2430335.63502881]
- [2430269.99481195]
- [2430174.29540535]
- [2429138.32853434]
- [2429259.18994879]
- [2429298.52809833]]</t>
+          <t>[[2428220.74223609]
+ [2428730.60105878]
+ [2429194.47409366]
+ [2429661.12557496]
+ [2430378.96115889]
+ [2430959.80379956]
+ [2429553.62105771]
+ [2429507.97639125]
+ [2429442.32295447]
+ [2429310.84473273]
+ [2429303.35357566]
+ [2429225.59719733]]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16716,18 +16714,18 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[[29100.21705562]
- [29110.0550604 ]
- [29119.09398618]
- [29143.61990486]
- [29158.04605685]
- [29170.08947809]
- [29128.13980439]
- [29127.7029852 ]
- [29127.06123843]
- [29112.88377914]
- [29115.80230547]
- [29117.73444325]]</t>
+          <t>[[29098.622573  ]
+ [29105.43600535]
+ [29111.698381  ]
+ [29118.12162777]
+ [29128.15944276]
+ [29136.55177556]
+ [29117.43056921]
+ [29117.1133627 ]
+ [29116.67389303]
+ [29115.4351758 ]
+ [29116.24178058]
+ [29116.31243066]]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
@@ -16750,18 +16748,18 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[[-4359054.71294704]
- [-4002642.28320746]
- [-3643752.41815183]
- [-3127814.08022803]
- [-2609847.7224417 ]
- [-2091394.27557316]
- [-1780722.3941837 ]
- [-1469656.64177822]
- [-1157989.38193093]
- [ -865968.83657879]
- [ -572581.17978985]
- [ -278501.81963877]]</t>
+          <t>[[-4344736.89595478]
+ [-3990180.4223171 ]
+ [-3634078.76789704]
+ [-3122413.31748535]
+ [-2607628.20394778]
+ [-2091015.58454959]
+ [-1780646.07590038]
+ [-1469613.63674616]
+ [-1157646.23399928]
+ [ -865460.66158585]
+ [ -572324.72068445]
+ [ -278501.92667911]]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
@@ -16784,18 +16782,18 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[[ 3.26181894e+08]
- [ 2.96482817e+08]
- [ 2.66600629e+08]
- [ 2.23676745e+08]
- [ 1.80612409e+08]
- [ 1.37524021e+08]
- [ 1.11707717e+08]
- [ 8.58733186e+07]
- [ 6.00126083e+07]
- [ 3.58275982e+07]
- [ 1.15949475e+07]
- [-1.26341965e+07]]</t>
+          <t>[[ 3.25121280e+08]
+ [ 2.95561422e+08]
+ [ 2.65887406e+08]
+ [ 2.23281252e+08]
+ [ 1.80454160e+08]
+ [ 1.37505434e+08]
+ [ 1.11714789e+08]
+ [ 8.58867781e+07]
+ [ 6.00098843e+07]
+ [ 3.58127284e+07]
+ [ 1.15867517e+07]
+ [-1.26341969e+07]]</t>
         </is>
       </c>
       <c r="E636" t="inlineStr"/>
@@ -16818,18 +16816,18 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[1299689.84318767]
- [1299674.65472769]
- [1299659.46024462]
- [1299644.26983159]
- [1299622.56637809]
- [1299600.85553687]
- [1299642.99384307]
- [1299653.24091151]
- [1299668.86249151]
- [1299848.44912528]
- [1299836.15996386]
- [1299823.86796219]]</t>
+          <t>[[1299673.17891415]
+ [1299657.97175298]
+ [1299642.7564331 ]
+ [1299730.28660591]
+ [1299708.4488852 ]
+ [1299686.59852228]
+ [1299722.17566951]
+ [1299745.08893418]
+ [1299778.03476946]
+ [1299805.84856045]
+ [1299821.13687477]
+ [1299840.29912663]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16852,9 +16850,9 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>[[  2427925.55809654]
- [    29094.73368412]
- [-18693228.13433488]]</t>
+          <t>[[  2427925.5580971 ]
+ [    29094.73368413]
+ [-15228847.72391246]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16877,8 +16875,8 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-4.71225004e+06]
- [ 3.55640347e+08]
+          <t>[[-4.69725126e+06]
+ [ 3.54528418e+08]
  [ 1.29946107e+06]]</t>
         </is>
       </c>
@@ -16902,7 +16900,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[2145314.73898238]</t>
+          <t>[1790944.66702917]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16925,7 +16923,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[-2.98183994e+00 -4.40501006e-02  1.07808252e+02]</t>
+          <t>[-3.57184970e+00 -5.27661920e-02  1.16617214e+02]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16948,7 +16946,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[3.17668343e+10 3.16293473e+10 2.84222173e+08 7.86163621e+02
+          <t>[3.00971245e+10 2.99596375e+10 2.83706211e+08 7.86163621e+02
  1.35359722e+07 1.70976373e+05]</t>
         </is>
       </c>
@@ -19589,8 +19587,8 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         10.95121027 10.9512112  10.82254631
- 10.82255446]</t>
+          <t>[11.98673647 11.98673647 11.98673647 11.98673647 11.98673647 11.98673647
+ 11.98673647]</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -19617,8 +19615,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[[0.12997233 0.13       0.13       0.12995885 0.12995998 0.1299748
-  0.12997784]]</t>
+          <t>[[0.077 0.077 0.077 0.077 0.077 0.077 0.077]]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -19834,7 +19831,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[10.         10.          9.99727031  6.57606399  6.57608231]</t>
+          <t>[11.98673647 11.98673647 11.98673647  7.69904921  5.999     ]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -19884,7 +19881,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[[0.04  0.04  0.04  0.015 0.015]]</t>
+          <t>[[0.03737835 0.02117265 0.015      0.015      0.015     ]]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
